--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -746,16 +746,16 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -837,19 +837,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -917,7 +917,7 @@
         <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1002,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -1122,25 +1122,25 @@
         <v>1.13</v>
       </c>
       <c r="H5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
         <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O5" t="n">
         <v>1.07</v>
@@ -1187,7 +1187,7 @@
         <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1196,10 +1196,10 @@
         <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>67</v>
@@ -1208,19 +1208,19 @@
         <v>351</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ5" t="n">
         <v>81</v>
@@ -1549,10 +1549,10 @@
         <v>4.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
@@ -1561,7 +1561,7 @@
         <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1609,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
@@ -1627,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN8" t="n">
         <v>8.5</v>
@@ -1872,10 +1872,10 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>2.5</v>
@@ -2017,10 +2017,10 @@
         <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T11" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -2147,7 +2147,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
@@ -2200,10 +2200,10 @@
         <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
@@ -2230,7 +2230,7 @@
         <v>101</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2282,7 +2282,7 @@
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2360,7 +2360,7 @@
         <v>251</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>29</v>
@@ -2442,16 +2442,16 @@
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T14" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
         <v>2.3</v>
@@ -2496,13 +2496,13 @@
         <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
@@ -2617,10 +2617,10 @@
         <v>1.95</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.5</v>
@@ -2629,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
@@ -2653,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
         <v>15</v>
@@ -2708,22 +2708,22 @@
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2732,10 +2732,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2791,7 +2791,7 @@
         <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>15</v>
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -2861,22 +2861,22 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
         <v>3.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
         <v>1.4</v>
@@ -3002,22 +3002,22 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -3143,13 +3143,13 @@
         <v>2.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3166,7 +3166,7 @@
         <v>3.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
         <v>1.36</v>
@@ -3284,13 +3284,13 @@
         <v>13</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
         <v>5.5</v>
@@ -3308,10 +3308,10 @@
         <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
         <v>1.25</v>
@@ -3427,13 +3427,13 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>3.75</v>
@@ -3454,7 +3454,7 @@
         <v>3.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
         <v>1.36</v>
@@ -3578,7 +3578,7 @@
         <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P22" t="n">
         <v>8</v>
@@ -3592,10 +3592,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W22" t="n">
         <v>1.2</v>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
@@ -3710,16 +3710,16 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
         <v>3.4</v>
@@ -3736,7 +3736,7 @@
         <v>3.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3754,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.5</v>
@@ -3787,10 +3787,10 @@
         <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>67</v>
@@ -4137,7 +4137,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O26" t="n">
         <v>1.08</v>
@@ -4146,10 +4146,10 @@
         <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4442,10 +4442,10 @@
         <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U28" t="n">
         <v>4.5</v>
@@ -5139,28 +5139,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
         <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
         <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5183,10 +5183,10 @@
         <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
         <v>2.38</v>
@@ -5195,10 +5195,10 @@
         <v>1.53</v>
       </c>
       <c r="AA33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5222,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="n">
         <v>101</v>
@@ -5449,16 +5449,16 @@
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5999,7 +5999,7 @@
         <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J39" t="n">
         <v>2</v>
@@ -6047,10 +6047,10 @@
         <v>3.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA39" t="n">
         <v>9</v>
@@ -6728,10 +6728,10 @@
         <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -7445,10 +7445,10 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
         <v>1.44</v>
@@ -7493,7 +7493,7 @@
         <v>67</v>
       </c>
       <c r="AK49" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
         <v>6</v>
@@ -7548,16 +7548,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
         <v>5.75</v>
       </c>
       <c r="J50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K50" t="n">
         <v>2.2</v>
@@ -7566,36 +7566,36 @@
         <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R50" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y50" t="n">
         <v>2</v>
@@ -7604,7 +7604,7 @@
         <v>1.73</v>
       </c>
       <c r="AA50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB50" t="n">
         <v>7</v>
@@ -7613,19 +7613,19 @@
         <v>8.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>29</v>
       </c>
       <c r="AG50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI50" t="n">
         <v>19</v>
@@ -7634,7 +7634,7 @@
         <v>67</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AL50" t="n">
         <v>13</v>
@@ -7646,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="AO50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP50" t="n">
         <v>41</v>
@@ -7707,13 +7707,13 @@
         <v>3.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P51" t="n">
         <v>3.4</v>
@@ -7734,7 +7734,7 @@
         <v>3.4</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W51" t="n">
         <v>1.4</v>
@@ -7856,13 +7856,13 @@
         <v>5.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
         <v>3.75</v>
@@ -7883,7 +7883,7 @@
         <v>3.25</v>
       </c>
       <c r="V52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="n">
         <v>1.36</v>
@@ -8005,13 +8005,13 @@
         <v>2.88</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -8032,7 +8032,7 @@
         <v>2.75</v>
       </c>
       <c r="V53" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W53" t="n">
         <v>1.33</v>
@@ -8154,13 +8154,13 @@
         <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
         <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P54" t="n">
         <v>2.75</v>
@@ -8181,7 +8181,7 @@
         <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W54" t="n">
         <v>1.5</v>
@@ -8303,16 +8303,16 @@
         <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
         <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q55" t="n">
         <v>2.5</v>
@@ -8330,7 +8330,7 @@
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W55" t="n">
         <v>1.53</v>
@@ -8622,7 +8622,7 @@
         <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U57" t="n">
         <v>4.33</v>
@@ -8895,10 +8895,10 @@
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O59" t="n">
         <v>1.29</v>
@@ -9485,7 +9485,7 @@
         <v>1.22</v>
       </c>
       <c r="W63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X63" t="n">
         <v>2.5</v>
@@ -9626,7 +9626,7 @@
         <v>1.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X64" t="n">
         <v>3</v>
@@ -9767,7 +9767,7 @@
         <v>1.33</v>
       </c>
       <c r="W65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X65" t="n">
         <v>3</v>
@@ -9908,10 +9908,10 @@
         <v>1.29</v>
       </c>
       <c r="W66" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X66" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y66" t="n">
         <v>1.8</v>
@@ -10453,7 +10453,7 @@
         <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>1.33</v>
@@ -10714,10 +10714,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H72" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I72" t="n">
         <v>5.5</v>
@@ -10732,10 +10732,10 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -10752,10 +10752,10 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V72" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W72" t="n">
         <v>1.36</v>
@@ -10782,7 +10782,7 @@
         <v>11</v>
       </c>
       <c r="AE72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF72" t="n">
         <v>26</v>
@@ -10794,7 +10794,7 @@
         <v>8</v>
       </c>
       <c r="AI72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ72" t="n">
         <v>51</v>
@@ -10812,7 +10812,7 @@
         <v>17</v>
       </c>
       <c r="AO72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP72" t="n">
         <v>41</v>
@@ -11024,10 +11024,10 @@
         <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q74" t="n">
         <v>2.2</v>
@@ -11141,16 +11141,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H75" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J75" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K75" t="n">
         <v>2.05</v>
@@ -11197,7 +11197,7 @@
         <v>1.57</v>
       </c>
       <c r="AA75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB75" t="n">
         <v>6.5</v>
@@ -11206,35 +11206,35 @@
         <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE75" t="n">
         <v>15</v>
       </c>
       <c r="AF75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG75" t="n">
         <v>7.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
         <v>81</v>
       </c>
       <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO75" t="n">
         <v>67</v>
@@ -11745,18 +11745,18 @@
         <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R79" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W79" t="n">
         <v>1.4</v>
@@ -11807,13 +11807,13 @@
         <v>13</v>
       </c>
       <c r="AM79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN79" t="n">
         <v>17</v>
       </c>
       <c r="AO79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
@@ -11856,16 +11856,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>3.5</v>
       </c>
       <c r="I80" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K80" t="n">
         <v>2.2</v>
@@ -11900,10 +11900,10 @@
         <v>1.36</v>
       </c>
       <c r="W80" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y80" t="n">
         <v>1.67</v>
@@ -11912,7 +11912,7 @@
         <v>2.1</v>
       </c>
       <c r="AA80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB80" t="n">
         <v>15</v>
@@ -11945,7 +11945,7 @@
         <v>201</v>
       </c>
       <c r="AL80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM80" t="n">
         <v>12</v>
@@ -12864,7 +12864,7 @@
         <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O87" t="n">
         <v>1.25</v>
@@ -12984,16 +12984,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H88" t="n">
         <v>3.1</v>
       </c>
       <c r="I88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J88" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.2</v>
       </c>
       <c r="K88" t="n">
         <v>1.95</v>
@@ -13005,7 +13005,7 @@
         <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O88" t="n">
         <v>1.44</v>
@@ -13034,10 +13034,10 @@
         <v>2.38</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA88" t="n">
         <v>6.5</v>
@@ -13046,7 +13046,7 @@
         <v>10</v>
       </c>
       <c r="AC88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD88" t="n">
         <v>21</v>
@@ -13055,7 +13055,7 @@
         <v>21</v>
       </c>
       <c r="AF88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG88" t="n">
         <v>7.5</v>
@@ -13064,16 +13064,16 @@
         <v>6</v>
       </c>
       <c r="AI88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ88" t="n">
         <v>67</v>
       </c>
       <c r="AK88" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL88" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM88" t="n">
         <v>15</v>
@@ -13973,7 +13973,7 @@
         <v>4.45</v>
       </c>
       <c r="I95" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J95" t="n">
         <v>1.87</v>
@@ -13982,25 +13982,25 @@
         <v>2.47</v>
       </c>
       <c r="L95" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R95" t="n">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V95" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
@@ -14008,13 +14008,13 @@
         <v>1.63</v>
       </c>
       <c r="Z95" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB95" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AC95" t="n">
         <v>7.2</v>
@@ -14026,16 +14026,16 @@
         <v>9</v>
       </c>
       <c r="AF95" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI95" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ95" t="n">
         <v>45</v>
@@ -14259,10 +14259,10 @@
         <v>3</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R97" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -14394,16 +14394,16 @@
         <v>13</v>
       </c>
       <c r="O98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R98" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -14686,10 +14686,10 @@
         <v>4.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R100" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S100" t="n">
         <v>2.05</v>
@@ -14710,16 +14710,16 @@
         <v>3.4</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z100" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA100" t="n">
         <v>10</v>
       </c>
       <c r="AB100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC100" t="n">
         <v>9</v>
@@ -15228,10 +15228,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H104" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I104" t="n">
         <v>3.6</v>
@@ -15249,7 +15249,7 @@
         <v>1.04</v>
       </c>
       <c r="N104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O104" t="n">
         <v>1.25</v>
@@ -15258,10 +15258,10 @@
         <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -15290,7 +15290,7 @@
         <v>10</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD104" t="n">
         <v>17</v>
@@ -15393,24 +15393,24 @@
         <v>15</v>
       </c>
       <c r="O105" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P105" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R105" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V105" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W105" t="n">
         <v>1.33</v>
@@ -16367,7 +16367,7 @@
         <v>1.53</v>
       </c>
       <c r="H112" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I112" t="n">
         <v>5</v>
@@ -16436,7 +16436,7 @@
         <v>12</v>
       </c>
       <c r="AE112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF112" t="n">
         <v>21</v>
@@ -16445,7 +16445,7 @@
         <v>17</v>
       </c>
       <c r="AH112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI112" t="n">
         <v>15</v>
@@ -16787,7 +16787,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H115" t="n">
         <v>3.8</v>
@@ -16831,7 +16831,7 @@
         <v>1.33</v>
       </c>
       <c r="W115" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X115" t="n">
         <v>3</v>
@@ -16928,7 +16928,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>5</v>
@@ -16976,7 +16976,7 @@
         <v>1.5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X116" t="n">
         <v>3.4</v>
@@ -17073,7 +17073,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H117" t="n">
         <v>3.6</v>
@@ -17117,7 +17117,7 @@
         <v>1.2</v>
       </c>
       <c r="W117" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X117" t="n">
         <v>2.5</v>
@@ -17790,13 +17790,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J122" t="n">
         <v>3</v>
@@ -18179,10 +18179,10 @@
         <v>41</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="125">
@@ -18232,13 +18232,13 @@
         <v>2.05</v>
       </c>
       <c r="L125" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M125" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N125" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O125" t="n">
         <v>1.36</v>
@@ -18279,7 +18279,7 @@
         <v>9.5</v>
       </c>
       <c r="AC125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD125" t="n">
         <v>19</v>
@@ -18318,7 +18318,7 @@
         <v>41</v>
       </c>
       <c r="AP125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ125" t="n">
         <v>41</v>
@@ -18382,10 +18382,10 @@
         <v>7</v>
       </c>
       <c r="O126" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P126" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q126" t="n">
         <v>2.5</v>
@@ -18465,10 +18465,10 @@
         <v>41</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="127">
@@ -18509,7 +18509,7 @@
         <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J127" t="n">
         <v>3.25</v>
@@ -18524,13 +18524,13 @@
         <v>1.08</v>
       </c>
       <c r="N127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q127" t="n">
         <v>2.35</v>
@@ -18589,7 +18589,7 @@
         <v>67</v>
       </c>
       <c r="AK127" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL127" t="n">
         <v>7.5</v>
@@ -18648,13 +18648,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H128" t="n">
         <v>2.9</v>
       </c>
       <c r="I128" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J128" t="n">
         <v>3.25</v>
@@ -18672,24 +18672,24 @@
         <v>7</v>
       </c>
       <c r="O128" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P128" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R128" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V128" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W128" t="n">
         <v>1.57</v>
@@ -18725,7 +18725,7 @@
         <v>6.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI128" t="n">
         <v>17</v>
@@ -18755,10 +18755,10 @@
         <v>41</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -18955,7 +18955,7 @@
         <v>1.08</v>
       </c>
       <c r="N130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O130" t="n">
         <v>1.44</v>
@@ -19383,10 +19383,10 @@
         <v>4.33</v>
       </c>
       <c r="M133" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O133" t="n">
         <v>1.3</v>
@@ -19395,10 +19395,10 @@
         <v>3.4</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R133" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
@@ -20130,22 +20130,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>3.1</v>
       </c>
       <c r="I140" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J140" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K140" t="n">
         <v>2</v>
       </c>
       <c r="L140" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M140" t="n">
         <v>1.08</v>
@@ -20180,10 +20180,10 @@
         <v>2.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA140" t="n">
         <v>8</v>
@@ -20198,13 +20198,13 @@
         <v>29</v>
       </c>
       <c r="AE140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG140" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH140" t="n">
         <v>6</v>
@@ -20216,7 +20216,7 @@
         <v>51</v>
       </c>
       <c r="AK140" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL140" t="n">
         <v>7.5</v>
@@ -20271,13 +20271,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>4.5</v>
       </c>
       <c r="I141" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J141" t="n">
         <v>2.1</v>
@@ -20309,10 +20309,10 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V141" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W141" t="n">
         <v>1.25</v>
@@ -20321,16 +20321,16 @@
         <v>3.75</v>
       </c>
       <c r="Y141" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z141" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA141" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB141" t="n">
         <v>10</v>
-      </c>
-      <c r="AB141" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC141" t="n">
         <v>8.5</v>
@@ -20345,10 +20345,10 @@
         <v>19</v>
       </c>
       <c r="AG141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH141" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI141" t="n">
         <v>13</v>
@@ -20375,7 +20375,7 @@
         <v>34</v>
       </c>
       <c r="AQ141" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
@@ -20697,19 +20697,19 @@
         <v>3.2</v>
       </c>
       <c r="H144" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J144" t="n">
         <v>3.55</v>
       </c>
       <c r="K144" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L144" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -20720,10 +20720,10 @@
         <v>3.7</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R144" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
@@ -20736,10 +20736,10 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z144" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AA144" t="n">
         <v>12.5</v>
@@ -20751,7 +20751,7 @@
         <v>11.25</v>
       </c>
       <c r="AD144" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE144" t="n">
         <v>25</v>
@@ -20760,34 +20760,34 @@
         <v>28</v>
       </c>
       <c r="AG144" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AI144" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ144" t="n">
         <v>45</v>
       </c>
       <c r="AK144" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL144" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM144" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AN144" t="n">
         <v>8.5</v>
       </c>
       <c r="AO144" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP144" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ144" t="n">
         <v>21</v>
@@ -22405,16 +22405,16 @@
         <v>5.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P157" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q157" t="n">
         <v>1.7</v>
@@ -22810,7 +22810,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
@@ -22957,7 +22957,7 @@
         <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="J161" t="n">
         <v>3.75</v>
@@ -22969,10 +22969,10 @@
         <v>3.2</v>
       </c>
       <c r="M161" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N161" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O161" t="n">
         <v>1.4</v>
@@ -23092,7 +23092,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H162" t="n">
         <v>6.25</v>
@@ -23378,16 +23378,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H164" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I164" t="n">
         <v>2.2</v>
       </c>
       <c r="J164" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K164" t="n">
         <v>2.1</v>
@@ -23422,16 +23422,16 @@
         <v>1.3</v>
       </c>
       <c r="W164" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X164" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z164" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA164" t="n">
         <v>10</v>
@@ -23452,7 +23452,7 @@
         <v>34</v>
       </c>
       <c r="AG164" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH164" t="n">
         <v>6</v>
@@ -23461,16 +23461,16 @@
         <v>13</v>
       </c>
       <c r="AJ164" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK164" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL164" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM164" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN164" t="n">
         <v>9</v>
@@ -23479,10 +23479,10 @@
         <v>21</v>
       </c>
       <c r="AP164" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ164" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR164" t="inlineStr"/>
       <c r="AS164" t="inlineStr"/>
@@ -24087,40 +24087,40 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H169" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J169" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K169" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L169" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M169" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N169" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O169" t="n">
         <v>1.18</v>
       </c>
       <c r="P169" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R169" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
@@ -24128,7 +24128,7 @@
         <v>2.32</v>
       </c>
       <c r="V169" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W169" t="n">
         <v>1.32</v>
@@ -24146,52 +24146,52 @@
         <v>10.25</v>
       </c>
       <c r="AB169" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC169" t="n">
         <v>8.5</v>
       </c>
       <c r="AD169" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE169" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF169" t="n">
         <v>19</v>
       </c>
       <c r="AG169" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH169" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI169" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ169" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK169" t="n">
         <v>200</v>
       </c>
       <c r="AL169" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM169" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN169" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO169" t="n">
         <v>50</v>
       </c>
       <c r="AP169" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ169" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR169" t="inlineStr"/>
       <c r="AS169" t="inlineStr"/>
@@ -24419,7 +24419,7 @@
         <v>2.75</v>
       </c>
       <c r="Y171" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z171" t="n">
         <v>2</v>
@@ -24560,10 +24560,10 @@
         <v>2.63</v>
       </c>
       <c r="Y172" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z172" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA172" t="n">
         <v>8</v>
@@ -24689,10 +24689,10 @@
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V173" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W173" t="n">
         <v>1.4</v>
@@ -24701,10 +24701,10 @@
         <v>2.75</v>
       </c>
       <c r="Y173" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA173" t="n">
         <v>7.5</v>
@@ -25364,19 +25364,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H178" t="n">
         <v>6</v>
       </c>
       <c r="I178" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J178" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K178" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="L178" t="n">
         <v>1.57</v>
@@ -25385,39 +25385,39 @@
         <v>1.02</v>
       </c>
       <c r="N178" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="O178" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P178" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R178" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V178" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W178" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X178" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Y178" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AA178" t="n">
         <v>35</v>
@@ -25429,46 +25429,46 @@
         <v>35</v>
       </c>
       <c r="AD178" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE178" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF178" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG178" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH178" t="n">
         <v>13.5</v>
       </c>
       <c r="AI178" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ178" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK178" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AL178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM178" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AN178" t="n">
         <v>9.75</v>
       </c>
       <c r="AO178" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AP178" t="n">
         <v>10.25</v>
       </c>
       <c r="AQ178" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25786,43 +25786,113 @@
           <t>DPMM</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N181" t="n">
+        <v>29</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P181" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3.4</v>
+      </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
-      <c r="AB181" t="inlineStr"/>
-      <c r="AC181" t="inlineStr"/>
-      <c r="AD181" t="inlineStr"/>
-      <c r="AE181" t="inlineStr"/>
-      <c r="AF181" t="inlineStr"/>
-      <c r="AG181" t="inlineStr"/>
-      <c r="AH181" t="inlineStr"/>
-      <c r="AI181" t="inlineStr"/>
-      <c r="AJ181" t="inlineStr"/>
-      <c r="AK181" t="inlineStr"/>
-      <c r="AL181" t="inlineStr"/>
-      <c r="AM181" t="inlineStr"/>
-      <c r="AN181" t="inlineStr"/>
-      <c r="AO181" t="inlineStr"/>
-      <c r="AP181" t="inlineStr"/>
-      <c r="AQ181" t="inlineStr"/>
+      <c r="U181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>17</v>
+      </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>
     </row>
@@ -26155,7 +26225,7 @@
         <v>2.25</v>
       </c>
       <c r="L184" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="M184" t="n">
         <v>1.05</v>
@@ -26178,7 +26248,7 @@
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V184" t="n">
         <v>1.42</v>
@@ -26190,13 +26260,13 @@
         <v>2.95</v>
       </c>
       <c r="Y184" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z184" t="n">
         <v>2.02</v>
       </c>
       <c r="AA184" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB184" t="n">
         <v>9</v>
@@ -26217,19 +26287,19 @@
         <v>8.75</v>
       </c>
       <c r="AH184" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI184" t="n">
         <v>16</v>
       </c>
       <c r="AJ184" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK184" t="n">
         <v>500</v>
       </c>
       <c r="AL184" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM184" t="n">
         <v>29</v>
@@ -26563,28 +26633,28 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H187" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I187" t="n">
         <v>3.95</v>
       </c>
       <c r="J187" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="K187" t="n">
         <v>2.15</v>
       </c>
       <c r="L187" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="M187" t="n">
         <v>1.07</v>
       </c>
       <c r="N187" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O187" t="n">
         <v>1.33</v>
@@ -26593,7 +26663,7 @@
         <v>3.05</v>
       </c>
       <c r="Q187" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R187" t="n">
         <v>1.75</v>
@@ -26619,7 +26689,7 @@
         <v>1.91</v>
       </c>
       <c r="AA187" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB187" t="n">
         <v>9</v>
@@ -26628,19 +26698,19 @@
         <v>8.25</v>
       </c>
       <c r="AD187" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE187" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF187" t="n">
         <v>27</v>
       </c>
       <c r="AG187" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AH187" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI187" t="n">
         <v>14.5</v>
@@ -26652,10 +26722,10 @@
         <v>600</v>
       </c>
       <c r="AL187" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM187" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN187" t="n">
         <v>13</v>
@@ -26664,10 +26734,10 @@
         <v>60</v>
       </c>
       <c r="AP187" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ187" t="n">
         <v>40</v>
-      </c>
-      <c r="AQ187" t="n">
-        <v>45</v>
       </c>
       <c r="AR187" t="inlineStr"/>
       <c r="AS187" t="inlineStr"/>
@@ -26863,13 +26933,13 @@
         <v>2.88</v>
       </c>
       <c r="M189" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N189" t="n">
         <v>9.5</v>
       </c>
       <c r="O189" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P189" t="n">
         <v>3.4</v>
@@ -26886,7 +26956,7 @@
         <v>3.5</v>
       </c>
       <c r="V189" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W189" t="n">
         <v>1.44</v>
@@ -27127,16 +27197,16 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H191" t="n">
         <v>3.1</v>
       </c>
       <c r="I191" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J191" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K191" t="n">
         <v>2.1</v>
@@ -27148,7 +27218,7 @@
         <v>1.06</v>
       </c>
       <c r="N191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O191" t="n">
         <v>1.29</v>
@@ -27219,7 +27289,7 @@
         <v>9.5</v>
       </c>
       <c r="AM191" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN191" t="n">
         <v>11</v>
@@ -27439,18 +27509,18 @@
         <v>3.75</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R193" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V193" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W193" t="n">
         <v>1.4</v>
@@ -27556,7 +27626,7 @@
         <v>3.7</v>
       </c>
       <c r="I194" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J194" t="n">
         <v>5</v>
@@ -27574,10 +27644,10 @@
         <v>9.5</v>
       </c>
       <c r="O194" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P194" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q194" t="n">
         <v>2.03</v>
@@ -27648,7 +27718,7 @@
         <v>8.5</v>
       </c>
       <c r="AO194" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP194" t="n">
         <v>15</v>
@@ -27798,10 +27868,10 @@
         <v>51</v>
       </c>
       <c r="AR195" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="196">
@@ -27836,7 +27906,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H196" t="n">
         <v>3</v>
@@ -27854,10 +27924,10 @@
         <v>4</v>
       </c>
       <c r="M196" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N196" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O196" t="n">
         <v>1.62</v>
@@ -27880,22 +27950,22 @@
         <v>1.11</v>
       </c>
       <c r="W196" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X196" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y196" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA196" t="n">
         <v>6</v>
       </c>
       <c r="AB196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC196" t="n">
         <v>11</v>
@@ -27904,13 +27974,13 @@
         <v>26</v>
       </c>
       <c r="AE196" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF196" t="n">
         <v>41</v>
       </c>
       <c r="AG196" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH196" t="n">
         <v>6</v>
@@ -27919,7 +27989,7 @@
         <v>21</v>
       </c>
       <c r="AJ196" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK196" t="n">
         <v>301</v>
@@ -27937,10 +28007,10 @@
         <v>34</v>
       </c>
       <c r="AP196" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ196" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR196" t="n">
         <v>2.04</v>
@@ -27999,10 +28069,10 @@
         <v>5</v>
       </c>
       <c r="M197" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N197" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O197" t="n">
         <v>1.3</v>
@@ -28014,7 +28084,7 @@
         <v>2.05</v>
       </c>
       <c r="R197" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
@@ -28031,10 +28101,10 @@
         <v>2.63</v>
       </c>
       <c r="Y197" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z197" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA197" t="n">
         <v>6.5</v>
@@ -28055,7 +28125,7 @@
         <v>29</v>
       </c>
       <c r="AG197" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH197" t="n">
         <v>6.5</v>
@@ -28284,7 +28354,7 @@
         <v>1.08</v>
       </c>
       <c r="N199" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O199" t="n">
         <v>1.4</v>
@@ -29399,22 +29469,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H207" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I207" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J207" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K207" t="n">
         <v>2.1</v>
       </c>
       <c r="L207" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M207" t="n">
         <v>1.06</v>
@@ -29423,16 +29493,16 @@
         <v>10</v>
       </c>
       <c r="O207" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P207" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R207" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
@@ -29455,10 +29525,10 @@
         <v>2</v>
       </c>
       <c r="AA207" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB207" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC207" t="n">
         <v>11</v>
@@ -29467,13 +29537,13 @@
         <v>29</v>
       </c>
       <c r="AE207" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF207" t="n">
         <v>29</v>
       </c>
       <c r="AG207" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH207" t="n">
         <v>6</v>
@@ -29491,13 +29561,13 @@
         <v>8.5</v>
       </c>
       <c r="AM207" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN207" t="n">
         <v>10</v>
       </c>
       <c r="AO207" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP207" t="n">
         <v>21</v>
@@ -30104,80 +30174,80 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H212" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I212" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J212" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K212" t="n">
         <v>2.19</v>
       </c>
       <c r="L212" t="n">
-        <v>2.26</v>
+        <v>2.19</v>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P212" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="R212" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S212" t="inlineStr"/>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="V212" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W212" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X212" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Y212" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="Z212" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA212" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AB212" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AC212" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD212" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AE212" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF212" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG212" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AH212" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AI212" t="n">
         <v>16</v>
@@ -30189,13 +30259,13 @@
         <v>101</v>
       </c>
       <c r="AL212" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AM212" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AN212" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO212" t="n">
         <v>10</v>
@@ -30204,7 +30274,7 @@
         <v>13</v>
       </c>
       <c r="AQ212" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AR212" t="inlineStr"/>
       <c r="AS212" t="inlineStr"/>
@@ -30241,7 +30311,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>3.1</v>
@@ -30256,7 +30326,7 @@
         <v>1.91</v>
       </c>
       <c r="L213" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M213" t="n">
         <v>1.11</v>
@@ -30300,13 +30370,13 @@
         <v>6</v>
       </c>
       <c r="AB213" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC213" t="n">
         <v>11</v>
       </c>
       <c r="AD213" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE213" t="n">
         <v>26</v>
@@ -30333,13 +30403,13 @@
         <v>6.5</v>
       </c>
       <c r="AM213" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN213" t="n">
         <v>12</v>
       </c>
       <c r="AO213" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP213" t="n">
         <v>29</v>
@@ -30954,7 +31024,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H222" t="n">
         <v>5.25</v>
@@ -30990,10 +31060,10 @@
         <v>2.35</v>
       </c>
       <c r="S222" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="T222" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U222" t="n">
         <v>2.38</v>
@@ -31099,7 +31169,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H223" t="n">
         <v>3.8</v>
@@ -31240,7 +31310,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H224" t="n">
         <v>3.4</v>
@@ -31417,10 +31487,10 @@
         <v>2.25</v>
       </c>
       <c r="S225" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T225" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U225" t="n">
         <v>2.5</v>
@@ -31816,22 +31886,22 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H228" t="n">
         <v>3.75</v>
       </c>
       <c r="I228" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J228" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K228" t="n">
         <v>2.25</v>
       </c>
       <c r="L228" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M228" t="n">
         <v>1.03</v>
@@ -31866,10 +31936,10 @@
         <v>3.25</v>
       </c>
       <c r="Y228" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z228" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA228" t="n">
         <v>10</v>
@@ -31881,7 +31951,7 @@
         <v>9.5</v>
       </c>
       <c r="AD228" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE228" t="n">
         <v>19</v>
@@ -31914,10 +31984,10 @@
         <v>10</v>
       </c>
       <c r="AO228" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP228" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ228" t="n">
         <v>23</v>
@@ -32302,7 +32372,7 @@
         <v>9</v>
       </c>
       <c r="AB231" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC231" t="n">
         <v>8.5</v>
@@ -32320,7 +32390,7 @@
         <v>15</v>
       </c>
       <c r="AH231" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI231" t="n">
         <v>13</v>
@@ -32332,7 +32402,7 @@
         <v>151</v>
       </c>
       <c r="AL231" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM231" t="n">
         <v>21</v>
@@ -32384,7 +32454,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H232" t="n">
         <v>3.9</v>
@@ -32525,7 +32595,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H233" t="n">
         <v>3.8</v>
@@ -32666,7 +32736,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H234" t="n">
         <v>4.33</v>
@@ -33935,22 +34005,22 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>3.45</v>
       </c>
       <c r="I247" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="J247" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K247" t="n">
         <v>2.05</v>
       </c>
       <c r="L247" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="M247" t="n">
         <v>1.08</v>
@@ -33959,7 +34029,7 @@
         <v>6.5</v>
       </c>
       <c r="O247" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P247" t="n">
         <v>2.75</v>
@@ -33979,10 +34049,10 @@
         <v>1.23</v>
       </c>
       <c r="W247" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X247" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y247" t="n">
         <v>2.1</v>
@@ -33991,31 +34061,31 @@
         <v>1.65</v>
       </c>
       <c r="AA247" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB247" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC247" t="n">
         <v>8.5</v>
       </c>
       <c r="AD247" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE247" t="n">
         <v>15.5</v>
       </c>
       <c r="AF247" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG247" t="n">
         <v>6.5</v>
       </c>
       <c r="AH247" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI247" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ247" t="n">
         <v>120</v>
@@ -34024,19 +34094,19 @@
         <v>101</v>
       </c>
       <c r="AL247" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM247" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN247" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO247" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP247" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ247" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -695,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>1.85</v>
@@ -716,28 +716,28 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
@@ -840,13 +840,13 @@
         <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
@@ -917,7 +917,7 @@
         <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
         <v>6.25</v>
@@ -993,7 +993,7 @@
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1002,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -1028,16 +1028,16 @@
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA4" t="n">
         <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1064,7 +1064,7 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
@@ -1140,27 +1140,27 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
         <v>1.17</v>
@@ -1175,16 +1175,16 @@
         <v>1.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1199,10 +1199,10 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
         <v>351</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1275,37 +1275,37 @@
         <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T6" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>1.25</v>
@@ -1320,7 +1320,7 @@
         <v>2.63</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1365,10 +1365,10 @@
         <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1423,13 +1423,13 @@
         <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>4.33</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
         <v>1.5</v>
@@ -1552,13 +1552,13 @@
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>2.25</v>
@@ -1567,19 +1567,19 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
         <v>2.05</v>
@@ -1588,10 +1588,10 @@
         <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
         <v>1.3</v>
@@ -1648,10 +1648,10 @@
         <v>8.5</v>
       </c>
       <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
         <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>12</v>
       </c>
       <c r="AQ8" t="n">
         <v>21</v>
@@ -1709,13 +1709,13 @@
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
         <v>4.5</v>
@@ -1733,10 +1733,10 @@
         <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
         <v>1.3</v>
@@ -1836,13 +1836,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>2.05</v>
@@ -1854,13 +1854,13 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>4.5</v>
@@ -1872,31 +1872,31 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
         <v>8.5</v>
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -1987,7 +1987,7 @@
         <v>5.75</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1.67</v>
@@ -1999,13 +1999,13 @@
         <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2017,16 +2017,16 @@
         <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.25</v>
@@ -2135,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
@@ -2147,10 +2147,10 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
         <v>8</v>
@@ -2164,10 +2164,10 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>1.17</v>
@@ -2273,25 +2273,25 @@
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L13" t="n">
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2309,10 +2309,10 @@
         <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2430,31 +2430,31 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="V14" t="n">
         <v>1.62</v>
@@ -2487,16 +2487,16 @@
         <v>41</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
         <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2560,13 +2560,13 @@
         <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -2575,22 +2575,22 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>2.03</v>
@@ -2602,7 +2602,7 @@
         <v>3.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2720,22 +2720,22 @@
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
         <v>1.36</v>
@@ -3008,16 +3008,16 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3143,13 +3143,13 @@
         <v>2.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3166,7 +3166,7 @@
         <v>3.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
         <v>1.36</v>
@@ -3269,7 +3269,7 @@
         <v>1.14</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I20" t="n">
         <v>21</v>
@@ -3284,13 +3284,13 @@
         <v>13</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
         <v>5.5</v>
@@ -3308,10 +3308,10 @@
         <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
         <v>1.25</v>
@@ -3427,22 +3427,22 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
         <v>2.03</v>
@@ -3454,7 +3454,7 @@
         <v>3.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
         <v>1.36</v>
@@ -3578,7 +3578,7 @@
         <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P22" t="n">
         <v>8</v>
@@ -3592,16 +3592,16 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
         <v>1.7</v>
@@ -3634,16 +3634,16 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK22" t="n">
         <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>51</v>
@@ -3701,10 +3701,10 @@
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
@@ -3713,13 +3713,13 @@
         <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
         <v>3.4</v>
@@ -3736,7 +3736,7 @@
         <v>3.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
         <v>1.44</v>
@@ -3772,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
@@ -3866,10 +3866,10 @@
         <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3995,13 +3995,13 @@
         <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>8.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
         <v>3.2</v>
@@ -4018,7 +4018,7 @@
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -4030,7 +4030,7 @@
         <v>2.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA25" t="n">
         <v>5</v>
@@ -4122,7 +4122,7 @@
         <v>6.5</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
         <v>1.57</v>
@@ -4137,27 +4137,27 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O26" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P26" t="n">
         <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W26" t="n">
         <v>1.17</v>
@@ -4166,7 +4166,7 @@
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z26" t="n">
         <v>2.1</v>
@@ -4178,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
         <v>9</v>
@@ -4187,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
         <v>29</v>
@@ -4211,13 +4211,13 @@
         <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4275,13 +4275,13 @@
         <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P27" t="n">
         <v>2.1</v>
@@ -4302,19 +4302,19 @@
         <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y27" t="n">
         <v>2.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -4424,16 +4424,16 @@
         <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q28" t="n">
         <v>2.4</v>
@@ -4451,7 +4451,7 @@
         <v>4.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
@@ -4463,7 +4463,7 @@
         <v>2.05</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -4573,13 +4573,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
         <v>4.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W29" t="n">
         <v>1.78</v>
@@ -4612,7 +4612,7 @@
         <v>2.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA29" t="n">
         <v>5.5</v>
@@ -4722,13 +4722,13 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4746,10 +4746,10 @@
         <v>1.18</v>
       </c>
       <c r="U30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W30" t="n">
         <v>1.67</v>
@@ -4758,10 +4758,10 @@
         <v>2.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
@@ -5139,28 +5139,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
         <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5195,19 +5195,19 @@
         <v>1.53</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
         <v>51</v>
@@ -5228,16 +5228,16 @@
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN33" t="n">
         <v>13</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="n">
         <v>34</v>
@@ -5449,16 +5449,16 @@
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5499,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
@@ -5526,7 +5526,7 @@
         <v>51</v>
       </c>
       <c r="AP35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ35" t="n">
         <v>67</v>
@@ -5713,7 +5713,7 @@
         <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J37" t="n">
         <v>2.1</v>
@@ -6698,28 +6698,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K44" t="n">
         <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>1.2</v>
@@ -6775,7 +6775,7 @@
         <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI44" t="n">
         <v>13</v>
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H49" t="n">
         <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J49" t="n">
         <v>5.5</v>
@@ -7428,7 +7428,7 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.33</v>
@@ -7445,10 +7445,10 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W49" t="n">
         <v>1.44</v>
@@ -7469,7 +7469,7 @@
         <v>23</v>
       </c>
       <c r="AC49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD49" t="n">
         <v>51</v>
@@ -7478,10 +7478,10 @@
         <v>41</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH49" t="n">
         <v>7</v>
@@ -7493,10 +7493,10 @@
         <v>67</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM49" t="n">
         <v>7.5</v>
@@ -7511,7 +7511,7 @@
         <v>15</v>
       </c>
       <c r="AQ49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7578,10 +7578,10 @@
         <v>3.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R50" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7592,10 +7592,10 @@
         <v>1.29</v>
       </c>
       <c r="W50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y50" t="n">
         <v>2</v>
@@ -7604,7 +7604,7 @@
         <v>1.73</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB50" t="n">
         <v>7</v>
@@ -7616,7 +7616,7 @@
         <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
         <v>29</v>
@@ -7634,7 +7634,7 @@
         <v>67</v>
       </c>
       <c r="AK50" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
         <v>13</v>
@@ -7646,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="AO50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP50" t="n">
         <v>41</v>
@@ -7689,16 +7689,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J51" t="n">
         <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.1</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
@@ -7731,10 +7731,10 @@
         <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V51" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W51" t="n">
         <v>1.4</v>
@@ -7743,10 +7743,10 @@
         <v>2.75</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z51" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA51" t="n">
         <v>8</v>
@@ -7758,7 +7758,7 @@
         <v>9.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE51" t="n">
         <v>19</v>
@@ -7767,19 +7767,19 @@
         <v>29</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ51" t="n">
         <v>51</v>
       </c>
       <c r="AK51" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL51" t="n">
         <v>9.5</v>
@@ -7791,10 +7791,10 @@
         <v>11</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ51" t="n">
         <v>34</v>
@@ -7859,7 +7859,7 @@
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
@@ -7868,10 +7868,10 @@
         <v>3.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R52" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
         <v>2.47</v>
@@ -7880,10 +7880,10 @@
         <v>1.53</v>
       </c>
       <c r="U52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W52" t="n">
         <v>1.36</v>
@@ -7987,22 +7987,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
         <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -8050,7 +8050,7 @@
         <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
         <v>11</v>
@@ -8062,7 +8062,7 @@
         <v>21</v>
       </c>
       <c r="AF53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG53" t="n">
         <v>13</v>
@@ -8089,7 +8089,7 @@
         <v>9.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP53" t="n">
         <v>17</v>
@@ -8452,16 +8452,16 @@
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q56" t="n">
         <v>2.4</v>
@@ -8479,7 +8479,7 @@
         <v>4.5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W56" t="n">
         <v>1.53</v>
@@ -8583,13 +8583,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J57" t="n">
         <v>4.75</v>
@@ -8601,16 +8601,16 @@
         <v>2.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
         <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q57" t="n">
         <v>2.35</v>
@@ -8628,13 +8628,13 @@
         <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y57" t="n">
         <v>2.1</v>
@@ -8646,7 +8646,7 @@
         <v>9.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="n">
         <v>15</v>
@@ -8661,10 +8661,10 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI57" t="n">
         <v>19</v>
@@ -8679,10 +8679,10 @@
         <v>6</v>
       </c>
       <c r="AM57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO57" t="n">
         <v>17</v>
@@ -8735,7 +8735,7 @@
         <v>2.4</v>
       </c>
       <c r="H58" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I58" t="n">
         <v>3.3</v>
@@ -8750,10 +8750,10 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O58" t="n">
         <v>1.53</v>
@@ -8776,10 +8776,10 @@
         <v>1.14</v>
       </c>
       <c r="W58" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y58" t="n">
         <v>2.2</v>
@@ -8794,7 +8794,7 @@
         <v>10</v>
       </c>
       <c r="AC58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
         <v>23</v>
@@ -9459,10 +9459,10 @@
         <v>3.2</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
@@ -9479,13 +9479,13 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V63" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X63" t="n">
         <v>2.5</v>
@@ -9626,7 +9626,7 @@
         <v>1.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X64" t="n">
         <v>3</v>
@@ -9767,7 +9767,7 @@
         <v>1.33</v>
       </c>
       <c r="W65" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X65" t="n">
         <v>3</v>
@@ -9908,10 +9908,10 @@
         <v>1.29</v>
       </c>
       <c r="W66" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X66" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y66" t="n">
         <v>1.8</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>3.6</v>
@@ -10155,7 +10155,7 @@
         <v>3.75</v>
       </c>
       <c r="J68" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K68" t="n">
         <v>2.1</v>
@@ -10164,10 +10164,10 @@
         <v>4.33</v>
       </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.3</v>
@@ -10176,10 +10176,10 @@
         <v>3.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10190,10 +10190,10 @@
         <v>1.29</v>
       </c>
       <c r="W68" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y68" t="n">
         <v>1.83</v>
@@ -10220,10 +10220,10 @@
         <v>29</v>
       </c>
       <c r="AG68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI68" t="n">
         <v>15</v>
@@ -10235,7 +10235,7 @@
         <v>301</v>
       </c>
       <c r="AL68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM68" t="n">
         <v>19</v>
@@ -10714,10 +10714,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H72" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I72" t="n">
         <v>5.5</v>
@@ -10744,18 +10744,18 @@
         <v>4</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R72" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V72" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W72" t="n">
         <v>1.36</v>
@@ -10782,7 +10782,7 @@
         <v>11</v>
       </c>
       <c r="AE72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF72" t="n">
         <v>26</v>
@@ -10794,7 +10794,7 @@
         <v>8</v>
       </c>
       <c r="AI72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="n">
         <v>51</v>
@@ -10812,7 +10812,7 @@
         <v>17</v>
       </c>
       <c r="AO72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP72" t="n">
         <v>41</v>
@@ -10885,10 +10885,10 @@
         <v>2.63</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10962,10 +10962,10 @@
         <v>41</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="74">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J74" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K74" t="n">
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
@@ -11050,10 +11050,10 @@
         <v>2.63</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA74" t="n">
         <v>6.5</v>
@@ -11065,7 +11065,7 @@
         <v>9</v>
       </c>
       <c r="AD74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE74" t="n">
         <v>17</v>
@@ -11089,7 +11089,7 @@
         <v>401</v>
       </c>
       <c r="AL74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM74" t="n">
         <v>19</v>
@@ -11147,7 +11147,7 @@
         <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
         <v>2.3</v>
@@ -11171,18 +11171,18 @@
         <v>2.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V75" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W75" t="n">
         <v>1.5</v>
@@ -11206,7 +11206,7 @@
         <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE75" t="n">
         <v>15</v>
@@ -11218,7 +11218,7 @@
         <v>7.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI75" t="n">
         <v>21</v>
@@ -11231,7 +11231,7 @@
         <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN75" t="n">
         <v>19</v>
@@ -11438,13 +11438,13 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11485,7 +11485,7 @@
         <v>1.91</v>
       </c>
       <c r="AA77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB77" t="n">
         <v>19</v>
@@ -11570,16 +11570,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
         <v>2.1</v>
@@ -11662,10 +11662,10 @@
         <v>11</v>
       </c>
       <c r="AM78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO78" t="n">
         <v>51</v>
@@ -11715,13 +11715,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>4.33</v>
       </c>
       <c r="I79" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
         <v>2.1</v>
@@ -11730,7 +11730,7 @@
         <v>2.25</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -11745,18 +11745,18 @@
         <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R79" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V79" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W79" t="n">
         <v>1.4</v>
@@ -11774,13 +11774,13 @@
         <v>6.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC79" t="n">
         <v>8.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE79" t="n">
         <v>13</v>
@@ -11792,7 +11792,7 @@
         <v>11</v>
       </c>
       <c r="AH79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
         <v>21</v>
@@ -11801,25 +11801,25 @@
         <v>67</v>
       </c>
       <c r="AK79" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL79" t="n">
         <v>13</v>
       </c>
       <c r="AM79" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
       </c>
       <c r="AQ79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11859,10 +11859,10 @@
         <v>2.8</v>
       </c>
       <c r="H80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J80" t="n">
         <v>3.4</v>
@@ -11871,7 +11871,7 @@
         <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
@@ -11886,18 +11886,18 @@
         <v>3.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R80" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W80" t="n">
         <v>1.4</v>
@@ -11906,10 +11906,10 @@
         <v>2.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA80" t="n">
         <v>9.5</v>
@@ -11918,7 +11918,7 @@
         <v>15</v>
       </c>
       <c r="AC80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD80" t="n">
         <v>29</v>
@@ -11945,7 +11945,7 @@
         <v>201</v>
       </c>
       <c r="AL80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM80" t="n">
         <v>12</v>
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H82" t="n">
         <v>3.6</v>
@@ -12194,7 +12194,7 @@
         <v>2.25</v>
       </c>
       <c r="AA82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="n">
         <v>13</v>
@@ -12227,7 +12227,7 @@
         <v>126</v>
       </c>
       <c r="AL82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM82" t="n">
         <v>15</v>
@@ -12285,7 +12285,7 @@
         <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J83" t="n">
         <v>3</v>
@@ -12450,10 +12450,10 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R84" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12573,7 +12573,7 @@
         <v>2.1</v>
       </c>
       <c r="K85" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L85" t="n">
         <v>7</v>
@@ -12582,27 +12582,27 @@
         <v>1.07</v>
       </c>
       <c r="N85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R85" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V85" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W85" t="n">
         <v>1.44</v>
@@ -12620,10 +12620,10 @@
         <v>5.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD85" t="n">
         <v>10</v>
@@ -12635,7 +12635,7 @@
         <v>34</v>
       </c>
       <c r="AG85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH85" t="n">
         <v>7.5</v>
@@ -12732,10 +12732,10 @@
         <v>3.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R86" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12803,7 +12803,7 @@
         <v>15</v>
       </c>
       <c r="AP86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ86" t="n">
         <v>23</v>
@@ -12843,7 +12843,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
         <v>3.6</v>
@@ -12873,10 +12873,10 @@
         <v>3.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R87" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -13132,45 +13132,45 @@
         <v>1.62</v>
       </c>
       <c r="H89" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J89" t="n">
         <v>2.25</v>
       </c>
       <c r="K89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O89" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R89" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V89" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W89" t="n">
         <v>1.44</v>
@@ -13179,13 +13179,13 @@
         <v>2.63</v>
       </c>
       <c r="Y89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB89" t="n">
         <v>7</v>
@@ -13203,19 +13203,19 @@
         <v>29</v>
       </c>
       <c r="AG89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH89" t="n">
         <v>7</v>
       </c>
       <c r="AI89" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ89" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK89" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL89" t="n">
         <v>13</v>
@@ -13230,7 +13230,7 @@
         <v>67</v>
       </c>
       <c r="AP89" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ89" t="n">
         <v>51</v>
@@ -13270,7 +13270,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H90" t="n">
         <v>3.4</v>
@@ -13582,18 +13582,18 @@
         <v>2.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R92" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V92" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W92" t="n">
         <v>1.5</v>
@@ -13723,10 +13723,10 @@
         <v>3</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R93" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -13970,72 +13970,72 @@
         <v>1.42</v>
       </c>
       <c r="H95" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I95" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J95" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K95" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L95" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="R95" t="n">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V95" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z95" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="AA95" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB95" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AC95" t="n">
         <v>7.1</v>
       </c>
-      <c r="AC95" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD95" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE95" t="n">
         <v>9</v>
       </c>
       <c r="AF95" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI95" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ95" t="n">
         <v>45</v>
@@ -14044,7 +14044,7 @@
         <v>250</v>
       </c>
       <c r="AL95" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM95" t="n">
         <v>30</v>
@@ -14059,7 +14059,7 @@
         <v>40</v>
       </c>
       <c r="AQ95" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
@@ -14096,103 +14096,107 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="H96" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="I96" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="J96" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="K96" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="L96" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P96" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R96" t="n">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>2.41</v>
+        <v>2.95</v>
       </c>
       <c r="V96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z96" t="n">
         <v>1.5</v>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>1.54</v>
-      </c>
       <c r="AA96" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AC96" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AD96" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE96" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF96" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG96" t="n">
-        <v>12.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH96" t="n">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="AI96" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ96" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AK96" t="n">
         <v>101</v>
       </c>
       <c r="AL96" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="AM96" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AN96" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AO96" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP96" t="n">
         <v>9.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14247,22 +14251,22 @@
         <v>3.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R97" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -14370,7 +14374,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H98" t="n">
         <v>4.75</v>
@@ -14541,16 +14545,16 @@
         <v>5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R99" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S99" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T99" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U99" t="n">
         <v>2.25</v>
@@ -14665,10 +14669,10 @@
         <v>3.4</v>
       </c>
       <c r="J100" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K100" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L100" t="n">
         <v>3.75</v>
@@ -14686,10 +14690,10 @@
         <v>4.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R100" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S100" t="n">
         <v>2.05</v>
@@ -14710,10 +14714,10 @@
         <v>3.4</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z100" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA100" t="n">
         <v>10</v>
@@ -14752,13 +14756,13 @@
         <v>13</v>
       </c>
       <c r="AM100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN100" t="n">
         <v>12</v>
       </c>
       <c r="AO100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP100" t="n">
         <v>23</v>
@@ -15099,7 +15103,7 @@
         <v>3.75</v>
       </c>
       <c r="K103" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L103" t="n">
         <v>3</v>
@@ -15161,7 +15165,7 @@
         <v>34</v>
       </c>
       <c r="AG103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH103" t="n">
         <v>6.5</v>
@@ -15173,7 +15177,7 @@
         <v>51</v>
       </c>
       <c r="AK103" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL103" t="n">
         <v>7.5</v>
@@ -15369,34 +15373,34 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H105" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I105" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J105" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K105" t="n">
         <v>2.3</v>
       </c>
       <c r="L105" t="n">
+        <v>4</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N105" t="n">
+        <v>13</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P105" t="n">
         <v>4.33</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N105" t="n">
-        <v>15</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P105" t="n">
-        <v>4</v>
       </c>
       <c r="Q105" t="n">
         <v>1.7</v>
@@ -15407,10 +15411,10 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V105" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W105" t="n">
         <v>1.33</v>
@@ -15434,16 +15438,16 @@
         <v>8.5</v>
       </c>
       <c r="AD105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE105" t="n">
         <v>15</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>13</v>
       </c>
       <c r="AF105" t="n">
         <v>21</v>
       </c>
       <c r="AG105" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH105" t="n">
         <v>7.5</v>
@@ -15473,7 +15477,7 @@
         <v>29</v>
       </c>
       <c r="AQ105" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15525,7 +15529,7 @@
         <v>2.3</v>
       </c>
       <c r="L106" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M106" t="n">
         <v>1.03</v>
@@ -15575,16 +15579,16 @@
         <v>8.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE106" t="n">
         <v>13</v>
       </c>
       <c r="AF106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH106" t="n">
         <v>7.5</v>
@@ -15660,7 +15664,7 @@
         <v>3.75</v>
       </c>
       <c r="J107" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K107" t="n">
         <v>2.38</v>
@@ -15711,7 +15715,7 @@
         <v>2.2</v>
       </c>
       <c r="AA107" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB107" t="n">
         <v>10</v>
@@ -15756,7 +15760,7 @@
         <v>41</v>
       </c>
       <c r="AP107" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ107" t="n">
         <v>29</v>
@@ -16093,7 +16097,7 @@
         <v>2.2</v>
       </c>
       <c r="L110" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M110" t="n">
         <v>1.05</v>
@@ -16167,16 +16171,16 @@
         <v>151</v>
       </c>
       <c r="AL110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN110" t="n">
         <v>12</v>
       </c>
       <c r="AO110" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP110" t="n">
         <v>26</v>
@@ -16234,13 +16238,13 @@
         <v>2.38</v>
       </c>
       <c r="L111" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M111" t="n">
         <v>1.03</v>
       </c>
       <c r="N111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O111" t="n">
         <v>1.17</v>
@@ -16367,7 +16371,7 @@
         <v>1.53</v>
       </c>
       <c r="H112" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I112" t="n">
         <v>5</v>
@@ -16436,7 +16440,7 @@
         <v>12</v>
       </c>
       <c r="AE112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF112" t="n">
         <v>21</v>
@@ -16445,7 +16449,7 @@
         <v>17</v>
       </c>
       <c r="AH112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI112" t="n">
         <v>15</v>
@@ -16469,7 +16473,7 @@
         <v>51</v>
       </c>
       <c r="AP112" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ112" t="n">
         <v>34</v>
@@ -16521,10 +16525,10 @@
         <v>2.5</v>
       </c>
       <c r="K113" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L113" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M113" t="n">
         <v>1.04</v>
@@ -16539,10 +16543,10 @@
         <v>4</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R113" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
@@ -16553,22 +16557,22 @@
         <v>1.4</v>
       </c>
       <c r="W113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X113" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z113" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC113" t="n">
         <v>8.5</v>
@@ -16583,7 +16587,7 @@
         <v>23</v>
       </c>
       <c r="AG113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH113" t="n">
         <v>7</v>
@@ -16598,7 +16602,7 @@
         <v>151</v>
       </c>
       <c r="AL113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM113" t="n">
         <v>21</v>
@@ -16650,10 +16654,10 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H114" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I114" t="n">
         <v>2.62</v>
@@ -16662,24 +16666,24 @@
         <v>3.2</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L114" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P114" t="n">
         <v>2.95</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R114" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16702,28 +16706,28 @@
         <v>1.98</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB114" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC114" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD114" t="n">
         <v>30</v>
       </c>
       <c r="AE114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF114" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG114" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH114" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI114" t="n">
         <v>12.5</v>
@@ -16735,22 +16739,22 @@
         <v>400</v>
       </c>
       <c r="AL114" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM114" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN114" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO114" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP114" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ114" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16787,7 +16791,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H115" t="n">
         <v>3.8</v>
@@ -16831,7 +16835,7 @@
         <v>1.33</v>
       </c>
       <c r="W115" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X115" t="n">
         <v>3</v>
@@ -16928,7 +16932,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H116" t="n">
         <v>5</v>
@@ -16949,34 +16953,34 @@
         <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O116" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P116" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R116" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S116" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T116" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U116" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V116" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W116" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X116" t="n">
         <v>3.4</v>
@@ -17073,7 +17077,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>3.6</v>
@@ -17082,19 +17086,19 @@
         <v>4.1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K117" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
         <v>5</v>
       </c>
       <c r="M117" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O117" t="n">
         <v>1.4</v>
@@ -17117,19 +17121,19 @@
         <v>1.2</v>
       </c>
       <c r="W117" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X117" t="n">
         <v>2.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA117" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB117" t="n">
         <v>7.5</v>
@@ -17171,7 +17175,7 @@
         <v>15</v>
       </c>
       <c r="AO117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP117" t="n">
         <v>41</v>
@@ -17232,10 +17236,10 @@
         <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O118" t="n">
         <v>1.44</v>
@@ -17534,18 +17538,18 @@
         <v>3.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R120" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W120" t="n">
         <v>1.4</v>
@@ -17654,19 +17658,19 @@
         <v>2.8</v>
       </c>
       <c r="J121" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K121" t="n">
         <v>1.95</v>
       </c>
       <c r="L121" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M121" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O121" t="n">
         <v>1.4</v>
@@ -17710,7 +17714,7 @@
         <v>11</v>
       </c>
       <c r="AD121" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE121" t="n">
         <v>23</v>
@@ -17737,7 +17741,7 @@
         <v>7.5</v>
       </c>
       <c r="AM121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN121" t="n">
         <v>11</v>
@@ -17790,22 +17794,22 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K122" t="n">
         <v>2</v>
       </c>
       <c r="L122" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M122" t="n">
         <v>1.08</v>
@@ -17846,7 +17850,7 @@
         <v>1.8</v>
       </c>
       <c r="AA122" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB122" t="n">
         <v>10</v>
@@ -17879,7 +17883,7 @@
         <v>401</v>
       </c>
       <c r="AL122" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM122" t="n">
         <v>15</v>
@@ -18072,28 +18076,28 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J124" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K124" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L124" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M124" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O124" t="n">
         <v>1.44</v>
@@ -18102,30 +18106,30 @@
         <v>2.63</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V124" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W124" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X124" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y124" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA124" t="n">
         <v>7</v>
@@ -18137,28 +18141,28 @@
         <v>11</v>
       </c>
       <c r="AD124" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE124" t="n">
         <v>26</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>23</v>
       </c>
       <c r="AF124" t="n">
         <v>41</v>
       </c>
       <c r="AG124" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH124" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ124" t="n">
         <v>67</v>
       </c>
       <c r="AK124" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL124" t="n">
         <v>7</v>
@@ -18170,19 +18174,19 @@
         <v>11</v>
       </c>
       <c r="AO124" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP124" t="n">
         <v>26</v>
-      </c>
-      <c r="AP124" t="n">
-        <v>23</v>
       </c>
       <c r="AQ124" t="n">
         <v>41</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="125">
@@ -18391,7 +18395,7 @@
         <v>2.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
@@ -18411,7 +18415,7 @@
         <v>2.05</v>
       </c>
       <c r="Z126" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA126" t="n">
         <v>6.5</v>
@@ -18465,10 +18469,10 @@
         <v>41</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="127">
@@ -18509,16 +18513,16 @@
         <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K127" t="n">
         <v>1.95</v>
       </c>
       <c r="L127" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M127" t="n">
         <v>1.08</v>
@@ -18536,7 +18540,7 @@
         <v>2.35</v>
       </c>
       <c r="R127" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
@@ -18556,7 +18560,7 @@
         <v>2</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA127" t="n">
         <v>7</v>
@@ -18651,19 +18655,19 @@
         <v>2.45</v>
       </c>
       <c r="H128" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J128" t="n">
         <v>3.25</v>
       </c>
       <c r="K128" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L128" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M128" t="n">
         <v>1.1</v>
@@ -18681,7 +18685,7 @@
         <v>2.4</v>
       </c>
       <c r="R128" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
@@ -18692,22 +18696,22 @@
         <v>1.18</v>
       </c>
       <c r="W128" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X128" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y128" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z128" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA128" t="n">
         <v>6.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC128" t="n">
         <v>10</v>
@@ -18722,7 +18726,7 @@
         <v>41</v>
       </c>
       <c r="AG128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH128" t="n">
         <v>6</v>
@@ -18734,10 +18738,10 @@
         <v>67</v>
       </c>
       <c r="AK128" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL128" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM128" t="n">
         <v>15</v>
@@ -18755,10 +18759,10 @@
         <v>41</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="129">
@@ -18793,40 +18797,40 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>3.25</v>
       </c>
       <c r="I129" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K129" t="n">
         <v>2.05</v>
       </c>
       <c r="L129" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M129" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N129" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O129" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P129" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q129" t="n">
         <v>2.1</v>
       </c>
       <c r="R129" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
@@ -18843,19 +18847,19 @@
         <v>2.63</v>
       </c>
       <c r="Y129" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB129" t="n">
         <v>13</v>
       </c>
       <c r="AC129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD129" t="n">
         <v>29</v>
@@ -18867,7 +18871,7 @@
         <v>34</v>
       </c>
       <c r="AG129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH129" t="n">
         <v>6</v>
@@ -18967,7 +18971,7 @@
         <v>2.35</v>
       </c>
       <c r="R130" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
@@ -18987,7 +18991,7 @@
         <v>2</v>
       </c>
       <c r="Z130" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
@@ -19041,10 +19045,10 @@
         <v>41</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="131">
@@ -19079,7 +19083,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>2.9</v>
@@ -19091,36 +19095,36 @@
         <v>4.33</v>
       </c>
       <c r="K131" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L131" t="n">
         <v>3.2</v>
       </c>
       <c r="M131" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N131" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O131" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P131" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="R131" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V131" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W131" t="n">
         <v>1.62</v>
@@ -19132,7 +19136,7 @@
         <v>2.2</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA131" t="n">
         <v>7.5</v>
@@ -19159,7 +19163,7 @@
         <v>6</v>
       </c>
       <c r="AI131" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ131" t="n">
         <v>81</v>
@@ -19168,7 +19172,7 @@
         <v>501</v>
       </c>
       <c r="AL131" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM131" t="n">
         <v>9.5</v>
@@ -19177,7 +19181,7 @@
         <v>10</v>
       </c>
       <c r="AO131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP131" t="n">
         <v>23</v>
@@ -19254,10 +19258,10 @@
         <v>3.5</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R132" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
@@ -19274,7 +19278,7 @@
         <v>2.75</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z132" t="n">
         <v>2</v>
@@ -19365,22 +19369,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H133" t="n">
         <v>3.5</v>
       </c>
       <c r="I133" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K133" t="n">
         <v>2.1</v>
       </c>
       <c r="L133" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M133" t="n">
         <v>1.06</v>
@@ -19395,10 +19399,10 @@
         <v>3.4</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
@@ -19424,16 +19428,16 @@
         <v>7</v>
       </c>
       <c r="AB133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF133" t="n">
         <v>29</v>
@@ -19442,22 +19446,22 @@
         <v>10</v>
       </c>
       <c r="AH133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ133" t="n">
         <v>51</v>
       </c>
       <c r="AK133" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL133" t="n">
         <v>11</v>
       </c>
       <c r="AM133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN133" t="n">
         <v>13</v>
@@ -19647,33 +19651,33 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="H135" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I135" t="n">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K135" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L135" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P135" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R135" t="n">
         <v>1.62</v>
@@ -19681,73 +19685,73 @@
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="V135" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W135" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X135" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Y135" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AA135" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AB135" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="AC135" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD135" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AE135" t="n">
         <v>11.25</v>
       </c>
       <c r="AF135" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG135" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH135" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AI135" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ135" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AK135" t="n">
         <v>101</v>
       </c>
       <c r="AL135" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM135" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AN135" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO135" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AP135" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AQ135" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19987,43 +19991,105 @@
           <t>Sri Pahang</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3.2</v>
+      </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.06</v>
+      </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
+      <c r="U138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1.41</v>
+      </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
-      <c r="AF138" t="inlineStr"/>
-      <c r="AG138" t="inlineStr"/>
-      <c r="AH138" t="inlineStr"/>
-      <c r="AI138" t="inlineStr"/>
-      <c r="AJ138" t="inlineStr"/>
-      <c r="AK138" t="inlineStr"/>
-      <c r="AL138" t="inlineStr"/>
-      <c r="AM138" t="inlineStr"/>
-      <c r="AN138" t="inlineStr"/>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
-      <c r="AQ138" t="inlineStr"/>
+      <c r="Y138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>22</v>
+      </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
     </row>
@@ -20058,43 +20124,101 @@
           <t>Negeri Sembilan</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="L139" t="n">
+        <v>4.4</v>
+      </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.36</v>
+      </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
+      <c r="U139" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V139" t="n">
+        <v>1.56</v>
+      </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
-      <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
-      <c r="AF139" t="inlineStr"/>
-      <c r="AG139" t="inlineStr"/>
-      <c r="AH139" t="inlineStr"/>
-      <c r="AI139" t="inlineStr"/>
-      <c r="AJ139" t="inlineStr"/>
-      <c r="AK139" t="inlineStr"/>
-      <c r="AL139" t="inlineStr"/>
-      <c r="AM139" t="inlineStr"/>
-      <c r="AN139" t="inlineStr"/>
-      <c r="AO139" t="inlineStr"/>
-      <c r="AP139" t="inlineStr"/>
-      <c r="AQ139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>27</v>
+      </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
     </row>
@@ -20130,16 +20254,16 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>3.1</v>
       </c>
       <c r="I140" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J140" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K140" t="n">
         <v>2</v>
@@ -20151,7 +20275,7 @@
         <v>1.08</v>
       </c>
       <c r="N140" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O140" t="n">
         <v>1.4</v>
@@ -20160,18 +20284,18 @@
         <v>2.75</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R140" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V140" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W140" t="n">
         <v>1.5</v>
@@ -20192,10 +20316,10 @@
         <v>13</v>
       </c>
       <c r="AC140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD140" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE140" t="n">
         <v>26</v>
@@ -20219,19 +20343,19 @@
         <v>351</v>
       </c>
       <c r="AL140" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN140" t="n">
         <v>10</v>
       </c>
       <c r="AO140" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP140" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ140" t="n">
         <v>34</v>
@@ -20271,7 +20395,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H141" t="n">
         <v>4.5</v>
@@ -20301,7 +20425,7 @@
         <v>5.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R141" t="n">
         <v>2.6</v>
@@ -20327,7 +20451,7 @@
         <v>2.38</v>
       </c>
       <c r="AA141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB141" t="n">
         <v>10</v>
@@ -20339,13 +20463,13 @@
         <v>13</v>
       </c>
       <c r="AE141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF141" t="n">
         <v>19</v>
       </c>
       <c r="AG141" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH141" t="n">
         <v>9</v>
@@ -20430,10 +20554,10 @@
         <v>6.5</v>
       </c>
       <c r="M142" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N142" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O142" t="n">
         <v>1.25</v>
@@ -20442,18 +20566,18 @@
         <v>3.75</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V142" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W142" t="n">
         <v>1.36</v>
@@ -20553,16 +20677,16 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H143" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J143" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K143" t="n">
         <v>2.2</v>
@@ -20603,10 +20727,10 @@
         <v>2.75</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA143" t="n">
         <v>7.5</v>
@@ -20630,13 +20754,13 @@
         <v>11</v>
       </c>
       <c r="AH143" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI143" t="n">
         <v>15</v>
       </c>
       <c r="AJ143" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK143" t="n">
         <v>201</v>
@@ -20648,7 +20772,7 @@
         <v>21</v>
       </c>
       <c r="AN143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO143" t="n">
         <v>41</v>
@@ -20830,10 +20954,10 @@
         <v>1.82</v>
       </c>
       <c r="H145" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I145" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="J145" t="n">
         <v>2.47</v>
@@ -20842,7 +20966,7 @@
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
@@ -20879,7 +21003,7 @@
         <v>1.88</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB145" t="n">
         <v>8.5</v>
@@ -20897,7 +21021,7 @@
         <v>26</v>
       </c>
       <c r="AG145" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH145" t="n">
         <v>6.2</v>
@@ -20924,10 +21048,10 @@
         <v>80</v>
       </c>
       <c r="AP145" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ145" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
@@ -21097,103 +21221,103 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="H147" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I147" t="n">
-        <v>5.6</v>
+        <v>4.65</v>
       </c>
       <c r="J147" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="K147" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L147" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P147" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R147" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="V147" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AA147" t="n">
         <v>7</v>
       </c>
       <c r="AB147" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC147" t="n">
         <v>8</v>
       </c>
       <c r="AD147" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AE147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF147" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG147" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH147" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AI147" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK147" t="n">
         <v>600</v>
       </c>
       <c r="AL147" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM147" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AN147" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO147" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AP147" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ147" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21531,10 +21655,10 @@
         <v>2.6</v>
       </c>
       <c r="M151" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O151" t="n">
         <v>1.33</v>
@@ -21551,10 +21675,10 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V151" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W151" t="n">
         <v>1.44</v>
@@ -21654,13 +21778,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H152" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I152" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J152" t="n">
         <v>2.2</v>
@@ -21672,22 +21796,22 @@
         <v>5.5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O152" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P152" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R152" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S152" t="n">
         <v>1.97</v>
@@ -21708,13 +21832,13 @@
         <v>3</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA152" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB152" t="n">
         <v>9</v>
@@ -21723,7 +21847,7 @@
         <v>8.5</v>
       </c>
       <c r="AD152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE152" t="n">
         <v>15</v>
@@ -21735,7 +21859,7 @@
         <v>10</v>
       </c>
       <c r="AH152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI152" t="n">
         <v>15</v>
@@ -21765,10 +21889,10 @@
         <v>41</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="153">
@@ -21803,13 +21927,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I153" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J153" t="n">
         <v>2.75</v>
@@ -21824,7 +21948,7 @@
         <v>1.04</v>
       </c>
       <c r="N153" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O153" t="n">
         <v>1.22</v>
@@ -21958,7 +22082,7 @@
         <v>3.4</v>
       </c>
       <c r="I154" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J154" t="n">
         <v>3</v>
@@ -22021,7 +22145,7 @@
         <v>9.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE154" t="n">
         <v>19</v>
@@ -22387,13 +22511,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I157" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J157" t="n">
         <v>2.1</v>
@@ -22405,13 +22529,13 @@
         <v>5.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N157" t="n">
         <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P157" t="n">
         <v>4</v>
@@ -22425,10 +22549,10 @@
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V157" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W157" t="n">
         <v>1.33</v>
@@ -22437,22 +22561,22 @@
         <v>3.25</v>
       </c>
       <c r="Y157" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z157" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB157" t="n">
         <v>8</v>
       </c>
       <c r="AC157" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE157" t="n">
         <v>12</v>
@@ -22467,7 +22591,7 @@
         <v>8</v>
       </c>
       <c r="AI157" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ157" t="n">
         <v>51</v>
@@ -22546,13 +22670,13 @@
         <v>2.88</v>
       </c>
       <c r="M158" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N158" t="n">
         <v>10</v>
       </c>
       <c r="O158" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P158" t="n">
         <v>3.4</v>
@@ -22569,22 +22693,22 @@
         <v>3.5</v>
       </c>
       <c r="V158" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W158" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X158" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB158" t="n">
         <v>15</v>
@@ -22617,10 +22741,10 @@
         <v>251</v>
       </c>
       <c r="AL158" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN158" t="n">
         <v>9.5</v>
@@ -22669,40 +22793,40 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H159" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
         <v>2.9</v>
       </c>
       <c r="J159" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K159" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L159" t="n">
         <v>3.75</v>
       </c>
       <c r="M159" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O159" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P159" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R159" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
@@ -22710,31 +22834,31 @@
         <v>4</v>
       </c>
       <c r="V159" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W159" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X159" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y159" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA159" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB159" t="n">
         <v>11</v>
       </c>
       <c r="AC159" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE159" t="n">
         <v>21</v>
@@ -22743,25 +22867,25 @@
         <v>34</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH159" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI159" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ159" t="n">
         <v>51</v>
       </c>
       <c r="AK159" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL159" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN159" t="n">
         <v>11</v>
@@ -22773,7 +22897,7 @@
         <v>26</v>
       </c>
       <c r="AQ159" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR159" t="inlineStr"/>
       <c r="AS159" t="inlineStr"/>
@@ -22810,31 +22934,31 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J160" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K160" t="n">
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N160" t="n">
         <v>10</v>
       </c>
       <c r="O160" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P160" t="n">
         <v>3.4</v>
@@ -22851,7 +22975,7 @@
         <v>3.5</v>
       </c>
       <c r="V160" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W160" t="n">
         <v>1.4</v>
@@ -22866,16 +22990,16 @@
         <v>2</v>
       </c>
       <c r="AA160" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC160" t="n">
         <v>10</v>
       </c>
       <c r="AD160" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE160" t="n">
         <v>21</v>
@@ -22893,7 +23017,7 @@
         <v>13</v>
       </c>
       <c r="AJ160" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK160" t="n">
         <v>201</v>
@@ -22969,13 +23093,13 @@
         <v>3.2</v>
       </c>
       <c r="M161" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N161" t="n">
         <v>8</v>
       </c>
       <c r="O161" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P161" t="n">
         <v>2.75</v>
@@ -22992,7 +23116,7 @@
         <v>4</v>
       </c>
       <c r="V161" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W161" t="n">
         <v>1.5</v>
@@ -23092,28 +23216,28 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H162" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J162" t="n">
         <v>1.62</v>
       </c>
       <c r="K162" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M162" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O162" t="n">
         <v>1.14</v>
@@ -23122,37 +23246,37 @@
         <v>5.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R162" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S162" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T162" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U162" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V162" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W162" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X162" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y162" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA162" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB162" t="n">
         <v>6.5</v>
@@ -23161,7 +23285,7 @@
         <v>9.5</v>
       </c>
       <c r="AD162" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE162" t="n">
         <v>11</v>
@@ -23170,22 +23294,22 @@
         <v>29</v>
       </c>
       <c r="AG162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH162" t="n">
         <v>12</v>
       </c>
       <c r="AI162" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ162" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK162" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL162" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM162" t="n">
         <v>51</v>
@@ -23855,10 +23979,10 @@
         <v>2.63</v>
       </c>
       <c r="Y167" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z167" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA167" t="n">
         <v>7.5</v>
@@ -24093,16 +24217,16 @@
         <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J169" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="K169" t="n">
         <v>2.22</v>
       </c>
       <c r="L169" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M169" t="n">
         <v>1.04</v>
@@ -24114,39 +24238,39 @@
         <v>1.18</v>
       </c>
       <c r="P169" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R169" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V169" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W169" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X169" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Y169" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z169" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AA169" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB169" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC169" t="n">
         <v>8.5</v>
@@ -24155,10 +24279,10 @@
         <v>20</v>
       </c>
       <c r="AE169" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF169" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG169" t="n">
         <v>8.75</v>
@@ -24176,22 +24300,22 @@
         <v>200</v>
       </c>
       <c r="AL169" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM169" t="n">
         <v>22</v>
       </c>
       <c r="AN169" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO169" t="n">
         <v>50</v>
       </c>
       <c r="AP169" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ169" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ169" t="n">
-        <v>24</v>
       </c>
       <c r="AR169" t="inlineStr"/>
       <c r="AS169" t="inlineStr"/>
@@ -24231,19 +24355,19 @@
         <v>1.45</v>
       </c>
       <c r="H170" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I170" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J170" t="n">
         <v>1.9</v>
       </c>
       <c r="K170" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L170" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M170" t="n">
         <v>1.03</v>
@@ -24255,27 +24379,27 @@
         <v>1.14</v>
       </c>
       <c r="P170" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R170" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V170" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W170" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X170" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Y170" t="n">
         <v>1.6</v>
@@ -24284,13 +24408,13 @@
         <v>2.2</v>
       </c>
       <c r="AA170" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB170" t="n">
         <v>8.75</v>
       </c>
       <c r="AC170" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD170" t="n">
         <v>11</v>
@@ -24305,7 +24429,7 @@
         <v>9.75</v>
       </c>
       <c r="AH170" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI170" t="n">
         <v>15</v>
@@ -24323,13 +24447,13 @@
         <v>40</v>
       </c>
       <c r="AN170" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO170" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP170" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ170" t="n">
         <v>40</v>
@@ -24369,40 +24493,40 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H171" t="n">
         <v>3</v>
       </c>
       <c r="I171" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J171" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K171" t="n">
         <v>2.1</v>
       </c>
       <c r="L171" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M171" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N171" t="n">
         <v>8</v>
       </c>
       <c r="O171" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P171" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q171" t="n">
         <v>2</v>
       </c>
       <c r="R171" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
@@ -24410,13 +24534,13 @@
         <v>3.4</v>
       </c>
       <c r="V171" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="W171" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X171" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y171" t="n">
         <v>1.69</v>
@@ -24425,16 +24549,16 @@
         <v>2</v>
       </c>
       <c r="AA171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB171" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD171" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE171" t="n">
         <v>26</v>
@@ -24443,7 +24567,7 @@
         <v>34</v>
       </c>
       <c r="AG171" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH171" t="n">
         <v>6</v>
@@ -24461,10 +24585,10 @@
         <v>8.5</v>
       </c>
       <c r="AM171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN171" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO171" t="n">
         <v>21</v>
@@ -24510,48 +24634,48 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H172" t="n">
         <v>3.2</v>
       </c>
       <c r="I172" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J172" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K172" t="n">
         <v>2.05</v>
       </c>
       <c r="L172" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M172" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N172" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O172" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="P172" t="n">
         <v>3.25</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R172" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V172" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="W172" t="n">
         <v>1.44</v>
@@ -24566,19 +24690,19 @@
         <v>1.8</v>
       </c>
       <c r="AA172" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD172" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE172" t="n">
         <v>23</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>21</v>
       </c>
       <c r="AF172" t="n">
         <v>34</v>
@@ -24596,22 +24720,22 @@
         <v>51</v>
       </c>
       <c r="AK172" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL172" t="n">
         <v>8.5</v>
       </c>
       <c r="AM172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN172" t="n">
         <v>11</v>
       </c>
       <c r="AO172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP172" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ172" t="n">
         <v>34</v>
@@ -24669,13 +24793,13 @@
         <v>3.75</v>
       </c>
       <c r="M173" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N173" t="n">
         <v>8</v>
       </c>
       <c r="O173" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P173" t="n">
         <v>3.4</v>
@@ -24684,15 +24808,15 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V173" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="W173" t="n">
         <v>1.4</v>
@@ -24810,22 +24934,22 @@
         <v>3.25</v>
       </c>
       <c r="M174" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N174" t="n">
         <v>8.5</v>
       </c>
       <c r="O174" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P174" t="n">
         <v>3.5</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R174" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
@@ -24833,7 +24957,7 @@
         <v>3.25</v>
       </c>
       <c r="V174" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="W174" t="n">
         <v>1.4</v>
@@ -24842,7 +24966,7 @@
         <v>2.75</v>
       </c>
       <c r="Y174" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z174" t="n">
         <v>2</v>
@@ -24951,22 +25075,22 @@
         <v>6.5</v>
       </c>
       <c r="M175" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N175" t="n">
         <v>11</v>
       </c>
       <c r="O175" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P175" t="n">
         <v>3.75</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R175" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S175" t="n">
         <v>2.05</v>
@@ -24978,7 +25102,7 @@
         <v>3</v>
       </c>
       <c r="V175" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W175" t="n">
         <v>1.36</v>
@@ -24990,7 +25114,7 @@
         <v>2</v>
       </c>
       <c r="Z175" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA175" t="n">
         <v>7</v>
@@ -25096,13 +25220,13 @@
         <v>2.6</v>
       </c>
       <c r="M176" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N176" t="n">
         <v>7</v>
       </c>
       <c r="O176" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="P176" t="n">
         <v>2.75</v>
@@ -25119,7 +25243,7 @@
         <v>4</v>
       </c>
       <c r="V176" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="W176" t="n">
         <v>1.5</v>
@@ -25131,7 +25255,7 @@
         <v>2.1</v>
       </c>
       <c r="Z176" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA176" t="n">
         <v>9.5</v>
@@ -25223,111 +25347,111 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H177" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I177" t="n">
         <v>2.1</v>
       </c>
       <c r="J177" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K177" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L177" t="n">
         <v>2.8</v>
       </c>
       <c r="M177" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N177" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O177" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P177" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="Q177" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R177" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="V177" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="W177" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X177" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="Y177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z177" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z177" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AA177" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AB177" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC177" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD177" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF177" t="n">
         <v>45</v>
       </c>
-      <c r="AE177" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF177" t="n">
-        <v>37</v>
-      </c>
       <c r="AG177" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AH177" t="n">
         <v>6.2</v>
       </c>
       <c r="AI177" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ177" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AK177" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AL177" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AM177" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AN177" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO177" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ177" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr"/>
@@ -25564,7 +25688,7 @@
         <v>8.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC179" t="n">
         <v>8.25</v>
@@ -25649,19 +25773,19 @@
         <v>2.07</v>
       </c>
       <c r="H180" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I180" t="n">
         <v>3.1</v>
       </c>
       <c r="J180" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="K180" t="n">
         <v>2.18</v>
       </c>
       <c r="L180" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="M180" t="n">
         <v>1.04</v>
@@ -25696,34 +25820,34 @@
         <v>2.95</v>
       </c>
       <c r="Y180" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z180" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AA180" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB180" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AC180" t="n">
         <v>8.5</v>
       </c>
       <c r="AD180" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE180" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF180" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG180" t="n">
         <v>8.25</v>
       </c>
       <c r="AH180" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI180" t="n">
         <v>11.75</v>
@@ -25735,22 +25859,22 @@
         <v>250</v>
       </c>
       <c r="AL180" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM180" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AN180" t="n">
         <v>11</v>
       </c>
       <c r="AO180" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP180" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ180" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -25787,48 +25911,48 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H181" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I181" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="J181" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K181" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L181" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M181" t="n">
         <v>1.01</v>
       </c>
       <c r="N181" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O181" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P181" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R181" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V181" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W181" t="n">
         <v>1.2</v>
@@ -25849,46 +25973,46 @@
         <v>21</v>
       </c>
       <c r="AC181" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE181" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF181" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG181" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH181" t="n">
         <v>9</v>
       </c>
       <c r="AI181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ181" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK181" t="n">
         <v>67</v>
       </c>
       <c r="AL181" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM181" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AN181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO181" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP181" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ181" t="n">
         <v>17</v>
@@ -26633,37 +26757,37 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="H187" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I187" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="J187" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K187" t="n">
         <v>2.15</v>
       </c>
       <c r="L187" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M187" t="n">
         <v>1.07</v>
       </c>
       <c r="N187" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O187" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P187" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q187" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R187" t="n">
         <v>1.75</v>
@@ -26683,34 +26807,34 @@
         <v>2.82</v>
       </c>
       <c r="Y187" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z187" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AA187" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB187" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC187" t="n">
         <v>8.25</v>
       </c>
       <c r="AD187" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE187" t="n">
         <v>15.5</v>
       </c>
       <c r="AF187" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG187" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH187" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI187" t="n">
         <v>14.5</v>
@@ -26722,16 +26846,16 @@
         <v>600</v>
       </c>
       <c r="AL187" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM187" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN187" t="n">
         <v>13</v>
       </c>
       <c r="AO187" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP187" t="n">
         <v>37</v>
@@ -26780,7 +26904,7 @@
         <v>3.25</v>
       </c>
       <c r="I188" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J188" t="n">
         <v>3.9</v>
@@ -26789,7 +26913,7 @@
         <v>2.02</v>
       </c>
       <c r="L188" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="M188" t="n">
         <v>1.07</v>
@@ -26830,10 +26954,10 @@
         <v>1.91</v>
       </c>
       <c r="AA188" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB188" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC188" t="n">
         <v>11.5</v>
@@ -26854,7 +26978,7 @@
         <v>6.2</v>
       </c>
       <c r="AI188" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ188" t="n">
         <v>70</v>
@@ -26863,7 +26987,7 @@
         <v>600</v>
       </c>
       <c r="AL188" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM188" t="n">
         <v>9.75</v>
@@ -26933,16 +27057,16 @@
         <v>2.88</v>
       </c>
       <c r="M189" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N189" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O189" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P189" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q189" t="n">
         <v>2.05</v>
@@ -26953,7 +27077,7 @@
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V189" t="n">
         <v>1.25</v>
@@ -27056,96 +27180,96 @@
         </is>
       </c>
       <c r="G190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L190" t="n">
         <v>3</v>
       </c>
-      <c r="H190" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K190" t="n">
+      <c r="M190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N190" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q190" t="n">
         <v>2.1</v>
       </c>
-      <c r="L190" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M190" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N190" t="n">
-        <v>10</v>
-      </c>
-      <c r="O190" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P190" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R190" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V190" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W190" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X190" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y190" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z190" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA190" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB190" t="n">
         <v>15</v>
       </c>
       <c r="AC190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD190" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE190" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF190" t="n">
         <v>34</v>
       </c>
       <c r="AG190" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH190" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI190" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ190" t="n">
         <v>51</v>
       </c>
       <c r="AK190" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL190" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM190" t="n">
         <v>11</v>
@@ -27154,7 +27278,7 @@
         <v>9.5</v>
       </c>
       <c r="AO190" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP190" t="n">
         <v>19</v>
@@ -27197,28 +27321,28 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H191" t="n">
         <v>3.1</v>
       </c>
       <c r="I191" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J191" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K191" t="n">
         <v>2.1</v>
       </c>
       <c r="L191" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M191" t="n">
         <v>1.06</v>
       </c>
       <c r="N191" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O191" t="n">
         <v>1.29</v>
@@ -27253,19 +27377,19 @@
         <v>2</v>
       </c>
       <c r="AA191" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC191" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD191" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE191" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF191" t="n">
         <v>29</v>
@@ -27286,7 +27410,7 @@
         <v>201</v>
       </c>
       <c r="AL191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM191" t="n">
         <v>15</v>
@@ -27298,10 +27422,10 @@
         <v>29</v>
       </c>
       <c r="AP191" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ191" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR191" t="inlineStr"/>
       <c r="AS191" t="inlineStr"/>
@@ -27509,18 +27633,18 @@
         <v>3.75</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R193" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V193" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W193" t="n">
         <v>1.4</v>
@@ -27641,7 +27765,7 @@
         <v>1.06</v>
       </c>
       <c r="N194" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O194" t="n">
         <v>1.33</v>
@@ -28072,7 +28196,7 @@
         <v>1.06</v>
       </c>
       <c r="N197" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O197" t="n">
         <v>1.3</v>
@@ -28333,7 +28457,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H199" t="n">
         <v>3.2</v>
@@ -28419,7 +28543,7 @@
         <v>67</v>
       </c>
       <c r="AK199" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AL199" t="n">
         <v>10</v>
@@ -28478,7 +28602,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
@@ -28490,61 +28614,61 @@
         <v>2.5</v>
       </c>
       <c r="K200" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L200" t="n">
         <v>4</v>
       </c>
       <c r="M200" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O200" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P200" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R200" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S200" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T200" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U200" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V200" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W200" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X200" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y200" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z200" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC200" t="n">
         <v>9</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD200" t="n">
         <v>17</v>
@@ -28556,22 +28680,22 @@
         <v>21</v>
       </c>
       <c r="AG200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH200" t="n">
         <v>7</v>
       </c>
       <c r="AI200" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ200" t="n">
         <v>41</v>
       </c>
       <c r="AK200" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM200" t="n">
         <v>21</v>
@@ -28623,7 +28747,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H201" t="n">
         <v>3.4</v>
@@ -28653,10 +28777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q201" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R201" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
@@ -28764,7 +28888,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H202" t="n">
         <v>3.6</v>
@@ -29046,45 +29170,45 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H204" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I204" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J204" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K204" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L204" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="M204" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N204" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O204" t="n">
         <v>1.24</v>
       </c>
       <c r="P204" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q204" t="n">
         <v>1.72</v>
       </c>
       <c r="R204" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V204" t="n">
         <v>1.4</v>
@@ -29096,19 +29220,19 @@
         <v>2.9</v>
       </c>
       <c r="Y204" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z204" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA204" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB204" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC204" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD204" t="n">
         <v>55</v>
@@ -29120,34 +29244,34 @@
         <v>35</v>
       </c>
       <c r="AG204" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH204" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AI204" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ204" t="n">
         <v>55</v>
       </c>
       <c r="AK204" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL204" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM204" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN204" t="n">
         <v>8.25</v>
       </c>
       <c r="AO204" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP204" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ204" t="n">
         <v>23</v>
@@ -29187,22 +29311,22 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H205" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I205" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="J205" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K205" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L205" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M205" t="n">
         <v>1.03</v>
@@ -29220,66 +29344,66 @@
         <v>1.55</v>
       </c>
       <c r="R205" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V205" t="n">
         <v>1.55</v>
       </c>
       <c r="W205" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X205" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y205" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA205" t="n">
         <v>7.7</v>
       </c>
       <c r="AB205" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AC205" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD205" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE205" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF205" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG205" t="n">
         <v>9</v>
       </c>
       <c r="AH205" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI205" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ205" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK205" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL205" t="n">
         <v>28</v>
       </c>
       <c r="AM205" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN205" t="n">
         <v>30</v>
@@ -29328,13 +29452,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I206" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="J206" t="n">
         <v>2.77</v>
@@ -29355,7 +29479,7 @@
         <v>1.22</v>
       </c>
       <c r="P206" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q206" t="n">
         <v>1.65</v>
@@ -29378,37 +29502,37 @@
         <v>3</v>
       </c>
       <c r="Y206" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z206" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AA206" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB206" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC206" t="n">
         <v>8.75</v>
       </c>
       <c r="AD206" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE206" t="n">
         <v>16</v>
       </c>
       <c r="AF206" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG206" t="n">
         <v>8.25</v>
       </c>
       <c r="AH206" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI206" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ206" t="n">
         <v>40</v>
@@ -29417,22 +29541,22 @@
         <v>250</v>
       </c>
       <c r="AL206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM206" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AN206" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO206" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP206" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ206" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR206" t="inlineStr"/>
       <c r="AS206" t="inlineStr"/>
@@ -29493,16 +29617,16 @@
         <v>10</v>
       </c>
       <c r="O207" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P207" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q207" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R207" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
@@ -29519,7 +29643,7 @@
         <v>2.75</v>
       </c>
       <c r="Y207" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z207" t="n">
         <v>2</v>
@@ -29640,10 +29764,10 @@
         <v>3.5</v>
       </c>
       <c r="Q208" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R208" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
@@ -29660,7 +29784,7 @@
         <v>2.75</v>
       </c>
       <c r="Y208" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z208" t="n">
         <v>2.1</v>
@@ -29789,10 +29913,10 @@
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V209" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W209" t="n">
         <v>1.25</v>
@@ -29813,7 +29937,7 @@
         <v>8</v>
       </c>
       <c r="AC209" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD209" t="n">
         <v>10</v>
@@ -29840,7 +29964,7 @@
         <v>151</v>
       </c>
       <c r="AL209" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM209" t="n">
         <v>41</v>
@@ -29910,22 +30034,22 @@
         <v>6.5</v>
       </c>
       <c r="M210" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N210" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O210" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P210" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R210" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
@@ -30063,10 +30187,10 @@
         <v>3.75</v>
       </c>
       <c r="Q211" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R211" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
@@ -30174,56 +30298,56 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H212" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I212" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J212" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="K212" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="L212" t="n">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P212" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="R212" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="S212" t="inlineStr"/>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V212" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W212" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X212" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="Y212" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="Z212" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AA212" t="n">
         <v>11</v>
@@ -30232,49 +30356,49 @@
         <v>27</v>
       </c>
       <c r="AC212" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD212" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AE212" t="n">
         <v>60</v>
       </c>
       <c r="AF212" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG212" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="AH212" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="AI212" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ212" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AK212" t="n">
         <v>101</v>
       </c>
       <c r="AL212" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AM212" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AN212" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AO212" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AP212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ212" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR212" t="inlineStr"/>
       <c r="AS212" t="inlineStr"/>
@@ -30311,7 +30435,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H213" t="n">
         <v>3.1</v>
@@ -30326,7 +30450,7 @@
         <v>1.91</v>
       </c>
       <c r="L213" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M213" t="n">
         <v>1.11</v>
@@ -30370,13 +30494,13 @@
         <v>6</v>
       </c>
       <c r="AB213" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC213" t="n">
         <v>11</v>
       </c>
       <c r="AD213" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE213" t="n">
         <v>26</v>
@@ -30403,13 +30527,13 @@
         <v>6.5</v>
       </c>
       <c r="AM213" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN213" t="n">
         <v>12</v>
       </c>
       <c r="AO213" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP213" t="n">
         <v>29</v>
@@ -31169,10 +31293,10 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I223" t="n">
         <v>4.33</v>
@@ -31187,22 +31311,22 @@
         <v>4.5</v>
       </c>
       <c r="M223" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N223" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O223" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P223" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R223" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="inlineStr"/>
@@ -31228,7 +31352,7 @@
         <v>8.5</v>
       </c>
       <c r="AB223" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC223" t="n">
         <v>8.5</v>
@@ -31240,7 +31364,7 @@
         <v>13</v>
       </c>
       <c r="AF223" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG223" t="n">
         <v>13</v>
@@ -31264,7 +31388,7 @@
         <v>23</v>
       </c>
       <c r="AN223" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO223" t="n">
         <v>41</v>
@@ -31316,13 +31440,13 @@
         <v>3.4</v>
       </c>
       <c r="I224" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J224" t="n">
         <v>2.75</v>
       </c>
       <c r="K224" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L224" t="n">
         <v>4.33</v>
@@ -31331,7 +31455,7 @@
         <v>1.07</v>
       </c>
       <c r="N224" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O224" t="n">
         <v>1.36</v>
@@ -31366,7 +31490,7 @@
         <v>1.8</v>
       </c>
       <c r="AA224" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB224" t="n">
         <v>9</v>
@@ -31378,16 +31502,16 @@
         <v>19</v>
       </c>
       <c r="AE224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF224" t="n">
         <v>29</v>
       </c>
       <c r="AG224" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH224" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI224" t="n">
         <v>17</v>
@@ -31399,13 +31523,13 @@
         <v>351</v>
       </c>
       <c r="AL224" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM224" t="n">
         <v>17</v>
       </c>
       <c r="AN224" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO224" t="n">
         <v>41</v>
@@ -31487,10 +31611,10 @@
         <v>2.25</v>
       </c>
       <c r="S225" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T225" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U225" t="n">
         <v>2.5</v>
@@ -31596,16 +31720,16 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H226" t="n">
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J226" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K226" t="n">
         <v>2.38</v>
@@ -31650,7 +31774,7 @@
         <v>3.4</v>
       </c>
       <c r="Y226" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z226" t="n">
         <v>2.25</v>
@@ -31659,7 +31783,7 @@
         <v>10</v>
       </c>
       <c r="AB226" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC226" t="n">
         <v>8.5</v>
@@ -31677,7 +31801,7 @@
         <v>17</v>
       </c>
       <c r="AH226" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI226" t="n">
         <v>13</v>
@@ -31695,7 +31819,7 @@
         <v>21</v>
       </c>
       <c r="AN226" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO226" t="n">
         <v>41</v>
@@ -31759,22 +31883,22 @@
         <v>4.75</v>
       </c>
       <c r="M227" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N227" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O227" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P227" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R227" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S227" t="n">
         <v>1.85</v>
@@ -31783,10 +31907,10 @@
         <v>2</v>
       </c>
       <c r="U227" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V227" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W227" t="n">
         <v>1.33</v>
@@ -31795,7 +31919,7 @@
         <v>3.25</v>
       </c>
       <c r="Y227" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z227" t="n">
         <v>2.1</v>
@@ -31886,10 +32010,10 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H228" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I228" t="n">
         <v>2.7</v>
@@ -31898,7 +32022,7 @@
         <v>3</v>
       </c>
       <c r="K228" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L228" t="n">
         <v>3.25</v>
@@ -31916,10 +32040,10 @@
         <v>4.33</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R228" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S228" t="inlineStr"/>
       <c r="T228" t="inlineStr"/>
@@ -31936,10 +32060,10 @@
         <v>3.25</v>
       </c>
       <c r="Y228" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Z228" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA228" t="n">
         <v>10</v>
@@ -31954,7 +32078,7 @@
         <v>23</v>
       </c>
       <c r="AE228" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF228" t="n">
         <v>23</v>
@@ -31963,16 +32087,16 @@
         <v>15</v>
       </c>
       <c r="AH228" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI228" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ228" t="n">
         <v>41</v>
       </c>
       <c r="AK228" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL228" t="n">
         <v>11</v>
@@ -32077,7 +32201,7 @@
         <v>3.25</v>
       </c>
       <c r="Y229" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z229" t="n">
         <v>2.2</v>
@@ -32168,13 +32292,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H230" t="n">
         <v>4</v>
       </c>
       <c r="I230" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J230" t="n">
         <v>2.3</v>
@@ -32183,13 +32307,13 @@
         <v>2.3</v>
       </c>
       <c r="L230" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M230" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N230" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O230" t="n">
         <v>1.22</v>
@@ -32198,10 +32322,10 @@
         <v>4</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R230" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr"/>
@@ -32218,7 +32342,7 @@
         <v>3.25</v>
       </c>
       <c r="Y230" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z230" t="n">
         <v>2.05</v>
@@ -32233,7 +32357,7 @@
         <v>8.5</v>
       </c>
       <c r="AD230" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE230" t="n">
         <v>13</v>
@@ -32254,10 +32378,10 @@
         <v>41</v>
       </c>
       <c r="AK230" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL230" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM230" t="n">
         <v>23</v>
@@ -32266,7 +32390,7 @@
         <v>15</v>
       </c>
       <c r="AO230" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP230" t="n">
         <v>34</v>
@@ -32309,13 +32433,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H231" t="n">
+        <v>4</v>
+      </c>
+      <c r="I231" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4</v>
       </c>
       <c r="J231" t="n">
         <v>2.38</v>
@@ -32372,7 +32496,7 @@
         <v>9</v>
       </c>
       <c r="AB231" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC231" t="n">
         <v>8.5</v>
@@ -32405,7 +32529,7 @@
         <v>15</v>
       </c>
       <c r="AM231" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN231" t="n">
         <v>13</v>
@@ -32454,22 +32578,22 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="H232" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J232" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K232" t="n">
         <v>2.3</v>
       </c>
       <c r="L232" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M232" t="n">
         <v>1.04</v>
@@ -32510,19 +32634,19 @@
         <v>2.05</v>
       </c>
       <c r="AA232" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB232" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC232" t="n">
         <v>8.5</v>
       </c>
       <c r="AD232" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE232" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF232" t="n">
         <v>23</v>
@@ -32540,13 +32664,13 @@
         <v>41</v>
       </c>
       <c r="AK232" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM232" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN232" t="n">
         <v>13</v>
@@ -32555,7 +32679,7 @@
         <v>41</v>
       </c>
       <c r="AP232" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ232" t="n">
         <v>34</v>
@@ -32595,7 +32719,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H233" t="n">
         <v>3.8</v>
@@ -32625,10 +32749,10 @@
         <v>4</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R233" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S233" t="inlineStr"/>
       <c r="T233" t="inlineStr"/>
@@ -32736,7 +32860,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H234" t="n">
         <v>4.33</v>
@@ -32757,7 +32881,7 @@
         <v>1.03</v>
       </c>
       <c r="N234" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O234" t="n">
         <v>1.17</v>
@@ -32772,10 +32896,10 @@
         <v>2.35</v>
       </c>
       <c r="S234" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T234" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U234" t="n">
         <v>2.38</v>
@@ -32796,7 +32920,7 @@
         <v>2.05</v>
       </c>
       <c r="AA234" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB234" t="n">
         <v>8</v>
@@ -32832,10 +32956,10 @@
         <v>21</v>
       </c>
       <c r="AM234" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN234" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO234" t="n">
         <v>67</v>
@@ -33449,22 +33573,22 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="H243" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I243" t="n">
         <v>1.7</v>
       </c>
       <c r="J243" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K243" t="n">
         <v>2.02</v>
       </c>
       <c r="L243" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
@@ -33501,43 +33625,43 @@
         <v>1.75</v>
       </c>
       <c r="AA243" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB243" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC243" t="n">
         <v>16</v>
       </c>
       <c r="AD243" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE243" t="n">
         <v>55</v>
       </c>
       <c r="AF243" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG243" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH243" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI243" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ243" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK243" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL243" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AM243" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AN243" t="n">
         <v>8</v>
@@ -33546,7 +33670,7 @@
         <v>13</v>
       </c>
       <c r="AP243" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ243" t="n">
         <v>29</v>
@@ -33592,10 +33716,10 @@
         <v>3</v>
       </c>
       <c r="I244" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J244" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K244" t="n">
         <v>1.88</v>
@@ -33609,7 +33733,7 @@
         <v>1.39</v>
       </c>
       <c r="P244" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Q244" t="n">
         <v>2.12</v>
@@ -33632,7 +33756,7 @@
         <v>2.22</v>
       </c>
       <c r="Y244" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Z244" t="n">
         <v>1.7</v>
@@ -33641,7 +33765,7 @@
         <v>5.6</v>
       </c>
       <c r="AB244" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC244" t="n">
         <v>8</v>
@@ -33665,19 +33789,19 @@
         <v>16.5</v>
       </c>
       <c r="AJ244" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK244" t="n">
         <v>900</v>
       </c>
       <c r="AL244" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM244" t="n">
         <v>32</v>
       </c>
       <c r="AN244" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO244" t="n">
         <v>120</v>
@@ -33686,7 +33810,7 @@
         <v>70</v>
       </c>
       <c r="AQ244" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR244" t="inlineStr"/>
       <c r="AS244" t="inlineStr"/>
@@ -33726,10 +33850,10 @@
         <v>1.29</v>
       </c>
       <c r="H245" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="I245" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J245" t="n">
         <v>1.75</v>
@@ -33738,7 +33862,7 @@
         <v>2.45</v>
       </c>
       <c r="L245" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="M245" t="n">
         <v>1.04</v>
@@ -33761,10 +33885,10 @@
       <c r="S245" t="inlineStr"/>
       <c r="T245" t="inlineStr"/>
       <c r="U245" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="V245" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W245" t="n">
         <v>1.34</v>
@@ -33773,7 +33897,7 @@
         <v>3</v>
       </c>
       <c r="Y245" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Z245" t="n">
         <v>1.65</v>
@@ -33782,19 +33906,19 @@
         <v>6.8</v>
       </c>
       <c r="AB245" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC245" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD245" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE245" t="n">
         <v>11.25</v>
       </c>
       <c r="AF245" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG245" t="n">
         <v>8.5</v>
@@ -33815,19 +33939,19 @@
         <v>22</v>
       </c>
       <c r="AM245" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN245" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO245" t="n">
         <v>250</v>
       </c>
       <c r="AP245" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ245" t="n">
         <v>110</v>
-      </c>
-      <c r="AQ245" t="n">
-        <v>100</v>
       </c>
       <c r="AR245" t="inlineStr"/>
       <c r="AS245" t="inlineStr"/>
@@ -33867,10 +33991,10 @@
         <v>2.45</v>
       </c>
       <c r="H246" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I246" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J246" t="n">
         <v>3.05</v>
@@ -33920,22 +34044,22 @@
         <v>2.25</v>
       </c>
       <c r="AA246" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB246" t="n">
         <v>13.5</v>
       </c>
       <c r="AC246" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD246" t="n">
         <v>27</v>
       </c>
       <c r="AE246" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF246" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG246" t="n">
         <v>8</v>
@@ -33944,7 +34068,7 @@
         <v>6.7</v>
       </c>
       <c r="AI246" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ246" t="n">
         <v>45</v>
@@ -33953,13 +34077,13 @@
         <v>300</v>
       </c>
       <c r="AL246" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM246" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN246" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO246" t="n">
         <v>30</v>
@@ -33968,7 +34092,7 @@
         <v>19.5</v>
       </c>
       <c r="AQ246" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR246" t="inlineStr"/>
       <c r="AS246" t="inlineStr"/>
@@ -34011,7 +34135,7 @@
         <v>3.45</v>
       </c>
       <c r="I247" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J247" t="n">
         <v>2.35</v>
@@ -34064,7 +34188,7 @@
         <v>5.6</v>
       </c>
       <c r="AB247" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC247" t="n">
         <v>8.5</v>
@@ -34082,7 +34206,7 @@
         <v>6.5</v>
       </c>
       <c r="AH247" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI247" t="n">
         <v>20</v>
@@ -34109,7 +34233,7 @@
         <v>55</v>
       </c>
       <c r="AQ247" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR247" t="inlineStr"/>
       <c r="AS247" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -722,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S2" t="n">
         <v>1.95</v>
@@ -855,30 +855,30 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
         <v>6.25</v>
@@ -996,30 +996,30 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
         <v>1.33</v>
@@ -1040,7 +1040,7 @@
         <v>7.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
@@ -1067,10 +1067,10 @@
         <v>401</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>21</v>
@@ -1125,31 +1125,31 @@
         <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R5" t="n">
         <v>3.75</v>
@@ -1157,10 +1157,10 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="W5" t="n">
         <v>1.17</v>
@@ -1181,7 +1181,7 @@
         <v>8.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>8</v>
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1205,22 +1205,22 @@
         <v>81</v>
       </c>
       <c r="AK5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO5" t="n">
         <v>351</v>
       </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>301</v>
-      </c>
       <c r="AP5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ5" t="n">
         <v>81</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1275,25 +1275,25 @@
         <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S6" t="n">
         <v>1.84</v>
@@ -1302,16 +1302,16 @@
         <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1.44</v>
@@ -1423,22 +1423,22 @@
         <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>4.33</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
         <v>1.5</v>
@@ -1546,40 +1546,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>2.05</v>
@@ -1588,25 +1588,25 @@
         <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1624,7 +1624,7 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>7.5</v>
@@ -1709,22 +1709,22 @@
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
         <v>2.07</v>
@@ -1733,10 +1733,10 @@
         <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
         <v>1.3</v>
@@ -1854,7 +1854,7 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
@@ -1863,31 +1863,31 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y10" t="n">
         <v>1.7</v>
@@ -1896,7 +1896,7 @@
         <v>2.05</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
         <v>8.5</v>
@@ -1905,10 +1905,10 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1938,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP10" t="n">
         <v>41</v>
@@ -1999,13 +1999,13 @@
         <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2023,10 +2023,10 @@
         <v>2.03</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>1.25</v>
@@ -2135,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
@@ -2150,7 +2150,7 @@
         <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
         <v>8</v>
@@ -2164,10 +2164,10 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
         <v>1.17</v>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
         <v>4.33</v>
@@ -2276,25 +2276,25 @@
         <v>5.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.73</v>
@@ -2309,10 +2309,10 @@
         <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2369,7 +2369,7 @@
         <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP13" t="n">
         <v>41</v>
@@ -2430,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.5</v>
@@ -2454,7 +2454,7 @@
         <v>2.07</v>
       </c>
       <c r="U14" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
         <v>1.62</v>
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -2575,22 +2575,22 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
         <v>2.03</v>
@@ -2602,7 +2602,7 @@
         <v>3.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2720,13 +2720,13 @@
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
         <v>1.36</v>
@@ -2861,27 +2861,27 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V17" t="n">
         <v>1.3</v>
@@ -3002,13 +3002,13 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
         <v>3.2</v>
@@ -3025,7 +3025,7 @@
         <v>3.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -3155,10 +3155,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3269,7 +3269,7 @@
         <v>1.14</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
         <v>21</v>
@@ -3287,7 +3287,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
@@ -3302,10 +3302,10 @@
         <v>2.63</v>
       </c>
       <c r="S20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="U20" t="n">
         <v>2.2</v>
@@ -3335,19 +3335,19 @@
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>34</v>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
         <v>81</v>
       </c>
       <c r="AN20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO20" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AP20" t="n">
         <v>151</v>
       </c>
       <c r="AQ20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3409,13 +3409,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
@@ -3424,7 +3424,7 @@
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3457,19 +3457,19 @@
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
@@ -3478,7 +3478,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -3487,16 +3487,16 @@
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK21" t="n">
         <v>201</v>
@@ -3505,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
@@ -3514,10 +3514,10 @@
         <v>34</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3554,13 +3554,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="H22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
         <v>1.62</v>
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3584,10 +3584,10 @@
         <v>8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3649,16 +3649,16 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>51</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
@@ -3842,7 +3842,7 @@
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3977,31 +3977,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H25" t="n">
         <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>1.95</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
         <v>9</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8.5</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
         <v>3.2</v>
@@ -4018,7 +4018,7 @@
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -4030,19 +4030,19 @@
         <v>2.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB25" t="n">
         <v>5.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4054,10 +4054,10 @@
         <v>8.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>101</v>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H26" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I26" t="n">
         <v>12</v>
@@ -4137,48 +4137,48 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O26" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R26" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z26" t="n">
         <v>2.05</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2.1</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>9</v>
@@ -4187,10 +4187,10 @@
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>13</v>
@@ -4205,19 +4205,19 @@
         <v>151</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -4275,13 +4275,13 @@
         <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
         <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
         <v>2.1</v>
@@ -4302,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="W27" t="n">
         <v>1.75</v>
@@ -4314,7 +4314,7 @@
         <v>2.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -4406,13 +4406,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>2.88</v>
@@ -4424,16 +4424,16 @@
         <v>4.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
         <v>2.4</v>
@@ -4451,7 +4451,7 @@
         <v>4.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
@@ -4463,7 +4463,7 @@
         <v>2.05</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -4517,10 +4517,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="29">
@@ -4573,13 +4573,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
         <v>4.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
         <v>1.78</v>
@@ -4612,7 +4612,7 @@
         <v>2.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA29" t="n">
         <v>5.5</v>
@@ -4722,13 +4722,13 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4746,10 +4746,10 @@
         <v>1.18</v>
       </c>
       <c r="U30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
         <v>1.67</v>
@@ -4758,10 +4758,10 @@
         <v>2.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
@@ -4874,13 +4874,13 @@
         <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
         <v>3.5</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>2.7</v>
@@ -5074,7 +5074,7 @@
         <v>5.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
         <v>81</v>
@@ -5139,16 +5139,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>1.8</v>
@@ -5157,10 +5157,10 @@
         <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5195,7 +5195,7 @@
         <v>1.53</v>
       </c>
       <c r="AA33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
         <v>12</v>
@@ -5204,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="n">
         <v>34</v>
@@ -5231,16 +5231,16 @@
         <v>6</v>
       </c>
       <c r="AM33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN33" t="n">
         <v>12</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>13</v>
       </c>
       <c r="AO33" t="n">
         <v>29</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
         <v>51</v>
@@ -5449,16 +5449,16 @@
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5710,10 +5710,10 @@
         <v>1.65</v>
       </c>
       <c r="H37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I37" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.33</v>
       </c>
       <c r="J37" t="n">
         <v>2.1</v>
@@ -5728,7 +5728,7 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O37" t="n">
         <v>1.1</v>
@@ -5737,10 +5737,10 @@
         <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5775,16 +5775,16 @@
         <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
         <v>12</v>
@@ -5811,7 +5811,7 @@
         <v>29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5848,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H38" t="n">
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K38" t="n">
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -5884,10 +5884,10 @@
         <v>2.38</v>
       </c>
       <c r="S38" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="T38" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U38" t="n">
         <v>2.38</v>
@@ -5926,10 +5926,10 @@
         <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -6029,10 +6029,10 @@
         <v>2.38</v>
       </c>
       <c r="S39" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T39" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
         <v>2.38</v>
@@ -6138,22 +6138,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J40" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K40" t="n">
         <v>2.22</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -6176,7 +6176,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
         <v>1.47</v>
@@ -6194,7 +6194,7 @@
         <v>2.32</v>
       </c>
       <c r="AA40" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
@@ -6206,7 +6206,7 @@
         <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF40" t="n">
         <v>22</v>
@@ -6215,10 +6215,10 @@
         <v>8.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI40" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ40" t="n">
         <v>40</v>
@@ -6227,7 +6227,7 @@
         <v>250</v>
       </c>
       <c r="AL40" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM40" t="n">
         <v>16.5</v>
@@ -6239,7 +6239,7 @@
         <v>35</v>
       </c>
       <c r="AP40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
         <v>24</v>
@@ -6416,28 +6416,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -6449,7 +6449,7 @@
         <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6472,13 +6472,13 @@
         <v>1.95</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD42" t="n">
         <v>23</v>
@@ -6487,7 +6487,7 @@
         <v>21</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
         <v>8.5</v>
@@ -6508,7 +6508,7 @@
         <v>8.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN42" t="n">
         <v>11</v>
@@ -6517,7 +6517,7 @@
         <v>29</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="n">
         <v>34</v>
@@ -6722,10 +6722,10 @@
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
         <v>1.7</v>
@@ -6980,84 +6980,84 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X46" t="n">
         <v>2.75</v>
       </c>
-      <c r="V46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X46" t="n">
-        <v>3</v>
-      </c>
       <c r="Y46" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI46" t="n">
         <v>13</v>
@@ -7066,19 +7066,19 @@
         <v>41</v>
       </c>
       <c r="AK46" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN46" t="n">
         <v>11</v>
       </c>
       <c r="AO46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP46" t="n">
         <v>23</v>
@@ -7121,13 +7121,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
         <v>2.2</v>
@@ -7136,43 +7136,43 @@
         <v>2.4</v>
       </c>
       <c r="L47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U47" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y47" t="n">
         <v>1.62</v>
@@ -7184,7 +7184,7 @@
         <v>9</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC47" t="n">
         <v>8.5</v>
@@ -7205,7 +7205,7 @@
         <v>8</v>
       </c>
       <c r="AI47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ47" t="n">
         <v>41</v>
@@ -7217,7 +7217,7 @@
         <v>17</v>
       </c>
       <c r="AM47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
         <v>15</v>
@@ -7413,7 +7413,7 @@
         <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="J49" t="n">
         <v>5.5</v>
@@ -7428,7 +7428,7 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O49" t="n">
         <v>1.33</v>
@@ -7440,15 +7440,15 @@
         <v>2.05</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
         <v>1.44</v>
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H50" t="n">
         <v>3.8</v>
@@ -7578,10 +7578,10 @@
         <v>3.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7592,10 +7592,10 @@
         <v>1.29</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y50" t="n">
         <v>2</v>
@@ -7604,7 +7604,7 @@
         <v>1.73</v>
       </c>
       <c r="AA50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB50" t="n">
         <v>7</v>
@@ -7616,7 +7616,7 @@
         <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>29</v>
@@ -7634,7 +7634,7 @@
         <v>67</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL50" t="n">
         <v>13</v>
@@ -7646,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="AO50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP50" t="n">
         <v>41</v>
@@ -7689,16 +7689,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
@@ -7707,13 +7707,13 @@
         <v>3.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
         <v>3.4</v>
@@ -7731,10 +7731,10 @@
         <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V51" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W51" t="n">
         <v>1.4</v>
@@ -7743,10 +7743,10 @@
         <v>2.75</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA51" t="n">
         <v>8</v>
@@ -7758,7 +7758,7 @@
         <v>9.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE51" t="n">
         <v>19</v>
@@ -7767,19 +7767,19 @@
         <v>29</v>
       </c>
       <c r="AG51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ51" t="n">
         <v>51</v>
       </c>
       <c r="AK51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL51" t="n">
         <v>9.5</v>
@@ -7791,10 +7791,10 @@
         <v>11</v>
       </c>
       <c r="AO51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ51" t="n">
         <v>34</v>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H52" t="n">
         <v>3.8</v>
@@ -7856,13 +7856,13 @@
         <v>5.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
         <v>3.75</v>
@@ -7874,16 +7874,16 @@
         <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="T52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U52" t="n">
         <v>3</v>
       </c>
       <c r="V52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W52" t="n">
         <v>1.36</v>
@@ -7949,10 +7949,10 @@
         <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="53">
@@ -7987,13 +7987,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J53" t="n">
         <v>3.4</v>
@@ -8005,34 +8005,34 @@
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R53" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T53" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W53" t="n">
         <v>1.33</v>
@@ -8098,10 +8098,10 @@
         <v>23</v>
       </c>
       <c r="AR53" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS53" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="54">
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
         <v>4</v>
@@ -8154,34 +8154,34 @@
         <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
         <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R54" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U54" t="n">
         <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W54" t="n">
         <v>1.5</v>
@@ -8247,10 +8247,10 @@
         <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="55">
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
@@ -8303,16 +8303,16 @@
         <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
         <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q55" t="n">
         <v>2.5</v>
@@ -8330,7 +8330,7 @@
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W55" t="n">
         <v>1.53</v>
@@ -8434,34 +8434,34 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K56" t="n">
         <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P56" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q56" t="n">
         <v>2.4</v>
@@ -8479,7 +8479,7 @@
         <v>4.5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W56" t="n">
         <v>1.53</v>
@@ -8488,22 +8488,22 @@
         <v>2.38</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC56" t="n">
         <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE56" t="n">
         <v>17</v>
@@ -8512,13 +8512,13 @@
         <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH56" t="n">
         <v>7</v>
       </c>
       <c r="AI56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
         <v>81</v>
@@ -8527,10 +8527,10 @@
         <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN56" t="n">
         <v>17</v>
@@ -8539,7 +8539,7 @@
         <v>51</v>
       </c>
       <c r="AP56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ56" t="n">
         <v>51</v>
@@ -8589,7 +8589,7 @@
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J57" t="n">
         <v>4.75</v>
@@ -8601,16 +8601,16 @@
         <v>2.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
         <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q57" t="n">
         <v>2.35</v>
@@ -8628,7 +8628,7 @@
         <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W57" t="n">
         <v>1.53</v>
@@ -8735,7 +8735,7 @@
         <v>2.4</v>
       </c>
       <c r="H58" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I58" t="n">
         <v>3.3</v>
@@ -8895,22 +8895,22 @@
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R59" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -9018,22 +9018,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K60" t="n">
         <v>2.12</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.15</v>
-      </c>
       <c r="L60" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -9062,10 +9062,10 @@
         <v>1.31</v>
       </c>
       <c r="W60" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X60" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Y60" t="n">
         <v>1.72</v>
@@ -9074,22 +9074,22 @@
         <v>2</v>
       </c>
       <c r="AA60" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD60" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE60" t="n">
         <v>32</v>
       </c>
       <c r="AF60" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG60" t="n">
         <v>7.4</v>
@@ -9104,25 +9104,25 @@
         <v>70</v>
       </c>
       <c r="AK60" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL60" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AN60" t="n">
         <v>9.25</v>
       </c>
       <c r="AO60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP60" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9300,22 +9300,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I62" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="J62" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L62" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9324,51 +9324,51 @@
         <v>8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R62" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.85</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="V62" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W62" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X62" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AA62" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB62" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC62" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AE62" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF62" t="n">
         <v>55</v>
@@ -9377,10 +9377,10 @@
         <v>8</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AI62" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ62" t="n">
         <v>90</v>
@@ -9392,19 +9392,19 @@
         <v>6.6</v>
       </c>
       <c r="AM62" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AN62" t="n">
         <v>8.75</v>
       </c>
       <c r="AO62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP62" t="n">
         <v>14</v>
       </c>
-      <c r="AP62" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ62" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9747,10 +9747,10 @@
         <v>11</v>
       </c>
       <c r="O65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q65" t="n">
         <v>1.9</v>
@@ -9873,7 +9873,7 @@
         <v>2.2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
         <v>2.1</v>
@@ -9885,7 +9885,7 @@
         <v>1.06</v>
       </c>
       <c r="N66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O66" t="n">
         <v>1.3</v>
@@ -9897,7 +9897,7 @@
         <v>2.05</v>
       </c>
       <c r="R66" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -9914,10 +9914,10 @@
         <v>2.63</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA66" t="n">
         <v>10</v>
@@ -9938,7 +9938,7 @@
         <v>34</v>
       </c>
       <c r="AG66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH66" t="n">
         <v>6</v>
@@ -10005,13 +10005,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J67" t="n">
         <v>4</v>
@@ -10029,10 +10029,10 @@
         <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P67" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
         <v>1.7</v>
@@ -10055,7 +10055,7 @@
         <v>3.25</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z67" t="n">
         <v>2.2</v>
@@ -10109,7 +10109,7 @@
         <v>15</v>
       </c>
       <c r="AQ67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10146,13 +10146,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H68" t="n">
         <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
         <v>2.63</v>
@@ -10164,10 +10164,10 @@
         <v>4.33</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.3</v>
@@ -10176,10 +10176,10 @@
         <v>3.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10196,10 +10196,10 @@
         <v>2.63</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA68" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         <v>41</v>
       </c>
       <c r="AP68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ68" t="n">
         <v>41</v>
@@ -10344,7 +10344,7 @@
         <v>2.25</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA69" t="n">
         <v>7</v>
@@ -10432,13 +10432,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J70" t="n">
         <v>3.25</v>
@@ -10447,13 +10447,13 @@
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.33</v>
@@ -10482,10 +10482,10 @@
         <v>2.63</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA70" t="n">
         <v>8</v>
@@ -10521,7 +10521,7 @@
         <v>301</v>
       </c>
       <c r="AL70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM70" t="n">
         <v>13</v>
@@ -10530,7 +10530,7 @@
         <v>11</v>
       </c>
       <c r="AO70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP70" t="n">
         <v>23</v>
@@ -10623,10 +10623,10 @@
         <v>2.63</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA71" t="n">
         <v>8</v>
@@ -10714,10 +10714,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H72" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I72" t="n">
         <v>5.5</v>
@@ -10764,10 +10764,10 @@
         <v>3</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA72" t="n">
         <v>7</v>
@@ -10794,7 +10794,7 @@
         <v>8</v>
       </c>
       <c r="AI72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ72" t="n">
         <v>51</v>
@@ -10908,7 +10908,7 @@
         <v>2.1</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA73" t="n">
         <v>6</v>
@@ -11024,10 +11024,10 @@
         <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P74" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
         <v>2.2</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA74" t="n">
         <v>6.5</v>
@@ -11171,18 +11171,18 @@
         <v>2.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V75" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W75" t="n">
         <v>1.5</v>
@@ -11194,7 +11194,7 @@
         <v>2.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA75" t="n">
         <v>5.5</v>
@@ -11284,22 +11284,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J76" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K76" t="n">
         <v>1.95</v>
       </c>
       <c r="L76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M76" t="n">
         <v>1.1</v>
@@ -11334,16 +11334,16 @@
         <v>2.38</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AA76" t="n">
         <v>7.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC76" t="n">
         <v>11</v>
@@ -11382,10 +11382,10 @@
         <v>11</v>
       </c>
       <c r="AO76" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP76" t="n">
         <v>26</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>23</v>
       </c>
       <c r="AQ76" t="n">
         <v>41</v>
@@ -11479,10 +11479,10 @@
         <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA77" t="n">
         <v>11</v>
@@ -11570,16 +11570,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J78" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K78" t="n">
         <v>2.1</v>
@@ -11623,7 +11623,7 @@
         <v>2.1</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA78" t="n">
         <v>6</v>
@@ -11662,10 +11662,10 @@
         <v>11</v>
       </c>
       <c r="AM78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO78" t="n">
         <v>51</v>
@@ -11721,10 +11721,10 @@
         <v>4.33</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J79" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K79" t="n">
         <v>2.25</v>
@@ -11745,10 +11745,10 @@
         <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R79" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11768,7 +11768,7 @@
         <v>2</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA79" t="n">
         <v>6.5</v>
@@ -11801,7 +11801,7 @@
         <v>67</v>
       </c>
       <c r="AK79" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL79" t="n">
         <v>13</v>
@@ -11816,7 +11816,7 @@
         <v>67</v>
       </c>
       <c r="AP79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ79" t="n">
         <v>51</v>
@@ -11856,13 +11856,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J80" t="n">
         <v>3.4</v>
@@ -11871,7 +11871,7 @@
         <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
@@ -11886,10 +11886,10 @@
         <v>3.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R80" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11906,7 +11906,7 @@
         <v>2.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z80" t="n">
         <v>2</v>
@@ -11915,7 +11915,7 @@
         <v>9.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC80" t="n">
         <v>10</v>
@@ -11948,10 +11948,10 @@
         <v>9</v>
       </c>
       <c r="AM80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO80" t="n">
         <v>23</v>
@@ -11960,7 +11960,7 @@
         <v>19</v>
       </c>
       <c r="AQ80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -12050,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA81" t="n">
         <v>6</v>
@@ -12144,7 +12144,7 @@
         <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J82" t="n">
         <v>3</v>
@@ -12162,39 +12162,39 @@
         <v>15</v>
       </c>
       <c r="O82" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R82" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V82" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AA82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
         <v>13</v>
@@ -12209,13 +12209,13 @@
         <v>17</v>
       </c>
       <c r="AF82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG82" t="n">
         <v>15</v>
       </c>
       <c r="AH82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI82" t="n">
         <v>12</v>
@@ -12227,7 +12227,7 @@
         <v>126</v>
       </c>
       <c r="AL82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM82" t="n">
         <v>15</v>
@@ -12239,7 +12239,7 @@
         <v>29</v>
       </c>
       <c r="AP82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ82" t="n">
         <v>23</v>
@@ -12309,18 +12309,18 @@
         <v>2.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V83" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W83" t="n">
         <v>1.5</v>
@@ -12329,10 +12329,10 @@
         <v>2.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA83" t="n">
         <v>7</v>
@@ -12450,10 +12450,10 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R84" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12470,7 +12470,7 @@
         <v>3.25</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z84" t="n">
         <v>2.25</v>
@@ -12579,10 +12579,10 @@
         <v>7</v>
       </c>
       <c r="M85" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O85" t="n">
         <v>1.33</v>
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>3.6</v>
@@ -12723,7 +12723,7 @@
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O86" t="n">
         <v>1.25</v>
@@ -12732,10 +12732,10 @@
         <v>3.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R86" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12773,7 +12773,7 @@
         <v>34</v>
       </c>
       <c r="AF86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG86" t="n">
         <v>12</v>
@@ -12782,7 +12782,7 @@
         <v>7</v>
       </c>
       <c r="AI86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ86" t="n">
         <v>41</v>
@@ -12803,7 +12803,7 @@
         <v>15</v>
       </c>
       <c r="AP86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ86" t="n">
         <v>23</v>
@@ -12861,22 +12861,22 @@
         <v>2.63</v>
       </c>
       <c r="M87" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O87" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P87" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="R87" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -13005,7 +13005,7 @@
         <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O88" t="n">
         <v>1.44</v>
@@ -13291,7 +13291,7 @@
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
@@ -14099,7 +14099,7 @@
         <v>9.75</v>
       </c>
       <c r="H96" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I96" t="n">
         <v>1.29</v>
@@ -14142,13 +14142,13 @@
         <v>2.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AA96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB96" t="n">
         <v>55</v>
@@ -14163,7 +14163,7 @@
         <v>120</v>
       </c>
       <c r="AF96" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG96" t="n">
         <v>9.25</v>
@@ -14175,19 +14175,19 @@
         <v>21</v>
       </c>
       <c r="AJ96" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK96" t="n">
         <v>101</v>
       </c>
       <c r="AL96" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AM96" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AN96" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AO96" t="n">
         <v>6.4</v>
@@ -14196,7 +14196,7 @@
         <v>9.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14251,13 +14251,13 @@
         <v>3.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
         <v>8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P97" t="n">
         <v>2.75</v>
@@ -14274,7 +14274,7 @@
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W97" t="n">
         <v>1.5</v>
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H98" t="n">
         <v>4.75</v>
@@ -14392,13 +14392,13 @@
         <v>7.5</v>
       </c>
       <c r="M98" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N98" t="n">
         <v>13</v>
       </c>
       <c r="O98" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P98" t="n">
         <v>3.5</v>
@@ -14415,7 +14415,7 @@
         <v>3.25</v>
       </c>
       <c r="V98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W98" t="n">
         <v>1.4</v>
@@ -14515,31 +14515,31 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>3.6</v>
       </c>
       <c r="I99" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J99" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K99" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L99" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M99" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N99" t="n">
         <v>17</v>
       </c>
       <c r="O99" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -14560,7 +14560,7 @@
         <v>2.25</v>
       </c>
       <c r="V99" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W99" t="n">
         <v>1.29</v>
@@ -14569,13 +14569,13 @@
         <v>3.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB99" t="n">
         <v>17</v>
@@ -14587,7 +14587,7 @@
         <v>29</v>
       </c>
       <c r="AE99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF99" t="n">
         <v>23</v>
@@ -14596,7 +14596,7 @@
         <v>17</v>
       </c>
       <c r="AH99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI99" t="n">
         <v>11</v>
@@ -14611,16 +14611,16 @@
         <v>12</v>
       </c>
       <c r="AM99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO99" t="n">
         <v>23</v>
       </c>
       <c r="AP99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ99" t="n">
         <v>21</v>
@@ -14678,13 +14678,13 @@
         <v>3.75</v>
       </c>
       <c r="M100" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N100" t="n">
         <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P100" t="n">
         <v>4.5</v>
@@ -14705,7 +14705,7 @@
         <v>2.5</v>
       </c>
       <c r="V100" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W100" t="n">
         <v>1.3</v>
@@ -14805,40 +14805,40 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K101" t="n">
         <v>2.1</v>
       </c>
       <c r="L101" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N101" t="n">
         <v>10</v>
       </c>
       <c r="O101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P101" t="n">
         <v>3.25</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R101" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -14846,7 +14846,7 @@
         <v>3.75</v>
       </c>
       <c r="V101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W101" t="n">
         <v>1.44</v>
@@ -14885,7 +14885,7 @@
         <v>6.5</v>
       </c>
       <c r="AI101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ101" t="n">
         <v>51</v>
@@ -14964,13 +14964,13 @@
         <v>4.33</v>
       </c>
       <c r="M102" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N102" t="n">
         <v>17</v>
       </c>
       <c r="O102" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -14991,7 +14991,7 @@
         <v>2.25</v>
       </c>
       <c r="V102" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W102" t="n">
         <v>1.29</v>
@@ -15391,10 +15391,10 @@
         <v>4</v>
       </c>
       <c r="M105" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O105" t="n">
         <v>1.2</v>
@@ -15685,10 +15685,10 @@
         <v>4.33</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R107" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S107" t="n">
         <v>2.05</v>
@@ -15941,22 +15941,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J109" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K109" t="n">
         <v>2.2</v>
       </c>
       <c r="L109" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M109" t="n">
         <v>1.05</v>
@@ -15991,25 +15991,25 @@
         <v>2.75</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z109" t="n">
         <v>2</v>
       </c>
       <c r="AA109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF109" t="n">
         <v>29</v>
@@ -16030,22 +16030,22 @@
         <v>201</v>
       </c>
       <c r="AL109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO109" t="n">
         <v>23</v>
       </c>
       <c r="AP109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ109" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
         <v>3</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z110" t="n">
         <v>2.1</v>
@@ -16244,7 +16244,7 @@
         <v>1.03</v>
       </c>
       <c r="N111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O111" t="n">
         <v>1.17</v>
@@ -16277,7 +16277,7 @@
         <v>3.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z111" t="n">
         <v>2.5</v>
@@ -16368,28 +16368,28 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="H112" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J112" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K112" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L112" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N112" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O112" t="n">
         <v>1.14</v>
@@ -16398,61 +16398,61 @@
         <v>5.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R112" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S112" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T112" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U112" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V112" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X112" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="Z112" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA112" t="n">
         <v>9.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC112" t="n">
         <v>8.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF112" t="n">
         <v>21</v>
       </c>
       <c r="AG112" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI112" t="n">
         <v>17</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>15</v>
       </c>
       <c r="AJ112" t="n">
         <v>41</v>
@@ -16461,22 +16461,22 @@
         <v>151</v>
       </c>
       <c r="AL112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM112" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN112" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO112" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AP112" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ112" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16513,7 +16513,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H113" t="n">
         <v>3.5</v>
@@ -16563,7 +16563,7 @@
         <v>3.25</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z113" t="n">
         <v>2.2</v>
@@ -16654,44 +16654,44 @@
         </is>
       </c>
       <c r="G114" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="n">
         <v>2.65</v>
-      </c>
-      <c r="H114" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2.62</v>
       </c>
       <c r="J114" t="n">
         <v>3.2</v>
       </c>
       <c r="K114" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L114" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P114" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R114" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V114" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W114" t="n">
         <v>1.42</v>
@@ -16700,13 +16700,13 @@
         <v>2.47</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB114" t="n">
         <v>13</v>
@@ -16718,28 +16718,28 @@
         <v>30</v>
       </c>
       <c r="AE114" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF114" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG114" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH114" t="n">
         <v>5.9</v>
       </c>
       <c r="AI114" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ114" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK114" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL114" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM114" t="n">
         <v>14</v>
@@ -16751,10 +16751,10 @@
         <v>32</v>
       </c>
       <c r="AP114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ114" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16791,7 +16791,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H115" t="n">
         <v>3.8</v>
@@ -16841,10 +16841,10 @@
         <v>3</v>
       </c>
       <c r="Y115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA115" t="n">
         <v>7</v>
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>5</v>
@@ -16944,7 +16944,7 @@
         <v>1.8</v>
       </c>
       <c r="K116" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L116" t="n">
         <v>7.5</v>
@@ -16980,19 +16980,19 @@
         <v>1.53</v>
       </c>
       <c r="W116" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z116" t="n">
         <v>1.8</v>
       </c>
       <c r="AA116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB116" t="n">
         <v>7</v>
@@ -17016,13 +17016,13 @@
         <v>10</v>
       </c>
       <c r="AI116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ116" t="n">
         <v>51</v>
       </c>
       <c r="AK116" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL116" t="n">
         <v>21</v>
@@ -17031,10 +17031,10 @@
         <v>41</v>
       </c>
       <c r="AN116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO116" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP116" t="n">
         <v>51</v>
@@ -17077,19 +17077,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H117" t="n">
         <v>3.6</v>
       </c>
       <c r="I117" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J117" t="n">
         <v>2.6</v>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L117" t="n">
         <v>5</v>
@@ -17107,10 +17107,10 @@
         <v>2.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R117" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17130,13 +17130,13 @@
         <v>2.1</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA117" t="n">
         <v>6</v>
       </c>
       <c r="AB117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC117" t="n">
         <v>9</v>
@@ -17160,7 +17160,7 @@
         <v>21</v>
       </c>
       <c r="AJ117" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK117" t="n">
         <v>900</v>
@@ -17169,10 +17169,10 @@
         <v>9</v>
       </c>
       <c r="AM117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO117" t="n">
         <v>41</v>
@@ -17236,10 +17236,10 @@
         <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O118" t="n">
         <v>1.44</v>
@@ -17248,10 +17248,10 @@
         <v>2.63</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R118" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -17325,10 +17325,10 @@
         <v>34</v>
       </c>
       <c r="AR118" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="119">
@@ -17363,7 +17363,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H119" t="n">
         <v>3</v>
@@ -17387,16 +17387,16 @@
         <v>7</v>
       </c>
       <c r="O119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P119" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q119" t="n">
         <v>2.5</v>
       </c>
       <c r="R119" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
@@ -17470,10 +17470,10 @@
         <v>41</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="120">
@@ -17508,7 +17508,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H120" t="n">
         <v>3.7</v>
@@ -17649,13 +17649,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H121" t="n">
         <v>3</v>
       </c>
       <c r="I121" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J121" t="n">
         <v>3.4</v>
@@ -17682,7 +17682,7 @@
         <v>2.35</v>
       </c>
       <c r="R121" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
@@ -17794,7 +17794,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
@@ -17827,7 +17827,7 @@
         <v>2.25</v>
       </c>
       <c r="R122" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
@@ -17935,13 +17935,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H123" t="n">
         <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17959,16 +17959,16 @@
         <v>9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P123" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R123" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
@@ -18076,13 +18076,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H124" t="n">
         <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J124" t="n">
         <v>3.6</v>
@@ -18109,7 +18109,7 @@
         <v>2.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>3.1</v>
@@ -18251,10 +18251,10 @@
         <v>3</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R125" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18362,7 +18362,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H126" t="n">
         <v>3</v>
@@ -18395,7 +18395,7 @@
         <v>2.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
@@ -18415,7 +18415,7 @@
         <v>2.05</v>
       </c>
       <c r="Z126" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA126" t="n">
         <v>6.5</v>
@@ -18507,13 +18507,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="H127" t="n">
         <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J127" t="n">
         <v>3.4</v>
@@ -18522,7 +18522,7 @@
         <v>1.95</v>
       </c>
       <c r="L127" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M127" t="n">
         <v>1.08</v>
@@ -18540,7 +18540,7 @@
         <v>2.35</v>
       </c>
       <c r="R127" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
@@ -18560,25 +18560,25 @@
         <v>2</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA127" t="n">
         <v>7</v>
       </c>
       <c r="AB127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC127" t="n">
         <v>11</v>
       </c>
-      <c r="AC127" t="n">
-        <v>10</v>
-      </c>
       <c r="AD127" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE127" t="n">
         <v>23</v>
       </c>
       <c r="AF127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG127" t="n">
         <v>7.5</v>
@@ -18590,7 +18590,7 @@
         <v>17</v>
       </c>
       <c r="AJ127" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK127" t="n">
         <v>401</v>
@@ -18599,7 +18599,7 @@
         <v>7.5</v>
       </c>
       <c r="AM127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN127" t="n">
         <v>11</v>
@@ -18685,7 +18685,7 @@
         <v>2.4</v>
       </c>
       <c r="R128" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
@@ -18705,7 +18705,7 @@
         <v>2</v>
       </c>
       <c r="Z128" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA128" t="n">
         <v>6.5</v>
@@ -18726,7 +18726,7 @@
         <v>41</v>
       </c>
       <c r="AG128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH128" t="n">
         <v>6</v>
@@ -18759,10 +18759,10 @@
         <v>41</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="129">
@@ -18815,22 +18815,22 @@
         <v>3.25</v>
       </c>
       <c r="M129" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O129" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q129" t="n">
         <v>2.1</v>
       </c>
       <c r="R129" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
@@ -18847,10 +18847,10 @@
         <v>2.63</v>
       </c>
       <c r="Y129" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA129" t="n">
         <v>8.5</v>
@@ -18971,7 +18971,7 @@
         <v>2.35</v>
       </c>
       <c r="R130" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
         <v>2</v>
       </c>
       <c r="Z130" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
@@ -19045,10 +19045,10 @@
         <v>41</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="131">
@@ -19113,10 +19113,10 @@
         <v>2.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R131" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
@@ -19136,7 +19136,7 @@
         <v>2.2</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA131" t="n">
         <v>7.5</v>
@@ -19258,10 +19258,10 @@
         <v>3.5</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R132" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
@@ -19278,7 +19278,7 @@
         <v>2.75</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z132" t="n">
         <v>2</v>
@@ -19387,10 +19387,10 @@
         <v>4.5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O133" t="n">
         <v>1.3</v>
@@ -19399,18 +19399,18 @@
         <v>3.4</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R133" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V133" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W133" t="n">
         <v>1.4</v>
@@ -19510,13 +19510,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H134" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I134" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J134" t="n">
         <v>4</v>
@@ -19525,7 +19525,7 @@
         <v>2.05</v>
       </c>
       <c r="L134" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M134" t="n">
         <v>1.06</v>
@@ -19569,7 +19569,7 @@
         <v>9.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC134" t="n">
         <v>12</v>
@@ -19587,7 +19587,7 @@
         <v>8.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI134" t="n">
         <v>15</v>
@@ -19608,7 +19608,7 @@
         <v>9.5</v>
       </c>
       <c r="AO134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP134" t="n">
         <v>19</v>
@@ -19651,44 +19651,44 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="H135" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I135" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="J135" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K135" t="n">
         <v>2.15</v>
       </c>
       <c r="L135" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P135" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R135" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="V135" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W135" t="n">
         <v>1.4</v>
@@ -19697,37 +19697,37 @@
         <v>2.4</v>
       </c>
       <c r="Y135" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AA135" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AB135" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC135" t="n">
         <v>7.5</v>
       </c>
       <c r="AD135" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE135" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF135" t="n">
         <v>32</v>
       </c>
       <c r="AG135" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH135" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AI135" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ135" t="n">
         <v>120</v>
@@ -19736,22 +19736,22 @@
         <v>101</v>
       </c>
       <c r="AL135" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM135" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN135" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO135" t="n">
         <v>120</v>
       </c>
       <c r="AP135" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ135" t="n">
         <v>80</v>
-      </c>
-      <c r="AQ135" t="n">
-        <v>90</v>
       </c>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
@@ -19788,22 +19788,22 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H136" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I136" t="n">
-        <v>6.3</v>
+        <v>8.25</v>
       </c>
       <c r="J136" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K136" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L136" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
@@ -19814,10 +19814,10 @@
         <v>3.35</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R136" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
@@ -19827,8 +19827,12 @@
       <c r="V136" t="n">
         <v>1.32</v>
       </c>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
+      <c r="W136" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.52</v>
+      </c>
       <c r="Y136" t="n">
         <v>2.25</v>
       </c>
@@ -19836,55 +19840,55 @@
         <v>1.57</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AB136" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC136" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AD136" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE136" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF136" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AJ136" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK136" t="n">
         <v>101</v>
       </c>
       <c r="AL136" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AM136" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AN136" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AO136" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AP136" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AQ136" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AR136" t="inlineStr"/>
       <c r="AS136" t="inlineStr"/>
@@ -20001,10 +20005,10 @@
         <v>2.6</v>
       </c>
       <c r="J138" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K138" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="L138" t="n">
         <v>3.2</v>
@@ -20015,29 +20019,29 @@
         <v>1.23</v>
       </c>
       <c r="P138" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R138" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="V138" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AA138" t="n">
         <v>7.6</v>
@@ -20064,7 +20068,7 @@
         <v>5.6</v>
       </c>
       <c r="AI138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ138" t="n">
         <v>45</v>
@@ -20304,10 +20308,10 @@
         <v>2.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA140" t="n">
         <v>8</v>
@@ -20316,10 +20320,10 @@
         <v>13</v>
       </c>
       <c r="AC140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD140" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE140" t="n">
         <v>26</v>
@@ -20425,7 +20429,7 @@
         <v>5.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R141" t="n">
         <v>2.6</v>
@@ -20445,10 +20449,10 @@
         <v>3.75</v>
       </c>
       <c r="Y141" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA141" t="n">
         <v>10</v>
@@ -20554,10 +20558,10 @@
         <v>6.5</v>
       </c>
       <c r="M142" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N142" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O142" t="n">
         <v>1.25</v>
@@ -20566,18 +20570,18 @@
         <v>3.75</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="R142" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V142" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W142" t="n">
         <v>1.36</v>
@@ -20586,10 +20590,10 @@
         <v>3</v>
       </c>
       <c r="Y142" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA142" t="n">
         <v>6.5</v>
@@ -20818,22 +20822,22 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H144" t="n">
         <v>3.8</v>
       </c>
       <c r="I144" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="J144" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K144" t="n">
         <v>2.32</v>
       </c>
       <c r="L144" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -20847,15 +20851,15 @@
         <v>1.57</v>
       </c>
       <c r="R144" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="V144" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
@@ -20866,28 +20870,28 @@
         <v>2.15</v>
       </c>
       <c r="AA144" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB144" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC144" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AD144" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE144" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF144" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG144" t="n">
         <v>14.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI144" t="n">
         <v>13</v>
@@ -20902,16 +20906,16 @@
         <v>9.5</v>
       </c>
       <c r="AM144" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AN144" t="n">
         <v>8.5</v>
       </c>
       <c r="AO144" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ144" t="n">
         <v>21</v>
@@ -20951,50 +20955,50 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I145" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="J145" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K145" t="n">
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P145" t="n">
         <v>2.95</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R145" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="V145" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W145" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X145" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Y145" t="n">
         <v>1.72</v>
@@ -21003,28 +21007,28 @@
         <v>1.88</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB145" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC145" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD145" t="n">
         <v>15.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF145" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG145" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH145" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI145" t="n">
         <v>14</v>
@@ -21036,13 +21040,13 @@
         <v>500</v>
       </c>
       <c r="AL145" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM145" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN145" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO145" t="n">
         <v>80</v>
@@ -21221,22 +21225,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I147" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="J147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K147" t="n">
         <v>2.22</v>
       </c>
-      <c r="K147" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L147" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -21244,18 +21248,18 @@
         <v>1.25</v>
       </c>
       <c r="P147" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q147" t="n">
         <v>1.75</v>
       </c>
       <c r="R147" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="V147" t="n">
         <v>1.34</v>
@@ -21263,25 +21267,25 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AA147" t="n">
         <v>7</v>
       </c>
       <c r="AB147" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD147" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE147" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>13</v>
       </c>
       <c r="AF147" t="n">
         <v>26</v>
@@ -21290,13 +21294,13 @@
         <v>11</v>
       </c>
       <c r="AH147" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AI147" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AJ147" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK147" t="n">
         <v>600</v>
@@ -21305,19 +21309,19 @@
         <v>13.5</v>
       </c>
       <c r="AM147" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO147" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP147" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ147" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21546,10 +21550,10 @@
         <v>2.63</v>
       </c>
       <c r="Y150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA150" t="n">
         <v>8</v>
@@ -21687,10 +21691,10 @@
         <v>2.63</v>
       </c>
       <c r="Y151" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z151" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA151" t="n">
         <v>10</v>
@@ -21796,10 +21800,10 @@
         <v>5.5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O152" t="n">
         <v>1.3</v>
@@ -21808,10 +21812,10 @@
         <v>3.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R152" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S152" t="n">
         <v>1.97</v>
@@ -21820,10 +21824,10 @@
         <v>1.77</v>
       </c>
       <c r="U152" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V152" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W152" t="n">
         <v>1.36</v>
@@ -21832,10 +21836,10 @@
         <v>3</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA152" t="n">
         <v>7</v>
@@ -21889,10 +21893,10 @@
         <v>41</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="153">
@@ -21981,7 +21985,7 @@
         <v>3.25</v>
       </c>
       <c r="Y153" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z153" t="n">
         <v>2.25</v>
@@ -22076,13 +22080,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H154" t="n">
         <v>3.4</v>
       </c>
       <c r="I154" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J154" t="n">
         <v>3</v>
@@ -22091,7 +22095,7 @@
         <v>2.2</v>
       </c>
       <c r="L154" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M154" t="n">
         <v>1.05</v>
@@ -22130,7 +22134,7 @@
         <v>2.75</v>
       </c>
       <c r="Y154" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z154" t="n">
         <v>2.1</v>
@@ -22181,7 +22185,7 @@
         <v>29</v>
       </c>
       <c r="AP154" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ154" t="n">
         <v>29</v>
@@ -22190,7 +22194,7 @@
         <v>1.41</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="155">
@@ -22225,28 +22229,28 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I155" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J155" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K155" t="n">
         <v>2.1</v>
       </c>
       <c r="L155" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M155" t="n">
         <v>1.06</v>
       </c>
       <c r="N155" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O155" t="n">
         <v>1.3</v>
@@ -22284,13 +22288,13 @@
         <v>7.5</v>
       </c>
       <c r="AB155" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC155" t="n">
         <v>9</v>
       </c>
       <c r="AD155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE155" t="n">
         <v>17</v>
@@ -22302,16 +22306,16 @@
         <v>9.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI155" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ155" t="n">
         <v>51</v>
       </c>
       <c r="AK155" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL155" t="n">
         <v>11</v>
@@ -22326,10 +22330,10 @@
         <v>41</v>
       </c>
       <c r="AP155" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ155" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ155" t="n">
-        <v>41</v>
       </c>
       <c r="AR155" t="inlineStr"/>
       <c r="AS155" t="inlineStr"/>
@@ -22511,7 +22515,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H157" t="n">
         <v>4.2</v>
@@ -22529,13 +22533,13 @@
         <v>5.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N157" t="n">
         <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P157" t="n">
         <v>4</v>
@@ -22552,7 +22556,7 @@
         <v>2.75</v>
       </c>
       <c r="V157" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W157" t="n">
         <v>1.33</v>
@@ -22670,13 +22674,13 @@
         <v>2.88</v>
       </c>
       <c r="M158" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
         <v>10</v>
       </c>
       <c r="O158" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P158" t="n">
         <v>3.4</v>
@@ -22693,7 +22697,7 @@
         <v>3.5</v>
       </c>
       <c r="V158" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W158" t="n">
         <v>1.44</v>
@@ -22793,7 +22797,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H159" t="n">
         <v>3.2</v>
@@ -22811,13 +22815,13 @@
         <v>3.75</v>
       </c>
       <c r="M159" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N159" t="n">
         <v>8</v>
       </c>
       <c r="O159" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P159" t="n">
         <v>2.75</v>
@@ -22831,10 +22835,10 @@
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V159" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W159" t="n">
         <v>1.5</v>
@@ -22934,13 +22938,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J160" t="n">
         <v>3.2</v>
@@ -22952,13 +22956,13 @@
         <v>3.4</v>
       </c>
       <c r="M160" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N160" t="n">
         <v>10</v>
       </c>
       <c r="O160" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P160" t="n">
         <v>3.4</v>
@@ -22975,7 +22979,7 @@
         <v>3.5</v>
       </c>
       <c r="V160" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W160" t="n">
         <v>1.4</v>
@@ -23014,7 +23018,7 @@
         <v>6.5</v>
       </c>
       <c r="AI160" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ160" t="n">
         <v>51</v>
@@ -23029,13 +23033,13 @@
         <v>13</v>
       </c>
       <c r="AN160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO160" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP160" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ160" t="n">
         <v>29</v>
@@ -23081,7 +23085,7 @@
         <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="J161" t="n">
         <v>3.75</v>
@@ -23093,13 +23097,13 @@
         <v>3.2</v>
       </c>
       <c r="M161" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N161" t="n">
         <v>8</v>
       </c>
       <c r="O161" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P161" t="n">
         <v>2.75</v>
@@ -23116,7 +23120,7 @@
         <v>4</v>
       </c>
       <c r="V161" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W161" t="n">
         <v>1.5</v>
@@ -23231,13 +23235,13 @@
         <v>2.88</v>
       </c>
       <c r="L162" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O162" t="n">
         <v>1.14</v>
@@ -23246,10 +23250,10 @@
         <v>5.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R162" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S162" t="n">
         <v>1.8</v>
@@ -23270,10 +23274,10 @@
         <v>3.75</v>
       </c>
       <c r="Y162" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA162" t="n">
         <v>8.5</v>
@@ -23282,7 +23286,7 @@
         <v>6.5</v>
       </c>
       <c r="AC162" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD162" t="n">
         <v>7.5</v>
@@ -23294,22 +23298,22 @@
         <v>29</v>
       </c>
       <c r="AG162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI162" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ162" t="n">
         <v>67</v>
       </c>
       <c r="AK162" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL162" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM162" t="n">
         <v>51</v>
@@ -23321,10 +23325,10 @@
         <v>151</v>
       </c>
       <c r="AP162" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ162" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR162" t="inlineStr"/>
       <c r="AS162" t="inlineStr"/>
@@ -23502,22 +23506,22 @@
         </is>
       </c>
       <c r="G164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.3</v>
       </c>
-      <c r="H164" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I164" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J164" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K164" t="n">
         <v>2.1</v>
       </c>
       <c r="L164" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M164" t="n">
         <v>1.05</v>
@@ -23558,7 +23562,7 @@
         <v>2</v>
       </c>
       <c r="AA164" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB164" t="n">
         <v>17</v>
@@ -23567,10 +23571,10 @@
         <v>12</v>
       </c>
       <c r="AD164" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE164" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF164" t="n">
         <v>34</v>
@@ -23579,7 +23583,7 @@
         <v>10</v>
       </c>
       <c r="AH164" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI164" t="n">
         <v>13</v>
@@ -23594,13 +23598,13 @@
         <v>8</v>
       </c>
       <c r="AM164" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN164" t="n">
         <v>9</v>
       </c>
       <c r="AO164" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP164" t="n">
         <v>17</v>
@@ -23979,10 +23983,10 @@
         <v>2.63</v>
       </c>
       <c r="Y167" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z167" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA167" t="n">
         <v>7.5</v>
@@ -24511,13 +24515,13 @@
         <v>3</v>
       </c>
       <c r="M171" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N171" t="n">
         <v>8</v>
       </c>
       <c r="O171" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="P171" t="n">
         <v>3.5</v>
@@ -24526,7 +24530,7 @@
         <v>2</v>
       </c>
       <c r="R171" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
@@ -24534,7 +24538,7 @@
         <v>3.4</v>
       </c>
       <c r="V171" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="W171" t="n">
         <v>1.44</v>
@@ -24543,7 +24547,7 @@
         <v>2.63</v>
       </c>
       <c r="Y171" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z171" t="n">
         <v>2</v>
@@ -24634,34 +24638,34 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H172" t="n">
         <v>3.2</v>
       </c>
       <c r="I172" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J172" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K172" t="n">
         <v>2.05</v>
       </c>
       <c r="L172" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M172" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N172" t="n">
         <v>8</v>
       </c>
       <c r="O172" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P172" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q172" t="n">
         <v>2.05</v>
@@ -24675,7 +24679,7 @@
         <v>3.5</v>
       </c>
       <c r="V172" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="W172" t="n">
         <v>1.44</v>
@@ -24684,10 +24688,10 @@
         <v>2.63</v>
       </c>
       <c r="Y172" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z172" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA172" t="n">
         <v>8.5</v>
@@ -24723,13 +24727,13 @@
         <v>600</v>
       </c>
       <c r="AL172" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM172" t="n">
         <v>12</v>
       </c>
       <c r="AN172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO172" t="n">
         <v>23</v>
@@ -24793,13 +24797,13 @@
         <v>3.75</v>
       </c>
       <c r="M173" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N173" t="n">
         <v>8</v>
       </c>
       <c r="O173" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P173" t="n">
         <v>3.4</v>
@@ -24808,7 +24812,7 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
@@ -24816,7 +24820,7 @@
         <v>3.4</v>
       </c>
       <c r="V173" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="W173" t="n">
         <v>1.4</v>
@@ -24825,10 +24829,10 @@
         <v>2.75</v>
       </c>
       <c r="Y173" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA173" t="n">
         <v>7.5</v>
@@ -24934,22 +24938,22 @@
         <v>3.25</v>
       </c>
       <c r="M174" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N174" t="n">
         <v>8.5</v>
       </c>
       <c r="O174" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="P174" t="n">
         <v>3.5</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R174" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
@@ -24957,7 +24961,7 @@
         <v>3.25</v>
       </c>
       <c r="V174" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="W174" t="n">
         <v>1.4</v>
@@ -24966,7 +24970,7 @@
         <v>2.75</v>
       </c>
       <c r="Y174" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z174" t="n">
         <v>2</v>
@@ -25075,22 +25079,22 @@
         <v>6.5</v>
       </c>
       <c r="M175" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N175" t="n">
         <v>11</v>
       </c>
       <c r="O175" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P175" t="n">
         <v>3.75</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R175" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S175" t="n">
         <v>2.05</v>
@@ -25102,7 +25106,7 @@
         <v>3</v>
       </c>
       <c r="V175" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="W175" t="n">
         <v>1.36</v>
@@ -25114,7 +25118,7 @@
         <v>2</v>
       </c>
       <c r="Z175" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA175" t="n">
         <v>7</v>
@@ -25220,13 +25224,13 @@
         <v>2.6</v>
       </c>
       <c r="M176" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N176" t="n">
         <v>7</v>
       </c>
       <c r="O176" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P176" t="n">
         <v>2.75</v>
@@ -25243,7 +25247,7 @@
         <v>4</v>
       </c>
       <c r="V176" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="W176" t="n">
         <v>1.5</v>
@@ -25255,7 +25259,7 @@
         <v>2.1</v>
       </c>
       <c r="Z176" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA176" t="n">
         <v>9.5</v>
@@ -25388,7 +25392,7 @@
         <v>3.7</v>
       </c>
       <c r="V177" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W177" t="n">
         <v>1.5</v>
@@ -25403,7 +25407,7 @@
         <v>1.8</v>
       </c>
       <c r="AA177" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB177" t="n">
         <v>16.5</v>
@@ -25412,7 +25416,7 @@
         <v>12</v>
       </c>
       <c r="AD177" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE177" t="n">
         <v>32</v>
@@ -25491,19 +25495,19 @@
         <v>10</v>
       </c>
       <c r="H178" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I178" t="n">
         <v>1.2</v>
       </c>
       <c r="J178" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="K178" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="L178" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M178" t="n">
         <v>1.02</v>
@@ -25512,45 +25516,45 @@
         <v>10.25</v>
       </c>
       <c r="O178" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P178" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="R178" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="V178" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="W178" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X178" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y178" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AA178" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB178" t="n">
         <v>90</v>
       </c>
       <c r="AC178" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD178" t="n">
         <v>300</v>
@@ -25559,40 +25563,40 @@
         <v>120</v>
       </c>
       <c r="AF178" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ178" t="n">
         <v>90</v>
-      </c>
-      <c r="AG178" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH178" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI178" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ178" t="n">
-        <v>100</v>
       </c>
       <c r="AK178" t="n">
         <v>500</v>
       </c>
       <c r="AL178" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AM178" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AN178" t="n">
         <v>9.75</v>
       </c>
       <c r="AO178" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AP178" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AQ178" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25629,54 +25633,54 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H179" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="I179" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="J179" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="K179" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L179" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
       </c>
       <c r="N179" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O179" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P179" t="n">
-        <v>4.3</v>
+        <v>4.65</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R179" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="V179" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W179" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X179" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Y179" t="n">
         <v>1.75</v>
@@ -25685,31 +25689,31 @@
         <v>1.95</v>
       </c>
       <c r="AA179" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC179" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB179" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC179" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD179" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AE179" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF179" t="n">
         <v>22</v>
       </c>
       <c r="AG179" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH179" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI179" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ179" t="n">
         <v>70</v>
@@ -25718,22 +25722,22 @@
         <v>450</v>
       </c>
       <c r="AL179" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AM179" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN179" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO179" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP179" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AQ179" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -25911,28 +25915,28 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I181" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J181" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K181" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L181" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M181" t="n">
         <v>1.01</v>
       </c>
       <c r="N181" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O181" t="n">
         <v>1.1</v>
@@ -25941,10 +25945,10 @@
         <v>7</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R181" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
@@ -25967,16 +25971,16 @@
         <v>3.25</v>
       </c>
       <c r="AA181" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB181" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD181" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE181" t="n">
         <v>21</v>
@@ -25985,10 +25989,10 @@
         <v>21</v>
       </c>
       <c r="AG181" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH181" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI181" t="n">
         <v>11</v>
@@ -26006,13 +26010,13 @@
         <v>15</v>
       </c>
       <c r="AN181" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO181" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ181" t="n">
         <v>17</v>
@@ -26898,22 +26902,22 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H188" t="n">
         <v>3.25</v>
       </c>
       <c r="I188" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J188" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K188" t="n">
         <v>2.02</v>
       </c>
       <c r="L188" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M188" t="n">
         <v>1.07</v>
@@ -26960,16 +26964,16 @@
         <v>18</v>
       </c>
       <c r="AC188" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD188" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE188" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF188" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG188" t="n">
         <v>6.8</v>
@@ -26978,7 +26982,7 @@
         <v>6.2</v>
       </c>
       <c r="AI188" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ188" t="n">
         <v>70</v>
@@ -26987,7 +26991,7 @@
         <v>600</v>
       </c>
       <c r="AL188" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AM188" t="n">
         <v>9.75</v>
@@ -27201,13 +27205,13 @@
         <v>1.07</v>
       </c>
       <c r="N190" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O190" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P190" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q190" t="n">
         <v>2.1</v>
@@ -27321,13 +27325,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>3.1</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J191" t="n">
         <v>3.1</v>
@@ -27383,13 +27387,13 @@
         <v>12</v>
       </c>
       <c r="AC191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD191" t="n">
         <v>23</v>
       </c>
       <c r="AE191" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF191" t="n">
         <v>29</v>
@@ -27410,7 +27414,7 @@
         <v>201</v>
       </c>
       <c r="AL191" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM191" t="n">
         <v>15</v>
@@ -27425,7 +27429,7 @@
         <v>23</v>
       </c>
       <c r="AQ191" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR191" t="inlineStr"/>
       <c r="AS191" t="inlineStr"/>
@@ -27750,13 +27754,13 @@
         <v>3.7</v>
       </c>
       <c r="I194" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J194" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K194" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L194" t="n">
         <v>2.4</v>
@@ -27768,16 +27772,16 @@
         <v>10</v>
       </c>
       <c r="O194" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P194" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
@@ -27788,16 +27792,16 @@
         <v>1.29</v>
       </c>
       <c r="W194" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X194" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y194" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z194" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA194" t="n">
         <v>11</v>
@@ -27812,13 +27816,13 @@
         <v>51</v>
       </c>
       <c r="AE194" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF194" t="n">
         <v>41</v>
       </c>
       <c r="AG194" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH194" t="n">
         <v>7</v>
@@ -27830,10 +27834,10 @@
         <v>51</v>
       </c>
       <c r="AK194" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL194" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM194" t="n">
         <v>8</v>
@@ -27842,7 +27846,7 @@
         <v>8.5</v>
       </c>
       <c r="AO194" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP194" t="n">
         <v>15</v>
@@ -28048,10 +28052,10 @@
         <v>4</v>
       </c>
       <c r="M196" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N196" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O196" t="n">
         <v>1.62</v>
@@ -28205,10 +28209,10 @@
         <v>3.4</v>
       </c>
       <c r="Q197" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R197" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
@@ -28457,7 +28461,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H199" t="n">
         <v>3.2</v>
@@ -28602,7 +28606,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
@@ -28747,7 +28751,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H201" t="n">
         <v>3.4</v>
@@ -28888,7 +28892,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>3.6</v>
@@ -29614,7 +29618,7 @@
         <v>1.06</v>
       </c>
       <c r="N207" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O207" t="n">
         <v>1.3</v>
@@ -29623,10 +29627,10 @@
         <v>3.4</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R207" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
@@ -29643,7 +29647,7 @@
         <v>2.75</v>
       </c>
       <c r="Y207" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z207" t="n">
         <v>2</v>
@@ -29664,10 +29668,10 @@
         <v>23</v>
       </c>
       <c r="AF207" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG207" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH207" t="n">
         <v>6</v>
@@ -29676,7 +29680,7 @@
         <v>13</v>
       </c>
       <c r="AJ207" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK207" t="n">
         <v>201</v>
@@ -29764,10 +29768,10 @@
         <v>3.5</v>
       </c>
       <c r="Q208" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
@@ -29784,7 +29788,7 @@
         <v>2.75</v>
       </c>
       <c r="Y208" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z208" t="n">
         <v>2.1</v>
@@ -29875,16 +29879,16 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H209" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I209" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J209" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K209" t="n">
         <v>2.63</v>
@@ -29899,10 +29903,10 @@
         <v>19</v>
       </c>
       <c r="O209" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P209" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q209" t="n">
         <v>1.48</v>
@@ -29940,7 +29944,7 @@
         <v>9</v>
       </c>
       <c r="AD209" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE209" t="n">
         <v>11</v>
@@ -29958,13 +29962,13 @@
         <v>17</v>
       </c>
       <c r="AJ209" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK209" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL209" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM209" t="n">
         <v>41</v>
@@ -29976,7 +29980,7 @@
         <v>81</v>
       </c>
       <c r="AP209" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ209" t="n">
         <v>41</v>
@@ -30016,19 +30020,19 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H210" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I210" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K210" t="n">
         <v>2.2</v>
-      </c>
-      <c r="K210" t="n">
-        <v>2.1</v>
       </c>
       <c r="L210" t="n">
         <v>6.5</v>
@@ -30037,7 +30041,7 @@
         <v>1.06</v>
       </c>
       <c r="N210" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O210" t="n">
         <v>1.33</v>
@@ -30046,18 +30050,18 @@
         <v>3.25</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R210" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V210" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W210" t="n">
         <v>1.44</v>
@@ -30066,46 +30070,46 @@
         <v>2.63</v>
       </c>
       <c r="Y210" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA210" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB210" t="n">
         <v>6.5</v>
       </c>
       <c r="AC210" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD210" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE210" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF210" t="n">
         <v>34</v>
       </c>
       <c r="AG210" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH210" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI210" t="n">
         <v>21</v>
       </c>
       <c r="AJ210" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK210" t="n">
         <v>351</v>
       </c>
       <c r="AL210" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM210" t="n">
         <v>29</v>
@@ -30169,7 +30173,7 @@
         <v>2.5</v>
       </c>
       <c r="K211" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L211" t="n">
         <v>4.33</v>
@@ -30207,10 +30211,10 @@
         <v>3</v>
       </c>
       <c r="Y211" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z211" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA211" t="n">
         <v>8</v>
@@ -30243,7 +30247,7 @@
         <v>41</v>
       </c>
       <c r="AK211" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL211" t="n">
         <v>13</v>
@@ -31575,13 +31579,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H225" t="n">
         <v>3.8</v>
       </c>
       <c r="I225" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J225" t="n">
         <v>2.63</v>
@@ -31590,7 +31594,7 @@
         <v>2.3</v>
       </c>
       <c r="L225" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M225" t="n">
         <v>1.03</v>
@@ -31599,16 +31603,16 @@
         <v>15</v>
       </c>
       <c r="O225" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P225" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R225" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S225" t="n">
         <v>2.05</v>
@@ -31617,10 +31621,10 @@
         <v>1.8</v>
       </c>
       <c r="U225" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V225" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W225" t="n">
         <v>1.3</v>
@@ -31674,7 +31678,7 @@
         <v>19</v>
       </c>
       <c r="AN225" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO225" t="n">
         <v>34</v>
@@ -31744,28 +31748,28 @@
         <v>17</v>
       </c>
       <c r="O226" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P226" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R226" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S226" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T226" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U226" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V226" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W226" t="n">
         <v>1.3</v>
@@ -31774,7 +31778,7 @@
         <v>3.4</v>
       </c>
       <c r="Y226" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z226" t="n">
         <v>2.25</v>
@@ -31865,40 +31869,40 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H227" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I227" t="n">
         <v>5</v>
       </c>
       <c r="J227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K227" t="n">
         <v>2.25</v>
       </c>
-      <c r="K227" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L227" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M227" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N227" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O227" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P227" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="R227" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S227" t="n">
         <v>1.85</v>
@@ -31907,28 +31911,28 @@
         <v>2</v>
       </c>
       <c r="U227" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V227" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W227" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X227" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y227" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="Z227" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AA227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB227" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB227" t="n">
-        <v>9</v>
       </c>
       <c r="AC227" t="n">
         <v>8.5</v>
@@ -31940,22 +31944,22 @@
         <v>13</v>
       </c>
       <c r="AF227" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG227" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH227" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI227" t="n">
         <v>15</v>
       </c>
       <c r="AJ227" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK227" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL227" t="n">
         <v>15</v>
@@ -31970,10 +31974,10 @@
         <v>51</v>
       </c>
       <c r="AP227" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ227" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR227" t="inlineStr"/>
       <c r="AS227" t="inlineStr"/>
@@ -32060,7 +32064,7 @@
         <v>3.25</v>
       </c>
       <c r="Y228" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z228" t="n">
         <v>2.25</v>
@@ -32181,18 +32185,18 @@
         <v>4</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R229" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S229" t="inlineStr"/>
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V229" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W229" t="n">
         <v>1.33</v>
@@ -32201,7 +32205,7 @@
         <v>3.25</v>
       </c>
       <c r="Y229" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z229" t="n">
         <v>2.2</v>
@@ -32322,10 +32326,10 @@
         <v>4</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R230" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr"/>
@@ -32342,7 +32346,7 @@
         <v>3.25</v>
       </c>
       <c r="Y230" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z230" t="n">
         <v>2.05</v>
@@ -32433,7 +32437,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H231" t="n">
         <v>4</v>
@@ -32578,22 +32582,22 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H232" t="n">
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J232" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K232" t="n">
         <v>2.3</v>
       </c>
       <c r="L232" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M232" t="n">
         <v>1.04</v>
@@ -32608,10 +32612,10 @@
         <v>4</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R232" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S232" t="inlineStr"/>
       <c r="T232" t="inlineStr"/>
@@ -32673,7 +32677,7 @@
         <v>23</v>
       </c>
       <c r="AN232" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO232" t="n">
         <v>41</v>
@@ -32719,22 +32723,22 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H233" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I233" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J233" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K233" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L233" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M233" t="n">
         <v>1.04</v>
@@ -32769,25 +32773,25 @@
         <v>3.25</v>
       </c>
       <c r="Y233" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z233" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA233" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB233" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC233" t="n">
         <v>8.5</v>
       </c>
       <c r="AD233" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE233" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF233" t="n">
         <v>23</v>
@@ -32796,16 +32800,16 @@
         <v>13</v>
       </c>
       <c r="AH233" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI233" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ233" t="n">
         <v>41</v>
       </c>
       <c r="AK233" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL233" t="n">
         <v>13</v>
@@ -32823,7 +32827,7 @@
         <v>29</v>
       </c>
       <c r="AQ233" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR233" t="inlineStr"/>
       <c r="AS233" t="inlineStr"/>
@@ -32860,7 +32864,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H234" t="n">
         <v>4.33</v>
@@ -33004,9 +33008,15 @@
           <t>Hartford Athletic</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4.1</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
@@ -33075,43 +33085,113 @@
           <t>Detroit</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
+      <c r="G236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J236" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N236" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.5</v>
+      </c>
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr"/>
-      <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
-      <c r="W236" t="inlineStr"/>
-      <c r="X236" t="inlineStr"/>
-      <c r="Y236" t="inlineStr"/>
-      <c r="Z236" t="inlineStr"/>
-      <c r="AA236" t="inlineStr"/>
-      <c r="AB236" t="inlineStr"/>
-      <c r="AC236" t="inlineStr"/>
-      <c r="AD236" t="inlineStr"/>
-      <c r="AE236" t="inlineStr"/>
-      <c r="AF236" t="inlineStr"/>
-      <c r="AG236" t="inlineStr"/>
-      <c r="AH236" t="inlineStr"/>
-      <c r="AI236" t="inlineStr"/>
-      <c r="AJ236" t="inlineStr"/>
-      <c r="AK236" t="inlineStr"/>
-      <c r="AL236" t="inlineStr"/>
-      <c r="AM236" t="inlineStr"/>
-      <c r="AN236" t="inlineStr"/>
-      <c r="AO236" t="inlineStr"/>
-      <c r="AP236" t="inlineStr"/>
-      <c r="AQ236" t="inlineStr"/>
+      <c r="U236" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X236" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>18</v>
+      </c>
       <c r="AR236" t="inlineStr"/>
       <c r="AS236" t="inlineStr"/>
     </row>
@@ -33146,43 +33226,113 @@
           <t>Pittsburgh</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I237" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N237" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P237" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R237" t="n">
+        <v>1.88</v>
+      </c>
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
-      <c r="U237" t="inlineStr"/>
-      <c r="V237" t="inlineStr"/>
-      <c r="W237" t="inlineStr"/>
-      <c r="X237" t="inlineStr"/>
-      <c r="Y237" t="inlineStr"/>
-      <c r="Z237" t="inlineStr"/>
-      <c r="AA237" t="inlineStr"/>
-      <c r="AB237" t="inlineStr"/>
-      <c r="AC237" t="inlineStr"/>
-      <c r="AD237" t="inlineStr"/>
-      <c r="AE237" t="inlineStr"/>
-      <c r="AF237" t="inlineStr"/>
-      <c r="AG237" t="inlineStr"/>
-      <c r="AH237" t="inlineStr"/>
-      <c r="AI237" t="inlineStr"/>
-      <c r="AJ237" t="inlineStr"/>
-      <c r="AK237" t="inlineStr"/>
-      <c r="AL237" t="inlineStr"/>
-      <c r="AM237" t="inlineStr"/>
-      <c r="AN237" t="inlineStr"/>
-      <c r="AO237" t="inlineStr"/>
-      <c r="AP237" t="inlineStr"/>
-      <c r="AQ237" t="inlineStr"/>
+      <c r="U237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>35</v>
+      </c>
       <c r="AR237" t="inlineStr"/>
       <c r="AS237" t="inlineStr"/>
     </row>
@@ -33217,43 +33367,113 @@
           <t>Louisville City</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
+      <c r="G238" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L238" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N238" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R238" t="n">
+        <v>1.93</v>
+      </c>
       <c r="S238" t="inlineStr"/>
       <c r="T238" t="inlineStr"/>
-      <c r="U238" t="inlineStr"/>
-      <c r="V238" t="inlineStr"/>
-      <c r="W238" t="inlineStr"/>
-      <c r="X238" t="inlineStr"/>
-      <c r="Y238" t="inlineStr"/>
-      <c r="Z238" t="inlineStr"/>
-      <c r="AA238" t="inlineStr"/>
-      <c r="AB238" t="inlineStr"/>
-      <c r="AC238" t="inlineStr"/>
-      <c r="AD238" t="inlineStr"/>
-      <c r="AE238" t="inlineStr"/>
-      <c r="AF238" t="inlineStr"/>
-      <c r="AG238" t="inlineStr"/>
-      <c r="AH238" t="inlineStr"/>
-      <c r="AI238" t="inlineStr"/>
-      <c r="AJ238" t="inlineStr"/>
-      <c r="AK238" t="inlineStr"/>
-      <c r="AL238" t="inlineStr"/>
-      <c r="AM238" t="inlineStr"/>
-      <c r="AN238" t="inlineStr"/>
-      <c r="AO238" t="inlineStr"/>
-      <c r="AP238" t="inlineStr"/>
-      <c r="AQ238" t="inlineStr"/>
+      <c r="U238" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V238" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>26</v>
+      </c>
       <c r="AR238" t="inlineStr"/>
       <c r="AS238" t="inlineStr"/>
     </row>
@@ -33288,43 +33508,113 @@
           <t>Loudoun</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
+      <c r="G239" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N239" t="n">
+        <v>9</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P239" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.27</v>
+      </c>
       <c r="S239" t="inlineStr"/>
       <c r="T239" t="inlineStr"/>
-      <c r="U239" t="inlineStr"/>
-      <c r="V239" t="inlineStr"/>
-      <c r="W239" t="inlineStr"/>
-      <c r="X239" t="inlineStr"/>
-      <c r="Y239" t="inlineStr"/>
-      <c r="Z239" t="inlineStr"/>
-      <c r="AA239" t="inlineStr"/>
-      <c r="AB239" t="inlineStr"/>
-      <c r="AC239" t="inlineStr"/>
-      <c r="AD239" t="inlineStr"/>
-      <c r="AE239" t="inlineStr"/>
-      <c r="AF239" t="inlineStr"/>
-      <c r="AG239" t="inlineStr"/>
-      <c r="AH239" t="inlineStr"/>
-      <c r="AI239" t="inlineStr"/>
-      <c r="AJ239" t="inlineStr"/>
-      <c r="AK239" t="inlineStr"/>
-      <c r="AL239" t="inlineStr"/>
-      <c r="AM239" t="inlineStr"/>
-      <c r="AN239" t="inlineStr"/>
-      <c r="AO239" t="inlineStr"/>
-      <c r="AP239" t="inlineStr"/>
-      <c r="AQ239" t="inlineStr"/>
+      <c r="U239" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>25</v>
+      </c>
       <c r="AR239" t="inlineStr"/>
       <c r="AS239" t="inlineStr"/>
     </row>
@@ -33359,43 +33649,113 @@
           <t>Monterey Bay</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
+      <c r="G240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H240" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P240" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S240" t="inlineStr"/>
       <c r="T240" t="inlineStr"/>
-      <c r="U240" t="inlineStr"/>
-      <c r="V240" t="inlineStr"/>
-      <c r="W240" t="inlineStr"/>
-      <c r="X240" t="inlineStr"/>
-      <c r="Y240" t="inlineStr"/>
-      <c r="Z240" t="inlineStr"/>
-      <c r="AA240" t="inlineStr"/>
-      <c r="AB240" t="inlineStr"/>
-      <c r="AC240" t="inlineStr"/>
-      <c r="AD240" t="inlineStr"/>
-      <c r="AE240" t="inlineStr"/>
-      <c r="AF240" t="inlineStr"/>
-      <c r="AG240" t="inlineStr"/>
-      <c r="AH240" t="inlineStr"/>
-      <c r="AI240" t="inlineStr"/>
-      <c r="AJ240" t="inlineStr"/>
-      <c r="AK240" t="inlineStr"/>
-      <c r="AL240" t="inlineStr"/>
-      <c r="AM240" t="inlineStr"/>
-      <c r="AN240" t="inlineStr"/>
-      <c r="AO240" t="inlineStr"/>
-      <c r="AP240" t="inlineStr"/>
-      <c r="AQ240" t="inlineStr"/>
+      <c r="U240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>32</v>
+      </c>
       <c r="AR240" t="inlineStr"/>
       <c r="AS240" t="inlineStr"/>
     </row>
@@ -33430,43 +33790,105 @@
           <t>Colorado Springs</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="G241" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H241" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J241" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2.6</v>
+      </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
+      <c r="O241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R241" t="n">
+        <v>1.91</v>
+      </c>
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr"/>
-      <c r="U241" t="inlineStr"/>
-      <c r="V241" t="inlineStr"/>
+      <c r="U241" t="n">
+        <v>3</v>
+      </c>
+      <c r="V241" t="n">
+        <v>1.36</v>
+      </c>
       <c r="W241" t="inlineStr"/>
       <c r="X241" t="inlineStr"/>
-      <c r="Y241" t="inlineStr"/>
-      <c r="Z241" t="inlineStr"/>
-      <c r="AA241" t="inlineStr"/>
-      <c r="AB241" t="inlineStr"/>
-      <c r="AC241" t="inlineStr"/>
-      <c r="AD241" t="inlineStr"/>
-      <c r="AE241" t="inlineStr"/>
-      <c r="AF241" t="inlineStr"/>
-      <c r="AG241" t="inlineStr"/>
-      <c r="AH241" t="inlineStr"/>
-      <c r="AI241" t="inlineStr"/>
-      <c r="AJ241" t="inlineStr"/>
-      <c r="AK241" t="inlineStr"/>
-      <c r="AL241" t="inlineStr"/>
-      <c r="AM241" t="inlineStr"/>
-      <c r="AN241" t="inlineStr"/>
-      <c r="AO241" t="inlineStr"/>
-      <c r="AP241" t="inlineStr"/>
-      <c r="AQ241" t="inlineStr"/>
+      <c r="Y241" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>22</v>
+      </c>
       <c r="AR241" t="inlineStr"/>
       <c r="AS241" t="inlineStr"/>
     </row>
@@ -33573,41 +33995,41 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.85</v>
+        <v>4.45</v>
       </c>
       <c r="H243" t="n">
         <v>3.4</v>
       </c>
       <c r="I243" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J243" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K243" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L243" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P243" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R243" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S243" t="inlineStr"/>
       <c r="T243" t="inlineStr"/>
       <c r="U243" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V243" t="n">
         <v>1.26</v>
@@ -33619,37 +34041,37 @@
         <v>2.42</v>
       </c>
       <c r="Y243" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Z243" t="n">
         <v>1.75</v>
       </c>
       <c r="AA243" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AB243" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC243" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD243" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE243" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF243" t="n">
         <v>55</v>
       </c>
-      <c r="AF243" t="n">
-        <v>60</v>
-      </c>
       <c r="AG243" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH243" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI243" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ243" t="n">
         <v>90</v>
@@ -33658,19 +34080,19 @@
         <v>800</v>
       </c>
       <c r="AL243" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AM243" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AN243" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO243" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP243" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ243" t="n">
         <v>29</v>
@@ -33730,13 +34152,13 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P244" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="Q244" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R244" t="n">
         <v>1.57</v>
@@ -33744,10 +34166,10 @@
       <c r="S244" t="inlineStr"/>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="V244" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W244" t="n">
         <v>1.52</v>
@@ -33756,10 +34178,10 @@
         <v>2.22</v>
       </c>
       <c r="Y244" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Z244" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA244" t="n">
         <v>5.6</v>
@@ -33780,25 +34202,25 @@
         <v>32</v>
       </c>
       <c r="AG244" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH244" t="n">
         <v>6</v>
       </c>
       <c r="AI244" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ244" t="n">
         <v>90</v>
       </c>
       <c r="AK244" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL244" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM244" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN244" t="n">
         <v>17</v>
@@ -33807,7 +34229,7 @@
         <v>120</v>
       </c>
       <c r="AP244" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AQ244" t="n">
         <v>65</v>
@@ -34077,7 +34499,7 @@
         <v>300</v>
       </c>
       <c r="AL246" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM246" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -1263,19 +1263,19 @@
         <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1284,16 +1284,16 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.83</v>
@@ -1302,10 +1302,10 @@
         <v>2.07</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>1.25</v>
@@ -1314,16 +1314,16 @@
         <v>3.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1347,25 +1347,25 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1405,22 +1405,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1429,16 +1429,16 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1449,10 +1449,10 @@
         <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y7" t="n">
         <v>2</v>
@@ -1512,10 +1512,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="8">
@@ -1550,67 +1550,67 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
         <v>2.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z8" t="n">
         <v>2.38</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1622,37 +1622,37 @@
         <v>51</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="n">
         <v>10</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>9.5</v>
       </c>
       <c r="AN8" t="n">
         <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>12</v>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
         <v>1.91</v>
@@ -1710,7 +1710,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1719,16 +1719,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>2.04</v>
@@ -1737,13 +1737,13 @@
         <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
         <v>3.4</v>
@@ -1773,13 +1773,13 @@
         <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>51</v>
@@ -1803,7 +1803,7 @@
         <v>51</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
         <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K10" t="n">
         <v>2.5</v>
@@ -1870,34 +1870,34 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
         <v>3.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
         <v>9</v>
@@ -1924,22 +1924,22 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>67</v>
@@ -2709,10 +2709,10 @@
         <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2736,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -2744,31 +2744,31 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.36</v>
       </c>
-      <c r="W16" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD16" t="n">
         <v>23</v>
@@ -2780,13 +2780,13 @@
         <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2795,7 +2795,7 @@
         <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>15</v>
@@ -2810,7 +2810,7 @@
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -3129,22 +3129,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3159,18 +3159,18 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3179,22 +3179,22 @@
         <v>2.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE19" t="n">
         <v>34</v>
@@ -3203,7 +3203,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3212,16 +3212,16 @@
         <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN19" t="n">
         <v>8.5</v>
@@ -3285,13 +3285,13 @@
         <v>2.88</v>
       </c>
       <c r="L20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
@@ -3300,16 +3300,16 @@
         <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T20" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -3324,34 +3324,34 @@
         <v>3.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>34</v>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>81</v>
       </c>
       <c r="AN20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO20" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AP20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3413,13 +3413,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
@@ -3428,7 +3428,7 @@
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3509,13 +3509,13 @@
         <v>11</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
@@ -3573,7 +3573,7 @@
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3608,10 +3608,10 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA22" t="n">
         <v>12</v>
@@ -3620,10 +3620,10 @@
         <v>8.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
@@ -3987,34 +3987,34 @@
         <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4022,7 +4022,7 @@
         <v>3.4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
         <v>1.4</v>
@@ -4066,7 +4066,9 @@
       <c r="AJ25" t="n">
         <v>81</v>
       </c>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AK25" t="n">
+        <v>501</v>
+      </c>
       <c r="AL25" t="n">
         <v>17</v>
       </c>
@@ -4080,10 +4082,10 @@
         <v>101</v>
       </c>
       <c r="AP25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4120,31 +4122,31 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H26" t="n">
         <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O26" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P26" t="n">
         <v>6.5</v>
@@ -4158,10 +4160,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
         <v>1.2</v>
@@ -4170,10 +4172,10 @@
         <v>4.33</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA26" t="n">
         <v>11</v>
@@ -4209,22 +4211,22 @@
         <v>201</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP26" t="n">
         <v>51</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4264,10 +4266,10 @@
         <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -4279,16 +4281,16 @@
         <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
         <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
         <v>3.4</v>
@@ -4297,22 +4299,22 @@
         <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y27" t="n">
         <v>2.5</v>
@@ -4363,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -4416,28 +4418,28 @@
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>1.92</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
         <v>2.5</v>
@@ -4455,7 +4457,7 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4473,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
         <v>10</v>
@@ -4494,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
@@ -4512,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="n">
         <v>34</v>
@@ -4562,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="H29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.75</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.8</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4577,13 +4579,13 @@
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4604,7 +4606,7 @@
         <v>8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
         <v>1.78</v>
@@ -4708,31 +4710,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L30" t="n">
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4753,7 +4755,7 @@
         <v>6.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
         <v>1.67</v>
@@ -4762,16 +4764,16 @@
         <v>2.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC30" t="n">
         <v>11</v>
@@ -4786,10 +4788,10 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
@@ -4813,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="AP30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
         <v>51</v>
@@ -4857,60 +4859,60 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA31" t="n">
         <v>6</v>
@@ -4919,10 +4921,10 @@
         <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>34</v>
@@ -4931,34 +4933,34 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="n">
         <v>101</v>
       </c>
       <c r="AL31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN31" t="n">
         <v>12</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>13</v>
       </c>
       <c r="AO31" t="n">
         <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ31" t="n">
         <v>51</v>
@@ -4998,7 +5000,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>2.7</v>
@@ -5007,10 +5009,10 @@
         <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L32" t="n">
         <v>5</v>
@@ -5155,16 +5157,16 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L33" t="n">
         <v>3.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5187,10 +5189,10 @@
         <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y33" t="n">
         <v>2.5</v>
@@ -5297,19 +5299,19 @@
         <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L34" t="n">
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
@@ -5441,7 +5443,7 @@
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
@@ -5582,7 +5584,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L36" t="n">
         <v>6</v>
@@ -5644,7 +5646,7 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH36" t="n">
         <v>6.5</v>
@@ -6142,22 +6144,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
         <v>2.15</v>
       </c>
       <c r="L40" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -6169,7 +6171,7 @@
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q40" t="n">
         <v>1.72</v>
@@ -6180,25 +6182,25 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V40" t="n">
         <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X40" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AA40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB40" t="n">
         <v>14.5</v>
@@ -6207,13 +6209,13 @@
         <v>9.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG40" t="n">
         <v>7.9</v>
@@ -6231,7 +6233,7 @@
         <v>300</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>14</v>
@@ -6240,13 +6242,13 @@
         <v>9.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6565,48 +6567,48 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I43" t="n">
         <v>3.3</v>
       </c>
-      <c r="I43" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W43" t="n">
         <v>1.4</v>
@@ -6621,16 +6623,16 @@
         <v>2</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
         <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE43" t="n">
         <v>17</v>
@@ -6648,7 +6650,7 @@
         <v>13</v>
       </c>
       <c r="AJ43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK43" t="n">
         <v>201</v>
@@ -6657,16 +6659,16 @@
         <v>11</v>
       </c>
       <c r="AM43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ43" t="n">
         <v>34</v>
@@ -6706,22 +6708,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K44" t="n">
         <v>2.25</v>
       </c>
       <c r="L44" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
@@ -6730,24 +6732,24 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
         <v>1.36</v>
@@ -6765,22 +6767,22 @@
         <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE44" t="n">
         <v>34</v>
       </c>
       <c r="AF44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
         <v>7</v>
@@ -6789,16 +6791,16 @@
         <v>15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK44" t="n">
         <v>201</v>
       </c>
       <c r="AL44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN44" t="n">
         <v>8.5</v>
@@ -6807,7 +6809,7 @@
         <v>15</v>
       </c>
       <c r="AP44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ44" t="n">
         <v>23</v>
@@ -7129,22 +7131,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H47" t="n">
         <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>2.6</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -7171,10 +7173,10 @@
         <v>2.05</v>
       </c>
       <c r="U47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V47" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W47" t="n">
         <v>1.25</v>
@@ -7192,7 +7194,7 @@
         <v>10</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC47" t="n">
         <v>8.5</v>
@@ -7210,7 +7212,7 @@
         <v>19</v>
       </c>
       <c r="AH47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI47" t="n">
         <v>15</v>
@@ -7222,10 +7224,10 @@
         <v>126</v>
       </c>
       <c r="AL47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN47" t="n">
         <v>17</v>
@@ -7234,7 +7236,7 @@
         <v>51</v>
       </c>
       <c r="AP47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ47" t="n">
         <v>34</v>
@@ -7609,7 +7611,7 @@
         <v>2.1</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
@@ -7733,10 +7735,10 @@
         <v>2.03</v>
       </c>
       <c r="S51" t="n">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="T51" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U51" t="n">
         <v>3</v>
@@ -7745,7 +7747,7 @@
         <v>1.36</v>
       </c>
       <c r="W51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X51" t="n">
         <v>3</v>
@@ -7808,10 +7810,10 @@
         <v>29</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS51" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="52">
@@ -7849,16 +7851,16 @@
         <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L52" t="n">
         <v>5.5</v>
@@ -7876,37 +7878,37 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R52" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S52" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="T52" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="U52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB52" t="n">
         <v>7.5</v>
@@ -7918,16 +7920,16 @@
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
@@ -7936,7 +7938,7 @@
         <v>51</v>
       </c>
       <c r="AK52" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -7957,10 +7959,10 @@
         <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="53">
@@ -8144,88 +8146,88 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y54" t="n">
         <v>2.1</v>
       </c>
-      <c r="L54" t="n">
+      <c r="Z54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA54" t="n">
         <v>6</v>
       </c>
-      <c r="M54" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S54" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U54" t="n">
-        <v>4</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG54" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
         <v>21</v>
@@ -8234,13 +8236,13 @@
         <v>67</v>
       </c>
       <c r="AK54" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AL54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN54" t="n">
         <v>19</v>
@@ -8255,10 +8257,10 @@
         <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="55">
@@ -8293,22 +8295,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L55" t="n">
         <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.11</v>
@@ -8335,10 +8337,10 @@
         <v>1.22</v>
       </c>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W55" t="n">
         <v>1.57</v>
@@ -8371,10 +8373,10 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI55" t="n">
         <v>21</v>
@@ -8386,10 +8388,10 @@
         <v>101</v>
       </c>
       <c r="AL55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN55" t="n">
         <v>17</v>
@@ -8404,10 +8406,10 @@
         <v>51</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="56">
@@ -8445,13 +8447,13 @@
         <v>1.55</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K56" t="n">
         <v>2.05</v>
@@ -8499,7 +8501,7 @@
         <v>2.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA56" t="n">
         <v>5</v>
@@ -8508,10 +8510,10 @@
         <v>6</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
         <v>17</v>
@@ -8544,7 +8546,7 @@
         <v>21</v>
       </c>
       <c r="AO56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP56" t="n">
         <v>51</v>
@@ -8648,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA57" t="n">
         <v>9.5</v>
@@ -8885,22 +8887,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K59" t="n">
         <v>2.2</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -8915,10 +8917,10 @@
         <v>3.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -8935,22 +8937,22 @@
         <v>2.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z59" t="n">
         <v>2</v>
       </c>
       <c r="AA59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC59" t="n">
         <v>9</v>
       </c>
       <c r="AD59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE59" t="n">
         <v>17</v>
@@ -9026,40 +9028,40 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.15</v>
       </c>
-      <c r="H60" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I60" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="J60" t="n">
         <v>3.6</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O60" t="n">
         <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q60" t="n">
         <v>1.91</v>
       </c>
       <c r="R60" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9070,7 +9072,7 @@
         <v>1.33</v>
       </c>
       <c r="W60" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X60" t="n">
         <v>2.65</v>
@@ -9082,28 +9084,28 @@
         <v>2.1</v>
       </c>
       <c r="AA60" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AC60" t="n">
         <v>11.25</v>
       </c>
       <c r="AD60" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE60" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF60" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG60" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI60" t="n">
         <v>13.5</v>
@@ -9115,22 +9117,22 @@
         <v>450</v>
       </c>
       <c r="AL60" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN60" t="n">
         <v>9.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ60" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9167,81 +9169,81 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H61" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I61" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K61" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O61" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P61" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="V61" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W61" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X61" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AA61" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AC61" t="n">
         <v>8.75</v>
       </c>
       <c r="AD61" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE61" t="n">
         <v>12.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH61" t="n">
         <v>8.75</v>
@@ -9253,25 +9255,25 @@
         <v>100</v>
       </c>
       <c r="AK61" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL61" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM61" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO61" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>75</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>70</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9308,22 +9310,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I62" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J62" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="K62" t="n">
         <v>2.22</v>
       </c>
       <c r="L62" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M62" t="n">
         <v>1.05</v>
@@ -9335,7 +9337,7 @@
         <v>1.24</v>
       </c>
       <c r="P62" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q62" t="n">
         <v>1.72</v>
@@ -9346,37 +9348,37 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="V62" t="n">
         <v>1.42</v>
       </c>
       <c r="W62" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X62" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA62" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC62" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE62" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF62" t="n">
         <v>40</v>
@@ -9394,7 +9396,7 @@
         <v>65</v>
       </c>
       <c r="AK62" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL62" t="n">
         <v>7.8</v>
@@ -9406,13 +9408,13 @@
         <v>8.75</v>
       </c>
       <c r="AO62" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP62" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9872,81 +9874,81 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M66" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P66" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R66" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V66" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W66" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X66" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z66" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z66" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB66" t="n">
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD66" t="n">
         <v>34</v>
       </c>
       <c r="AE66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH66" t="n">
         <v>6</v>
@@ -9958,13 +9960,13 @@
         <v>51</v>
       </c>
       <c r="AK66" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL66" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN66" t="n">
         <v>9.5</v>
@@ -9973,10 +9975,10 @@
         <v>21</v>
       </c>
       <c r="AP66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10331,10 +10333,10 @@
         <v>2.3</v>
       </c>
       <c r="S69" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T69" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U69" t="n">
         <v>2.5</v>
@@ -10343,7 +10345,7 @@
         <v>1.5</v>
       </c>
       <c r="W69" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X69" t="n">
         <v>3.5</v>
@@ -10440,13 +10442,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J70" t="n">
         <v>3.25</v>
@@ -10455,7 +10457,7 @@
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -10470,10 +10472,10 @@
         <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R70" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10484,10 +10486,10 @@
         <v>1.25</v>
       </c>
       <c r="W70" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X70" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y70" t="n">
         <v>1.83</v>
@@ -10496,7 +10498,7 @@
         <v>1.83</v>
       </c>
       <c r="AA70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB70" t="n">
         <v>12</v>
@@ -10505,7 +10507,7 @@
         <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE70" t="n">
         <v>21</v>
@@ -10625,10 +10627,10 @@
         <v>1.25</v>
       </c>
       <c r="W71" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X71" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y71" t="n">
         <v>1.83</v>
@@ -14394,7 +14396,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H98" t="n">
         <v>4.33</v>
@@ -14406,7 +14408,7 @@
         <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L98" t="n">
         <v>6.5</v>
@@ -14444,13 +14446,13 @@
         <v>3</v>
       </c>
       <c r="Y98" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB98" t="n">
         <v>7</v>
@@ -14459,7 +14461,7 @@
         <v>8.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE98" t="n">
         <v>12</v>
@@ -14468,7 +14470,7 @@
         <v>26</v>
       </c>
       <c r="AG98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH98" t="n">
         <v>8.5</v>
@@ -15002,10 +15004,10 @@
         <v>2.4</v>
       </c>
       <c r="S102" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T102" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U102" t="n">
         <v>2.25</v>
@@ -16120,22 +16122,22 @@
         <v>3.5</v>
       </c>
       <c r="M110" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N110" t="n">
         <v>11</v>
       </c>
       <c r="O110" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P110" t="n">
         <v>3.75</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R110" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -16143,7 +16145,7 @@
         <v>3</v>
       </c>
       <c r="V110" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W110" t="n">
         <v>1.36</v>
@@ -16152,7 +16154,7 @@
         <v>3</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z110" t="n">
         <v>2.1</v>
@@ -16243,52 +16245,52 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>3.6</v>
       </c>
       <c r="I111" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J111" t="n">
         <v>3.2</v>
       </c>
       <c r="K111" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L111" t="n">
         <v>2.88</v>
       </c>
       <c r="M111" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N111" t="n">
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R111" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S111" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T111" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U111" t="n">
         <v>2.25</v>
       </c>
       <c r="V111" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W111" t="n">
         <v>1.29</v>
@@ -16297,10 +16299,10 @@
         <v>3.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AA111" t="n">
         <v>13</v>
@@ -16330,7 +16332,7 @@
         <v>11</v>
       </c>
       <c r="AJ111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK111" t="n">
         <v>101</v>
@@ -16342,7 +16344,7 @@
         <v>15</v>
       </c>
       <c r="AN111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO111" t="n">
         <v>23</v>
@@ -16973,7 +16975,7 @@
         <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O116" t="n">
         <v>1.18</v>
@@ -17012,7 +17014,7 @@
         <v>1.83</v>
       </c>
       <c r="AA116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB116" t="n">
         <v>7</v>
@@ -17036,13 +17038,13 @@
         <v>10</v>
       </c>
       <c r="AI116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ116" t="n">
         <v>51</v>
       </c>
       <c r="AK116" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL116" t="n">
         <v>21</v>
@@ -17051,10 +17053,10 @@
         <v>41</v>
       </c>
       <c r="AN116" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO116" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP116" t="n">
         <v>51</v>
@@ -17097,19 +17099,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I117" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L117" t="n">
         <v>5</v>
@@ -17130,7 +17132,7 @@
         <v>2.3</v>
       </c>
       <c r="R117" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17147,16 +17149,16 @@
         <v>2.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA117" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC117" t="n">
         <v>9</v>
@@ -17177,10 +17179,10 @@
         <v>7</v>
       </c>
       <c r="AI117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ117" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK117" t="n">
         <v>900</v>
@@ -17189,13 +17191,13 @@
         <v>9</v>
       </c>
       <c r="AM117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP117" t="n">
         <v>41</v>
@@ -17256,10 +17258,10 @@
         <v>2.88</v>
       </c>
       <c r="M118" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O118" t="n">
         <v>1.44</v>
@@ -17271,7 +17273,7 @@
         <v>2.4</v>
       </c>
       <c r="R118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -17345,10 +17347,10 @@
         <v>41</v>
       </c>
       <c r="AR118" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="119">
@@ -17959,13 +17961,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J123" t="n">
         <v>3.1</v>
@@ -18024,13 +18026,13 @@
         <v>9.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE123" t="n">
         <v>21</v>
       </c>
       <c r="AF123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG123" t="n">
         <v>8</v>
@@ -18060,7 +18062,7 @@
         <v>34</v>
       </c>
       <c r="AP123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ123" t="n">
         <v>41</v>
@@ -18100,7 +18102,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H124" t="n">
         <v>2.9</v>
@@ -18109,7 +18111,7 @@
         <v>2.9</v>
       </c>
       <c r="J124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K124" t="n">
         <v>1.91</v>
@@ -18118,22 +18120,22 @@
         <v>3.75</v>
       </c>
       <c r="M124" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N124" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R124" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P124" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.48</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
@@ -18159,13 +18161,13 @@
         <v>7</v>
       </c>
       <c r="AB124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC124" t="n">
         <v>11</v>
       </c>
       <c r="AD124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE124" t="n">
         <v>26</v>
@@ -18177,7 +18179,7 @@
         <v>6.5</v>
       </c>
       <c r="AH124" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI124" t="n">
         <v>17</v>
@@ -18189,13 +18191,13 @@
         <v>501</v>
       </c>
       <c r="AL124" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM124" t="n">
         <v>13</v>
       </c>
       <c r="AN124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO124" t="n">
         <v>29</v>
@@ -18207,10 +18209,10 @@
         <v>41</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="125">
@@ -20489,7 +20491,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H141" t="n">
         <v>4.5</v>
@@ -20501,16 +20503,16 @@
         <v>2.1</v>
       </c>
       <c r="K141" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L141" t="n">
         <v>4.5</v>
       </c>
       <c r="M141" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O141" t="n">
         <v>1.11</v>
@@ -20519,10 +20521,10 @@
         <v>6.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R141" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S141" t="n">
         <v>1.83</v>
@@ -20531,10 +20533,10 @@
         <v>2.03</v>
       </c>
       <c r="U141" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V141" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W141" t="n">
         <v>1.22</v>
@@ -20543,31 +20545,31 @@
         <v>4</v>
       </c>
       <c r="Y141" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z141" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB141" t="n">
         <v>11</v>
       </c>
       <c r="AC141" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD141" t="n">
         <v>15</v>
       </c>
       <c r="AE141" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF141" t="n">
         <v>17</v>
       </c>
       <c r="AG141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH141" t="n">
         <v>9.5</v>
@@ -20582,7 +20584,7 @@
         <v>101</v>
       </c>
       <c r="AL141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM141" t="n">
         <v>29</v>
@@ -20597,7 +20599,7 @@
         <v>29</v>
       </c>
       <c r="AQ141" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
@@ -21329,64 +21331,64 @@
         <v>4.15</v>
       </c>
       <c r="I147" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J147" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K147" t="n">
         <v>2.3</v>
       </c>
       <c r="L147" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P147" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R147" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="V147" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AA147" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AC147" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD147" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE147" t="n">
         <v>11.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG147" t="n">
         <v>12.5</v>
@@ -21395,31 +21397,31 @@
         <v>8.25</v>
       </c>
       <c r="AI147" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK147" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL147" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM147" t="n">
         <v>37</v>
       </c>
       <c r="AN147" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO147" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP147" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AQ147" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21468,7 +21470,7 @@
         <v>3.2</v>
       </c>
       <c r="K148" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L148" t="n">
         <v>4.33</v>
@@ -21613,7 +21615,7 @@
         <v>4.33</v>
       </c>
       <c r="K149" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L149" t="n">
         <v>3.2</v>
@@ -21708,10 +21710,10 @@
         <v>41</v>
       </c>
       <c r="AR149" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="150">
@@ -21776,18 +21778,18 @@
         <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R150" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V150" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W150" t="n">
         <v>1.44</v>
@@ -21887,16 +21889,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J151" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K151" t="n">
         <v>1.95</v>
@@ -21943,7 +21945,7 @@
         <v>1.62</v>
       </c>
       <c r="AA151" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB151" t="n">
         <v>19</v>
@@ -21988,7 +21990,7 @@
         <v>17</v>
       </c>
       <c r="AP151" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ151" t="n">
         <v>41</v>
@@ -22032,10 +22034,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I152" t="n">
         <v>3.5</v>
@@ -22044,16 +22046,16 @@
         <v>2.5</v>
       </c>
       <c r="K152" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L152" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O152" t="n">
         <v>1.36</v>
@@ -22062,10 +22064,10 @@
         <v>3</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R152" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="S152" t="n">
         <v>1.97</v>
@@ -22086,43 +22088,43 @@
         <v>2.75</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC152" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC152" t="n">
-        <v>9</v>
-      </c>
       <c r="AD152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE152" t="n">
         <v>19</v>
       </c>
       <c r="AF152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG152" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ152" t="n">
         <v>51</v>
       </c>
       <c r="AK152" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL152" t="n">
         <v>9.5</v>
@@ -22143,10 +22145,10 @@
         <v>41</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="153">
@@ -22205,16 +22207,16 @@
         <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P153" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R153" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S153" t="n">
         <v>1.85</v>
@@ -22223,10 +22225,10 @@
         <v>2</v>
       </c>
       <c r="U153" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V153" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W153" t="n">
         <v>1.36</v>
@@ -22292,10 +22294,10 @@
         <v>29</v>
       </c>
       <c r="AR153" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AS153" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="154">
@@ -22620,22 +22622,22 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H156" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I156" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J156" t="n">
         <v>4.33</v>
       </c>
       <c r="K156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L156" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M156" t="n">
         <v>1.13</v>
@@ -22644,24 +22646,24 @@
         <v>6</v>
       </c>
       <c r="O156" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P156" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R156" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V156" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W156" t="n">
         <v>1.67</v>
@@ -22670,22 +22672,22 @@
         <v>2.1</v>
       </c>
       <c r="Y156" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA156" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB156" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC156" t="n">
         <v>13</v>
       </c>
       <c r="AD156" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE156" t="n">
         <v>34</v>
@@ -22703,7 +22705,7 @@
         <v>21</v>
       </c>
       <c r="AJ156" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK156" t="n">
         <v>101</v>
@@ -22718,10 +22720,10 @@
         <v>11</v>
       </c>
       <c r="AO156" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP156" t="n">
         <v>26</v>
-      </c>
-      <c r="AP156" t="n">
-        <v>29</v>
       </c>
       <c r="AQ156" t="n">
         <v>41</v>
@@ -22768,67 +22770,67 @@
         <v>1.53</v>
       </c>
       <c r="H157" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I157" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J157" t="n">
         <v>2.05</v>
       </c>
       <c r="K157" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L157" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P157" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R157" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S157" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="T157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y157" t="n">
         <v>1.8</v>
       </c>
-      <c r="U157" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V157" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W157" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X157" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Z157" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC157" t="n">
         <v>8.5</v>
@@ -22840,22 +22842,22 @@
         <v>12</v>
       </c>
       <c r="AF157" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG157" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH157" t="n">
         <v>8</v>
       </c>
       <c r="AI157" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ157" t="n">
         <v>51</v>
       </c>
       <c r="AK157" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL157" t="n">
         <v>17</v>
@@ -22864,10 +22866,10 @@
         <v>34</v>
       </c>
       <c r="AN157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP157" t="n">
         <v>41</v>
@@ -23196,28 +23198,28 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I160" t="n">
         <v>2.75</v>
       </c>
       <c r="J160" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K160" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L160" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M160" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N160" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O160" t="n">
         <v>1.33</v>
@@ -23226,10 +23228,10 @@
         <v>3.25</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R160" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
@@ -23246,10 +23248,10 @@
         <v>2.63</v>
       </c>
       <c r="Y160" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA160" t="n">
         <v>8</v>
@@ -23261,16 +23263,16 @@
         <v>10</v>
       </c>
       <c r="AD160" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE160" t="n">
         <v>21</v>
       </c>
       <c r="AF160" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG160" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH160" t="n">
         <v>6</v>
@@ -23282,10 +23284,10 @@
         <v>51</v>
       </c>
       <c r="AK160" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL160" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM160" t="n">
         <v>13</v>
@@ -23482,16 +23484,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H162" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I162" t="n">
         <v>11</v>
       </c>
       <c r="J162" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K162" t="n">
         <v>2.88</v>
@@ -23512,10 +23514,10 @@
         <v>6</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R162" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S162" t="n">
         <v>1.8</v>
@@ -23536,10 +23538,10 @@
         <v>4</v>
       </c>
       <c r="Y162" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA162" t="n">
         <v>9.5</v>
@@ -23560,13 +23562,13 @@
         <v>26</v>
       </c>
       <c r="AG162" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH162" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI162" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ162" t="n">
         <v>67</v>
@@ -23575,7 +23577,7 @@
         <v>351</v>
       </c>
       <c r="AL162" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM162" t="n">
         <v>51</v>
@@ -23584,7 +23586,7 @@
         <v>29</v>
       </c>
       <c r="AO162" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP162" t="n">
         <v>67</v>
@@ -23627,102 +23629,102 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I163" t="n">
         <v>3.1</v>
       </c>
-      <c r="I163" t="n">
+      <c r="J163" t="n">
         <v>3.4</v>
       </c>
-      <c r="J163" t="n">
-        <v>3</v>
-      </c>
       <c r="K163" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L163" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M163" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N163" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O163" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P163" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R163" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V163" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W163" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X163" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y163" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Z163" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA163" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC163" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD163" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE163" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF163" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL163" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH163" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI163" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ163" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK163" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL163" t="n">
-        <v>9</v>
-      </c>
       <c r="AM163" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO163" t="n">
         <v>34</v>
@@ -23733,8 +23735,12 @@
       <c r="AQ163" t="n">
         <v>41</v>
       </c>
-      <c r="AR163" t="inlineStr"/>
-      <c r="AS163" t="inlineStr"/>
+      <c r="AR163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23768,28 +23774,28 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H164" t="n">
         <v>3.1</v>
       </c>
       <c r="I164" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J164" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K164" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L164" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="M164" t="n">
         <v>1.07</v>
       </c>
       <c r="N164" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O164" t="n">
         <v>1.33</v>
@@ -23818,10 +23824,10 @@
         <v>2.63</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="Z164" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AA164" t="n">
         <v>10</v>
@@ -23842,7 +23848,7 @@
         <v>41</v>
       </c>
       <c r="AG164" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH164" t="n">
         <v>6</v>
@@ -23854,22 +23860,22 @@
         <v>51</v>
       </c>
       <c r="AK164" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL164" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM164" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN164" t="n">
         <v>9</v>
       </c>
       <c r="AO164" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP164" t="n">
         <v>19</v>
-      </c>
-      <c r="AP164" t="n">
-        <v>17</v>
       </c>
       <c r="AQ164" t="n">
         <v>29</v>
@@ -24336,22 +24342,22 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I168" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="J168" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K168" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="L168" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="M168" t="n">
         <v>1.02</v>
@@ -24360,87 +24366,87 @@
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P168" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="R168" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V168" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="W168" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="X168" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Y168" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Z168" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="AA168" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB168" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF168" t="n">
         <v>18</v>
       </c>
-      <c r="AC168" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD168" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE168" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF168" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG168" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH168" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI168" t="n">
         <v>11</v>
       </c>
       <c r="AJ168" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK168" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL168" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM168" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN168" t="n">
         <v>10.25</v>
       </c>
       <c r="AO168" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP168" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24477,72 +24483,72 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H169" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I169" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J169" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K169" t="n">
         <v>2.32</v>
       </c>
       <c r="L169" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M169" t="n">
         <v>1.03</v>
       </c>
       <c r="N169" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O169" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P169" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R169" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="V169" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W169" t="n">
         <v>1.29</v>
       </c>
       <c r="X169" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Y169" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z169" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AA169" t="n">
         <v>10.75</v>
       </c>
       <c r="AB169" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC169" t="n">
         <v>8.25</v>
       </c>
       <c r="AD169" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE169" t="n">
         <v>12.5</v>
@@ -24551,10 +24557,10 @@
         <v>17.5</v>
       </c>
       <c r="AG169" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH169" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI169" t="n">
         <v>11.75</v>
@@ -24566,19 +24572,19 @@
         <v>200</v>
       </c>
       <c r="AL169" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AM169" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO169" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP169" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ169" t="n">
         <v>28</v>
@@ -24624,96 +24630,96 @@
         <v>4.55</v>
       </c>
       <c r="I170" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J170" t="n">
         <v>1.9</v>
       </c>
       <c r="K170" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L170" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M170" t="n">
         <v>1.03</v>
       </c>
       <c r="N170" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O170" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P170" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R170" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V170" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W170" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X170" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Y170" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z170" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="AA170" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB170" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AC170" t="n">
         <v>8.25</v>
       </c>
       <c r="AD170" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE170" t="n">
         <v>10.5</v>
       </c>
       <c r="AF170" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG170" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH170" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI170" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ170" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK170" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL170" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM170" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN170" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO170" t="n">
         <v>120</v>
@@ -24722,7 +24728,7 @@
         <v>50</v>
       </c>
       <c r="AQ170" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR170" t="inlineStr"/>
       <c r="AS170" t="inlineStr"/>
@@ -24759,22 +24765,22 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H171" t="n">
         <v>3.1</v>
       </c>
       <c r="I171" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J171" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K171" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L171" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M171" t="n">
         <v>1.05</v>
@@ -24803,10 +24809,10 @@
         <v>1.36</v>
       </c>
       <c r="W171" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X171" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y171" t="n">
         <v>1.67</v>
@@ -24815,25 +24821,25 @@
         <v>2.1</v>
       </c>
       <c r="AA171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB171" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC171" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD171" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE171" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF171" t="n">
         <v>34</v>
       </c>
       <c r="AG171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH171" t="n">
         <v>6</v>
@@ -24851,16 +24857,16 @@
         <v>9</v>
       </c>
       <c r="AM171" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN171" t="n">
         <v>9.5</v>
       </c>
       <c r="AO171" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP171" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ171" t="n">
         <v>26</v>
@@ -24900,66 +24906,66 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H172" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J172" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K172" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L172" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M172" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N172" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O172" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P172" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R172" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V172" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W172" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X172" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y172" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z172" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA172" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC172" t="n">
         <v>11</v>
@@ -24968,46 +24974,50 @@
         <v>29</v>
       </c>
       <c r="AE172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF172" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG172" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH172" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI172" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ172" t="n">
         <v>51</v>
       </c>
       <c r="AK172" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL172" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN172" t="n">
         <v>11</v>
       </c>
-      <c r="AN172" t="n">
-        <v>10</v>
-      </c>
       <c r="AO172" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP172" t="n">
         <v>23</v>
       </c>
-      <c r="AP172" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ172" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR172" t="inlineStr"/>
-      <c r="AS172" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -25041,84 +25051,84 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H173" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L173" t="n">
         <v>4</v>
       </c>
-      <c r="J173" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K173" t="n">
+      <c r="M173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q173" t="n">
         <v>2.1</v>
       </c>
-      <c r="L173" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M173" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N173" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O173" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P173" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>2</v>
-      </c>
       <c r="R173" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V173" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W173" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X173" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y173" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA173" t="n">
         <v>7</v>
       </c>
       <c r="AB173" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC173" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE173" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF173" t="n">
         <v>29</v>
       </c>
       <c r="AG173" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH173" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI173" t="n">
         <v>17</v>
@@ -25127,22 +25137,22 @@
         <v>51</v>
       </c>
       <c r="AK173" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL173" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM173" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN173" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO173" t="n">
         <v>41</v>
       </c>
       <c r="AP173" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ173" t="n">
         <v>41</v>
@@ -25895,22 +25905,22 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="H179" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I179" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="J179" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K179" t="n">
         <v>2.3</v>
       </c>
       <c r="L179" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="M179" t="n">
         <v>1.04</v>
@@ -25919,24 +25929,24 @@
         <v>8.25</v>
       </c>
       <c r="O179" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P179" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R179" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="V179" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W179" t="n">
         <v>1.35</v>
@@ -25945,61 +25955,61 @@
         <v>2.95</v>
       </c>
       <c r="Y179" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB179" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AC179" t="n">
         <v>8</v>
       </c>
       <c r="AD179" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AE179" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF179" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG179" t="n">
         <v>8.25</v>
       </c>
       <c r="AH179" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI179" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AJ179" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ179" t="n">
         <v>65</v>
-      </c>
-      <c r="AK179" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL179" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM179" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN179" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO179" t="n">
-        <v>90</v>
-      </c>
-      <c r="AP179" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ179" t="n">
-        <v>45</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26036,34 +26046,34 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I180" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J180" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K180" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L180" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="M180" t="n">
         <v>1.04</v>
       </c>
       <c r="N180" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O180" t="n">
         <v>1.22</v>
       </c>
       <c r="P180" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q180" t="n">
         <v>1.65</v>
@@ -26074,46 +26084,46 @@
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="V180" t="n">
         <v>1.45</v>
       </c>
       <c r="W180" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X180" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Y180" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z180" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AA180" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB180" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC180" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF180" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG180" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH180" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI180" t="n">
         <v>12.5</v>
@@ -26128,19 +26138,19 @@
         <v>12.5</v>
       </c>
       <c r="AM180" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN180" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO180" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP180" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AQ180" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26741,34 +26751,34 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="H185" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I185" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J185" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="K185" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L185" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M185" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N185" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="O185" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P185" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q185" t="n">
         <v>2.07</v>
@@ -26779,64 +26789,64 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="V185" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W185" t="n">
         <v>1.42</v>
       </c>
       <c r="X185" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Y185" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AA185" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB185" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC185" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD185" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE185" t="n">
         <v>22</v>
-      </c>
-      <c r="AE185" t="n">
-        <v>20</v>
       </c>
       <c r="AF185" t="n">
         <v>32</v>
       </c>
       <c r="AG185" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AH185" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AI185" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ185" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK185" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL185" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM185" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN185" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO185" t="n">
         <v>55</v>
@@ -26845,7 +26855,7 @@
         <v>35</v>
       </c>
       <c r="AQ185" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR185" t="inlineStr"/>
       <c r="AS185" t="inlineStr"/>
@@ -27164,19 +27174,19 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H188" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I188" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K188" t="n">
         <v>2.05</v>
-      </c>
-      <c r="J188" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K188" t="n">
-        <v>2.02</v>
       </c>
       <c r="L188" t="n">
         <v>2.72</v>
@@ -27185,7 +27195,7 @@
         <v>1.07</v>
       </c>
       <c r="N188" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O188" t="n">
         <v>1.34</v>
@@ -27211,40 +27221,40 @@
         <v>1.45</v>
       </c>
       <c r="X188" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AA188" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB188" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC188" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD188" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE188" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF188" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG188" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH188" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI188" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ188" t="n">
         <v>70</v>
@@ -27253,13 +27263,13 @@
         <v>600</v>
       </c>
       <c r="AL188" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AM188" t="n">
         <v>9.5</v>
       </c>
       <c r="AN188" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO188" t="n">
         <v>18.5</v>
@@ -28441,54 +28451,54 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H197" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I197" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J197" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K197" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L197" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M197" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O197" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P197" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R197" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R197" t="n">
-        <v>1.98</v>
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V197" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W197" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X197" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y197" t="n">
         <v>1.8</v>
@@ -28500,25 +28510,25 @@
         <v>7.5</v>
       </c>
       <c r="AB197" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC197" t="n">
         <v>8.5</v>
       </c>
       <c r="AD197" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE197" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF197" t="n">
         <v>26</v>
       </c>
       <c r="AG197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH197" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI197" t="n">
         <v>15</v>
@@ -28530,19 +28540,19 @@
         <v>251</v>
       </c>
       <c r="AL197" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN197" t="n">
         <v>13</v>
       </c>
-      <c r="AM197" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN197" t="n">
-        <v>15</v>
-      </c>
       <c r="AO197" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP197" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ197" t="n">
         <v>41</v>
@@ -28582,22 +28592,22 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I198" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K198" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L198" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M198" t="n">
         <v>1.05</v>
@@ -28638,22 +28648,22 @@
         <v>2</v>
       </c>
       <c r="AA198" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB198" t="n">
         <v>11</v>
       </c>
       <c r="AC198" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD198" t="n">
         <v>21</v>
       </c>
       <c r="AE198" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG198" t="n">
         <v>10</v>
@@ -28671,19 +28681,19 @@
         <v>201</v>
       </c>
       <c r="AL198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN198" t="n">
         <v>11</v>
       </c>
-      <c r="AM198" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN198" t="n">
-        <v>12</v>
-      </c>
       <c r="AO198" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP198" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ198" t="n">
         <v>34</v>
@@ -28761,10 +28771,10 @@
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V199" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W199" t="n">
         <v>1.44</v>
@@ -28868,22 +28878,22 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
       </c>
       <c r="I200" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J200" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K200" t="n">
         <v>2.3</v>
       </c>
       <c r="L200" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M200" t="n">
         <v>1.03</v>
@@ -28934,7 +28944,7 @@
         <v>11</v>
       </c>
       <c r="AC200" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD200" t="n">
         <v>17</v>
@@ -28946,19 +28956,19 @@
         <v>21</v>
       </c>
       <c r="AG200" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH200" t="n">
         <v>7</v>
       </c>
       <c r="AI200" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ200" t="n">
         <v>41</v>
       </c>
       <c r="AK200" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL200" t="n">
         <v>13</v>
@@ -29013,28 +29023,28 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I201" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J201" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K201" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L201" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M201" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N201" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O201" t="n">
         <v>1.25</v>
@@ -29043,18 +29053,18 @@
         <v>3.75</v>
       </c>
       <c r="Q201" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R201" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V201" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W201" t="n">
         <v>1.36</v>
@@ -29069,19 +29079,19 @@
         <v>2.1</v>
       </c>
       <c r="AA201" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB201" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC201" t="n">
         <v>9</v>
       </c>
       <c r="AD201" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE201" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF201" t="n">
         <v>23</v>
@@ -29102,22 +29112,22 @@
         <v>151</v>
       </c>
       <c r="AL201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN201" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO201" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ201" t="n">
         <v>34</v>
-      </c>
-      <c r="AP201" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ201" t="n">
-        <v>29</v>
       </c>
       <c r="AR201" t="inlineStr"/>
       <c r="AS201" t="inlineStr"/>
@@ -29154,22 +29164,22 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H202" t="n">
         <v>3.6</v>
       </c>
       <c r="I202" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J202" t="n">
         <v>2.5</v>
       </c>
       <c r="K202" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L202" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M202" t="n">
         <v>1.04</v>
@@ -29184,10 +29194,10 @@
         <v>4</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R202" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
@@ -29295,108 +29305,108 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I203" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J203" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K203" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L203" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="M203" t="n">
         <v>1.07</v>
       </c>
       <c r="N203" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O203" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P203" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q203" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R203" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V203" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W203" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X203" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y203" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z203" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AA203" t="n">
         <v>6.7</v>
       </c>
       <c r="AB203" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC203" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD203" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE203" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF203" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG203" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH203" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI203" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ203" t="n">
         <v>70</v>
       </c>
       <c r="AK203" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL203" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM203" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO203" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP203" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AQ203" t="n">
         <v>40</v>
@@ -30141,52 +30151,52 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H209" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I209" t="n">
+        <v>7</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L209" t="n">
         <v>6.5</v>
       </c>
-      <c r="J209" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K209" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L209" t="n">
+      <c r="M209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N209" t="n">
+        <v>19</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P209" t="n">
         <v>6</v>
       </c>
-      <c r="M209" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N209" t="n">
-        <v>17</v>
-      </c>
-      <c r="O209" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P209" t="n">
-        <v>5</v>
-      </c>
       <c r="Q209" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R209" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="S209" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T209" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U209" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V209" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W209" t="n">
         <v>1.25</v>
@@ -30201,13 +30211,13 @@
         <v>2.1</v>
       </c>
       <c r="AA209" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB209" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC209" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD209" t="n">
         <v>10</v>
@@ -30219,10 +30229,10 @@
         <v>21</v>
       </c>
       <c r="AG209" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH209" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI209" t="n">
         <v>17</v>
@@ -30234,16 +30244,16 @@
         <v>151</v>
       </c>
       <c r="AL209" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM209" t="n">
         <v>41</v>
       </c>
       <c r="AN209" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO209" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP209" t="n">
         <v>41</v>
@@ -31454,10 +31464,10 @@
         <v>2.35</v>
       </c>
       <c r="S222" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T222" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U222" t="n">
         <v>2.38</v>
@@ -31563,22 +31573,22 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H223" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I223" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J223" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K223" t="n">
         <v>2.3</v>
       </c>
       <c r="L223" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M223" t="n">
         <v>1.04</v>
@@ -31593,10 +31603,10 @@
         <v>4</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R223" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="inlineStr"/>
@@ -31613,22 +31623,22 @@
         <v>3.25</v>
       </c>
       <c r="Y223" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z223" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA223" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB223" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC223" t="n">
         <v>8.5</v>
       </c>
       <c r="AD223" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE223" t="n">
         <v>13</v>
@@ -31646,7 +31656,7 @@
         <v>15</v>
       </c>
       <c r="AJ223" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK223" t="n">
         <v>201</v>
@@ -31655,16 +31665,16 @@
         <v>15</v>
       </c>
       <c r="AM223" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN223" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO223" t="n">
         <v>51</v>
       </c>
       <c r="AP223" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ223" t="n">
         <v>41</v>
@@ -31845,40 +31855,40 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I225" t="n">
         <v>3.4</v>
       </c>
       <c r="J225" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K225" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L225" t="n">
         <v>3.75</v>
       </c>
       <c r="M225" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N225" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O225" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P225" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R225" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S225" t="n">
         <v>2.05</v>
@@ -31887,10 +31897,10 @@
         <v>1.8</v>
       </c>
       <c r="U225" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V225" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W225" t="n">
         <v>1.33</v>
@@ -31899,13 +31909,13 @@
         <v>3.25</v>
       </c>
       <c r="Y225" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z225" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA225" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB225" t="n">
         <v>11</v>
@@ -31920,13 +31930,13 @@
         <v>15</v>
       </c>
       <c r="AF225" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG225" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH225" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI225" t="n">
         <v>13</v>
@@ -31938,7 +31948,7 @@
         <v>151</v>
       </c>
       <c r="AL225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM225" t="n">
         <v>19</v>
@@ -31950,7 +31960,7 @@
         <v>41</v>
       </c>
       <c r="AP225" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ225" t="n">
         <v>29</v>
@@ -31990,22 +32000,22 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H226" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I226" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L226" t="n">
         <v>4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K226" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L226" t="n">
-        <v>4.33</v>
       </c>
       <c r="M226" t="n">
         <v>1.03</v>
@@ -32050,16 +32060,16 @@
         <v>2.25</v>
       </c>
       <c r="AA226" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB226" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC226" t="n">
         <v>8.5</v>
       </c>
       <c r="AD226" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE226" t="n">
         <v>13</v>
@@ -32086,16 +32096,16 @@
         <v>15</v>
       </c>
       <c r="AM226" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN226" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO226" t="n">
         <v>41</v>
       </c>
       <c r="AP226" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ226" t="n">
         <v>29</v>
@@ -32153,10 +32163,10 @@
         <v>5</v>
       </c>
       <c r="M227" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N227" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O227" t="n">
         <v>1.25</v>
@@ -32165,10 +32175,10 @@
         <v>3.75</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R227" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S227" t="n">
         <v>1.85</v>
@@ -32280,22 +32290,22 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H228" t="n">
         <v>3.75</v>
       </c>
       <c r="I228" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J228" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K228" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L228" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M228" t="n">
         <v>1.03</v>
@@ -32304,10 +32314,10 @@
         <v>15</v>
       </c>
       <c r="O228" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P228" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q228" t="n">
         <v>1.7</v>
@@ -32318,10 +32328,10 @@
       <c r="S228" t="inlineStr"/>
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V228" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W228" t="n">
         <v>1.33</v>
@@ -32330,10 +32340,10 @@
         <v>3.25</v>
       </c>
       <c r="Y228" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z228" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA228" t="n">
         <v>10</v>
@@ -32348,13 +32358,13 @@
         <v>23</v>
       </c>
       <c r="AE228" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF228" t="n">
         <v>23</v>
       </c>
       <c r="AG228" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH228" t="n">
         <v>7</v>
@@ -32378,10 +32388,10 @@
         <v>10</v>
       </c>
       <c r="AO228" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP228" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ228" t="n">
         <v>23</v>
@@ -32421,22 +32431,22 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H229" t="n">
         <v>3.6</v>
       </c>
       <c r="I229" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K229" t="n">
         <v>2.25</v>
       </c>
       <c r="L229" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M229" t="n">
         <v>1.04</v>
@@ -32451,18 +32461,18 @@
         <v>4</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R229" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S229" t="inlineStr"/>
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V229" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W229" t="n">
         <v>1.33</v>
@@ -32501,7 +32511,7 @@
         <v>7</v>
       </c>
       <c r="AI229" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ229" t="n">
         <v>41</v>
@@ -32510,7 +32520,7 @@
         <v>151</v>
       </c>
       <c r="AL229" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM229" t="n">
         <v>17</v>
@@ -32562,13 +32572,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H230" t="n">
         <v>4.2</v>
       </c>
       <c r="I230" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J230" t="n">
         <v>2.2</v>
@@ -32577,13 +32587,13 @@
         <v>2.3</v>
       </c>
       <c r="L230" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M230" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N230" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O230" t="n">
         <v>1.22</v>
@@ -32592,10 +32602,10 @@
         <v>4</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R230" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr"/>
@@ -32648,16 +32658,16 @@
         <v>51</v>
       </c>
       <c r="AK230" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL230" t="n">
         <v>15</v>
       </c>
       <c r="AM230" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN230" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO230" t="n">
         <v>51</v>
@@ -32703,28 +32713,28 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H231" t="n">
         <v>4.1</v>
       </c>
       <c r="I231" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J231" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K231" t="n">
         <v>2.4</v>
       </c>
       <c r="L231" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M231" t="n">
         <v>1.03</v>
       </c>
       <c r="N231" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O231" t="n">
         <v>1.18</v>
@@ -32763,10 +32773,10 @@
         <v>2.2</v>
       </c>
       <c r="AA231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB231" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AB231" t="n">
-        <v>10</v>
       </c>
       <c r="AC231" t="n">
         <v>8.5</v>
@@ -32787,7 +32797,7 @@
         <v>8</v>
       </c>
       <c r="AI231" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ231" t="n">
         <v>41</v>
@@ -32811,7 +32821,7 @@
         <v>29</v>
       </c>
       <c r="AQ231" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR231" t="inlineStr"/>
       <c r="AS231" t="inlineStr"/>
@@ -32848,22 +32858,22 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="H232" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J232" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K232" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L232" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M232" t="n">
         <v>1.04</v>
@@ -32878,10 +32888,10 @@
         <v>3.75</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R232" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S232" t="inlineStr"/>
       <c r="T232" t="inlineStr"/>
@@ -32904,43 +32914,43 @@
         <v>2</v>
       </c>
       <c r="AA232" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB232" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC232" t="n">
         <v>8.5</v>
       </c>
       <c r="AD232" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE232" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF232" t="n">
         <v>23</v>
       </c>
       <c r="AG232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH232" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI232" t="n">
         <v>15</v>
       </c>
       <c r="AJ232" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK232" t="n">
         <v>201</v>
       </c>
       <c r="AL232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM232" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN232" t="n">
         <v>13</v>
@@ -32949,7 +32959,7 @@
         <v>41</v>
       </c>
       <c r="AP232" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ232" t="n">
         <v>34</v>
@@ -32989,28 +32999,28 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H233" t="n">
         <v>3.9</v>
       </c>
       <c r="I233" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J233" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K233" t="n">
         <v>2.25</v>
       </c>
       <c r="L233" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M233" t="n">
         <v>1.04</v>
       </c>
       <c r="N233" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O233" t="n">
         <v>1.25</v>
@@ -33019,7 +33029,7 @@
         <v>3.75</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R233" t="n">
         <v>2</v>
@@ -33039,22 +33049,22 @@
         <v>3</v>
       </c>
       <c r="Y233" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z233" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA233" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB233" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC233" t="n">
         <v>8.5</v>
       </c>
       <c r="AD233" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE233" t="n">
         <v>13</v>
@@ -33072,28 +33082,28 @@
         <v>15</v>
       </c>
       <c r="AJ233" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK233" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL233" t="n">
         <v>13</v>
       </c>
       <c r="AM233" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN233" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO233" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP233" t="n">
         <v>34</v>
       </c>
       <c r="AQ233" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR233" t="inlineStr"/>
       <c r="AS233" t="inlineStr"/>
@@ -33130,13 +33140,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H234" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I234" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J234" t="n">
         <v>1.91</v>
@@ -33154,10 +33164,10 @@
         <v>15</v>
       </c>
       <c r="O234" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P234" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q234" t="n">
         <v>1.6</v>
@@ -33184,10 +33194,10 @@
         <v>3.5</v>
       </c>
       <c r="Y234" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z234" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA234" t="n">
         <v>8.5</v>
@@ -33211,7 +33221,7 @@
         <v>15</v>
       </c>
       <c r="AH234" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI234" t="n">
         <v>17</v>
@@ -33223,7 +33233,7 @@
         <v>201</v>
       </c>
       <c r="AL234" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM234" t="n">
         <v>41</v>
@@ -33235,7 +33245,7 @@
         <v>81</v>
       </c>
       <c r="AP234" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ234" t="n">
         <v>41</v>
@@ -33275,22 +33285,22 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I235" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J235" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="K235" t="n">
         <v>2.18</v>
       </c>
       <c r="L235" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="M235" t="n">
         <v>1.04</v>
@@ -33305,7 +33315,7 @@
         <v>4.05</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R235" t="n">
         <v>2.18</v>
@@ -33313,7 +33323,7 @@
       <c r="S235" t="inlineStr"/>
       <c r="T235" t="inlineStr"/>
       <c r="U235" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V235" t="n">
         <v>1.5</v>
@@ -33331,55 +33341,55 @@
         <v>2.37</v>
       </c>
       <c r="AA235" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AB235" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC235" t="n">
         <v>8</v>
       </c>
       <c r="AD235" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE235" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF235" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG235" t="n">
         <v>8.25</v>
       </c>
       <c r="AH235" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI235" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ235" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK235" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL235" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AM235" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN235" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO235" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP235" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ235" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR235" t="inlineStr"/>
       <c r="AS235" t="inlineStr"/>
@@ -33416,22 +33426,22 @@
         </is>
       </c>
       <c r="G236" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H236" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J236" t="n">
         <v>4.65</v>
       </c>
-      <c r="H236" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J236" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K236" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L236" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M236" t="n">
         <v>1.04</v>
@@ -33440,42 +33450,42 @@
         <v>8.75</v>
       </c>
       <c r="O236" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P236" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q236" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R236" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="V236" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W236" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X236" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Y236" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z236" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AA236" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB236" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC236" t="n">
         <v>15</v>
@@ -33493,7 +33503,7 @@
         <v>8.75</v>
       </c>
       <c r="AH236" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI236" t="n">
         <v>14</v>
@@ -33505,7 +33515,7 @@
         <v>300</v>
       </c>
       <c r="AL236" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM236" t="n">
         <v>8.75</v>
@@ -33514,13 +33524,13 @@
         <v>8</v>
       </c>
       <c r="AO236" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP236" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AQ236" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR236" t="inlineStr"/>
       <c r="AS236" t="inlineStr"/>
@@ -33557,54 +33567,54 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H237" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I237" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J237" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K237" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L237" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M237" t="n">
         <v>1.06</v>
       </c>
       <c r="N237" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O237" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P237" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R237" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V237" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W237" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X237" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Y237" t="n">
         <v>1.72</v>
@@ -33613,7 +33623,7 @@
         <v>2</v>
       </c>
       <c r="AA237" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB237" t="n">
         <v>10</v>
@@ -33622,7 +33632,7 @@
         <v>8.5</v>
       </c>
       <c r="AD237" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE237" t="n">
         <v>16</v>
@@ -33631,10 +33641,10 @@
         <v>26</v>
       </c>
       <c r="AG237" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH237" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI237" t="n">
         <v>14</v>
@@ -33646,7 +33656,7 @@
         <v>450</v>
       </c>
       <c r="AL237" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM237" t="n">
         <v>18</v>
@@ -33658,7 +33668,7 @@
         <v>45</v>
       </c>
       <c r="AP237" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ237" t="n">
         <v>35</v>
@@ -33710,10 +33720,10 @@
         <v>3.25</v>
       </c>
       <c r="K238" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L238" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M238" t="n">
         <v>1.05</v>
@@ -33736,16 +33746,16 @@
       <c r="S238" t="inlineStr"/>
       <c r="T238" t="inlineStr"/>
       <c r="U238" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V238" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W238" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X238" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Y238" t="n">
         <v>1.47</v>
@@ -33760,7 +33770,7 @@
         <v>17</v>
       </c>
       <c r="AC238" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD238" t="n">
         <v>37</v>
@@ -33787,7 +33797,7 @@
         <v>175</v>
       </c>
       <c r="AL238" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM238" t="n">
         <v>17.5</v>
@@ -33839,111 +33849,111 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L239" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J239" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K239" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L239" t="n">
-        <v>3.75</v>
       </c>
       <c r="M239" t="n">
         <v>1.04</v>
       </c>
       <c r="N239" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O239" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P239" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q239" t="n">
         <v>1.65</v>
       </c>
       <c r="R239" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S239" t="inlineStr"/>
       <c r="T239" t="inlineStr"/>
       <c r="U239" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V239" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W239" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X239" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Y239" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z239" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AA239" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB239" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AC239" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD239" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE239" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF239" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG239" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH239" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AI239" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ239" t="n">
         <v>45</v>
       </c>
       <c r="AK239" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL239" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM239" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AN239" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO239" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP239" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ239" t="n">
         <v>27</v>
-      </c>
-      <c r="AQ239" t="n">
-        <v>29</v>
       </c>
       <c r="AR239" t="inlineStr"/>
       <c r="AS239" t="inlineStr"/>
@@ -34387,22 +34397,22 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="H243" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I243" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="J243" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="K243" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L243" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
@@ -34424,70 +34434,70 @@
         <v>3.2</v>
       </c>
       <c r="V243" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W243" t="n">
         <v>1.44</v>
       </c>
       <c r="X243" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Y243" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Z243" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA243" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB243" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC243" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD243" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE243" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF243" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG243" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH243" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AI243" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AJ243" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK243" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL243" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AM243" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AN243" t="n">
         <v>8.25</v>
       </c>
       <c r="AO243" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP243" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ243" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR243" t="inlineStr"/>
       <c r="AS243" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -1411,22 +1411,22 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1435,33 +1435,33 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1479,7 +1479,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
@@ -1488,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
@@ -1512,10 +1512,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -1840,58 +1840,58 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y10" t="n">
         <v>1.75</v>
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
         <v>8</v>
@@ -1909,19 +1909,19 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>17</v>
@@ -1933,7 +1933,7 @@
         <v>201</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
@@ -3291,7 +3291,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
@@ -3300,16 +3300,16 @@
         <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -3345,7 +3345,7 @@
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3596,10 +3596,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>1.18</v>
@@ -3623,7 +3623,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H26" t="n">
         <v>7</v>
@@ -4131,13 +4131,13 @@
         <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="K26" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -4160,10 +4160,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
         <v>1.2</v>
@@ -4172,31 +4172,31 @@
         <v>4.33</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>13</v>
@@ -4263,22 +4263,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.14</v>
@@ -4293,10 +4293,10 @@
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
         <v>6</v>
@@ -4311,10 +4311,10 @@
         <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y27" t="n">
         <v>2.5</v>
@@ -4323,16 +4323,16 @@
         <v>1.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>13</v>
       </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>34</v>
@@ -4359,16 +4359,16 @@
         <v>5.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -4424,7 +4424,7 @@
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -4436,10 +4436,10 @@
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
         <v>2.5</v>
@@ -4523,10 +4523,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="29">
@@ -4564,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I29" t="n">
         <v>2.75</v>
@@ -4573,7 +4573,7 @@
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
@@ -4660,7 +4660,7 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -4713,25 +4713,25 @@
         <v>2.45</v>
       </c>
       <c r="H30" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="L30" t="n">
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4809,13 +4809,13 @@
         <v>15</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
       </c>
       <c r="AP30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ30" t="n">
         <v>51</v>
@@ -4859,48 +4859,48 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W31" t="n">
         <v>1.67</v>
@@ -4921,10 +4921,10 @@
         <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
         <v>34</v>
@@ -5000,40 +5000,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.7</v>
       </c>
-      <c r="I32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -5059,7 +5059,7 @@
         <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -5077,7 +5077,7 @@
         <v>5.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI32" t="n">
         <v>21</v>
@@ -5089,13 +5089,13 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO32" t="n">
         <v>51</v>
@@ -5107,10 +5107,10 @@
         <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="33">
@@ -5157,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L33" t="n">
         <v>3.6</v>
@@ -5299,10 +5299,10 @@
         <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L34" t="n">
         <v>5.5</v>
@@ -5443,7 +5443,7 @@
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
@@ -5572,22 +5572,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.18</v>
@@ -5622,25 +5622,25 @@
         <v>1.98</v>
       </c>
       <c r="Y36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="n">
         <v>12</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF36" t="n">
         <v>51</v>
@@ -5661,10 +5661,10 @@
         <v>101</v>
       </c>
       <c r="AL36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN36" t="n">
         <v>19</v>
@@ -5676,7 +5676,7 @@
         <v>51</v>
       </c>
       <c r="AQ36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -6144,19 +6144,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L40" t="n">
         <v>3.05</v>
@@ -6165,33 +6165,33 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W40" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X40" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Y40" t="n">
         <v>1.57</v>
@@ -6200,28 +6200,28 @@
         <v>2.25</v>
       </c>
       <c r="AA40" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC40" t="n">
         <v>9.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
         <v>25</v>
       </c>
       <c r="AG40" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH40" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI40" t="n">
         <v>12</v>
@@ -6233,16 +6233,16 @@
         <v>300</v>
       </c>
       <c r="AL40" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN40" t="n">
         <v>9.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP40" t="n">
         <v>19</v>
@@ -6708,19 +6708,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
         <v>2.38</v>
@@ -6732,16 +6732,16 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6752,16 +6752,16 @@
         <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA44" t="n">
         <v>13</v>
@@ -6776,7 +6776,7 @@
         <v>51</v>
       </c>
       <c r="AE44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="n">
         <v>41</v>
@@ -6794,7 +6794,7 @@
         <v>51</v>
       </c>
       <c r="AK44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL44" t="n">
         <v>7.5</v>
@@ -6806,13 +6806,13 @@
         <v>8.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP44" t="n">
         <v>13</v>
       </c>
       <c r="AQ44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6993,37 +6993,37 @@
         <v>2.5</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
         <v>2.88</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7064,7 +7064,7 @@
         <v>29</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH46" t="n">
         <v>6</v>
@@ -7094,7 +7094,7 @@
         <v>23</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7131,22 +7131,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I47" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K47" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -7155,10 +7155,10 @@
         <v>19</v>
       </c>
       <c r="O47" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="n">
         <v>1.48</v>
@@ -7185,28 +7185,28 @@
         <v>3.75</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA47" t="n">
         <v>10</v>
       </c>
       <c r="AB47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC47" t="n">
         <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE47" t="n">
         <v>11</v>
       </c>
       <c r="AF47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG47" t="n">
         <v>19</v>
@@ -7221,25 +7221,25 @@
         <v>41</v>
       </c>
       <c r="AK47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL47" t="n">
         <v>21</v>
       </c>
       <c r="AM47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP47" t="n">
         <v>41</v>
       </c>
       <c r="AQ47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7699,88 +7699,88 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
         <v>3.4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="T51" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V51" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="W51" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG51" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>12</v>
-      </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
         <v>13</v>
@@ -7789,19 +7789,19 @@
         <v>41</v>
       </c>
       <c r="AK51" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN51" t="n">
         <v>10</v>
       </c>
-      <c r="AM51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>11</v>
-      </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP51" t="n">
         <v>21</v>
@@ -7810,10 +7810,10 @@
         <v>29</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="52">
@@ -7851,7 +7851,7 @@
         <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
@@ -7884,10 +7884,10 @@
         <v>1.88</v>
       </c>
       <c r="S52" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="T52" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U52" t="n">
         <v>3.4</v>
@@ -7920,7 +7920,7 @@
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
         <v>29</v>
@@ -7929,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
@@ -7938,7 +7938,7 @@
         <v>51</v>
       </c>
       <c r="AK52" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -7959,10 +7959,10 @@
         <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="53">
@@ -8164,10 +8164,10 @@
         <v>6.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
@@ -8176,16 +8176,16 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T54" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U54" t="n">
         <v>3.5</v>
@@ -8257,10 +8257,10 @@
         <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="55">
@@ -8295,28 +8295,28 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.5</v>
@@ -8325,28 +8325,28 @@
         <v>2.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T55" t="n">
         <v>1.22</v>
       </c>
       <c r="U55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y55" t="n">
         <v>2.25</v>
@@ -8373,10 +8373,10 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI55" t="n">
         <v>21</v>
@@ -8388,10 +8388,10 @@
         <v>101</v>
       </c>
       <c r="AL55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN55" t="n">
         <v>17</v>
@@ -8406,10 +8406,10 @@
         <v>51</v>
       </c>
       <c r="AR55" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="56">
@@ -8480,10 +8480,10 @@
         <v>1.57</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T56" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U56" t="n">
         <v>4.5</v>
@@ -8555,10 +8555,10 @@
         <v>67</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="57">
@@ -8623,10 +8623,10 @@
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="n">
         <v>3.5</v>
@@ -8635,10 +8635,10 @@
         <v>1.29</v>
       </c>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -10333,10 +10333,10 @@
         <v>2.3</v>
       </c>
       <c r="S69" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U69" t="n">
         <v>2.5</v>
@@ -10345,7 +10345,7 @@
         <v>1.5</v>
       </c>
       <c r="W69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X69" t="n">
         <v>3.5</v>
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -10472,10 +10472,10 @@
         <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R70" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10486,10 +10486,10 @@
         <v>1.25</v>
       </c>
       <c r="W70" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X70" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y70" t="n">
         <v>1.83</v>
@@ -10498,19 +10498,19 @@
         <v>1.83</v>
       </c>
       <c r="AA70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE70" t="n">
         <v>23</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>21</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
@@ -10531,19 +10531,19 @@
         <v>301</v>
       </c>
       <c r="AL70" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO70" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ70" t="n">
         <v>34</v>
@@ -10583,22 +10583,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="J71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
       </c>
       <c r="L71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -10627,10 +10627,10 @@
         <v>1.25</v>
       </c>
       <c r="W71" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X71" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y71" t="n">
         <v>1.83</v>
@@ -10639,22 +10639,22 @@
         <v>1.83</v>
       </c>
       <c r="AA71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG71" t="n">
         <v>8.5</v>
@@ -10672,22 +10672,22 @@
         <v>251</v>
       </c>
       <c r="AL71" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -14396,19 +14396,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H98" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L98" t="n">
         <v>6.5</v>
@@ -14426,7 +14426,7 @@
         <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R98" t="n">
         <v>2</v>
@@ -14461,7 +14461,7 @@
         <v>8.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE98" t="n">
         <v>12</v>
@@ -14470,10 +14470,10 @@
         <v>26</v>
       </c>
       <c r="AG98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH98" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI98" t="n">
         <v>19</v>
@@ -14494,7 +14494,7 @@
         <v>21</v>
       </c>
       <c r="AO98" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP98" t="n">
         <v>51</v>
@@ -14971,7 +14971,7 @@
         <v>1.7</v>
       </c>
       <c r="H102" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
         <v>4.33</v>
@@ -14980,7 +14980,7 @@
         <v>2.25</v>
       </c>
       <c r="K102" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L102" t="n">
         <v>4.5</v>
@@ -14998,22 +14998,22 @@
         <v>5</v>
       </c>
       <c r="Q102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V102" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R102" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S102" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T102" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U102" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V102" t="n">
-        <v>1.57</v>
       </c>
       <c r="W102" t="n">
         <v>1.29</v>
@@ -15043,7 +15043,7 @@
         <v>12</v>
       </c>
       <c r="AF102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG102" t="n">
         <v>17</v>
@@ -15076,7 +15076,7 @@
         <v>29</v>
       </c>
       <c r="AQ102" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr"/>
@@ -20491,16 +20491,16 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I141" t="n">
         <v>4.5</v>
       </c>
       <c r="J141" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K141" t="n">
         <v>2.63</v>
@@ -20515,10 +20515,10 @@
         <v>23</v>
       </c>
       <c r="O141" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P141" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q141" t="n">
         <v>1.36</v>
@@ -20533,13 +20533,13 @@
         <v>2.03</v>
       </c>
       <c r="U141" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W141" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="X141" t="n">
         <v>4</v>
@@ -20572,7 +20572,7 @@
         <v>23</v>
       </c>
       <c r="AH141" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI141" t="n">
         <v>13</v>
@@ -20581,7 +20581,7 @@
         <v>34</v>
       </c>
       <c r="AK141" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL141" t="n">
         <v>21</v>
@@ -20599,7 +20599,7 @@
         <v>29</v>
       </c>
       <c r="AQ141" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
@@ -20657,7 +20657,7 @@
         <v>1.03</v>
       </c>
       <c r="N142" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O142" t="n">
         <v>1.18</v>
@@ -20672,10 +20672,10 @@
         <v>2.3</v>
       </c>
       <c r="S142" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T142" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U142" t="n">
         <v>2.5</v>
@@ -20684,7 +20684,7 @@
         <v>1.5</v>
       </c>
       <c r="W142" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X142" t="n">
         <v>3.4</v>
@@ -20825,7 +20825,7 @@
         <v>1.33</v>
       </c>
       <c r="W143" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X143" t="n">
         <v>2.75</v>
@@ -21055,41 +21055,41 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I145" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="J145" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K145" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L145" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P145" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R145" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="V145" t="n">
         <v>1.3</v>
@@ -21107,28 +21107,28 @@
         <v>1.85</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB145" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AC145" t="n">
         <v>7.9</v>
       </c>
       <c r="AD145" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF145" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG145" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI145" t="n">
         <v>14.5</v>
@@ -21137,16 +21137,16 @@
         <v>70</v>
       </c>
       <c r="AK145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL145" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM145" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN145" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO145" t="n">
         <v>90</v>
@@ -21458,28 +21458,28 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H148" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I148" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J148" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L148" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N148" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O148" t="n">
         <v>1.57</v>
@@ -21517,7 +21517,7 @@
         <v>5.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC148" t="n">
         <v>11</v>
@@ -21603,22 +21603,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>2.88</v>
       </c>
       <c r="I149" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J149" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K149" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L149" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M149" t="n">
         <v>1.11</v>
@@ -21627,16 +21627,16 @@
         <v>6.5</v>
       </c>
       <c r="O149" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P149" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R149" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
@@ -21659,19 +21659,19 @@
         <v>1.62</v>
       </c>
       <c r="AA149" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE149" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF149" t="n">
         <v>41</v>
@@ -21695,25 +21695,25 @@
         <v>6</v>
       </c>
       <c r="AM149" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP149" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ149" t="n">
         <v>41</v>
       </c>
       <c r="AR149" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="150">
@@ -21748,28 +21748,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H150" t="n">
         <v>3.1</v>
       </c>
       <c r="I150" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J150" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K150" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O150" t="n">
         <v>1.36</v>
@@ -21792,10 +21792,10 @@
         <v>1.22</v>
       </c>
       <c r="W150" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X150" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y150" t="n">
         <v>1.83</v>
@@ -21804,16 +21804,16 @@
         <v>1.83</v>
       </c>
       <c r="AA150" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD150" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE150" t="n">
         <v>23</v>
@@ -21822,7 +21822,7 @@
         <v>34</v>
       </c>
       <c r="AG150" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH150" t="n">
         <v>6</v>
@@ -21834,22 +21834,22 @@
         <v>51</v>
       </c>
       <c r="AK150" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL150" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO150" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP150" t="n">
         <v>23</v>
-      </c>
-      <c r="AP150" t="n">
-        <v>21</v>
       </c>
       <c r="AQ150" t="n">
         <v>34</v>
@@ -21913,24 +21913,24 @@
         <v>7</v>
       </c>
       <c r="O151" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P151" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R151" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V151" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W151" t="n">
         <v>1.57</v>
@@ -21996,10 +21996,10 @@
         <v>41</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="152">
@@ -22183,22 +22183,22 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H153" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I153" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J153" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K153" t="n">
         <v>2.2</v>
       </c>
       <c r="L153" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M153" t="n">
         <v>1.05</v>
@@ -22213,10 +22213,10 @@
         <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R153" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S153" t="n">
         <v>1.85</v>
@@ -22225,10 +22225,10 @@
         <v>2</v>
       </c>
       <c r="U153" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V153" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W153" t="n">
         <v>1.36</v>
@@ -22237,22 +22237,22 @@
         <v>3</v>
       </c>
       <c r="Y153" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC153" t="n">
         <v>9</v>
       </c>
-      <c r="AB153" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD153" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE153" t="n">
         <v>17</v>
@@ -22267,7 +22267,7 @@
         <v>6.5</v>
       </c>
       <c r="AI153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ153" t="n">
         <v>41</v>
@@ -22279,25 +22279,25 @@
         <v>12</v>
       </c>
       <c r="AM153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO153" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ153" t="n">
         <v>34</v>
       </c>
-      <c r="AP153" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ153" t="n">
-        <v>29</v>
-      </c>
       <c r="AR153" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -22332,52 +22332,52 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I154" t="n">
         <v>3.5</v>
       </c>
-      <c r="I154" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J154" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K154" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L154" t="n">
         <v>4</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N154" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O154" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P154" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R154" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S154" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="T154" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U154" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V154" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W154" t="n">
         <v>1.36</v>
@@ -22386,13 +22386,13 @@
         <v>3</v>
       </c>
       <c r="Y154" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z154" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB154" t="n">
         <v>10</v>
@@ -22401,16 +22401,16 @@
         <v>9</v>
       </c>
       <c r="AD154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF154" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG154" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH154" t="n">
         <v>7</v>
@@ -22422,13 +22422,13 @@
         <v>41</v>
       </c>
       <c r="AK154" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN154" t="n">
         <v>12</v>
@@ -22440,13 +22440,13 @@
         <v>26</v>
       </c>
       <c r="AQ154" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR154" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="155">
@@ -22767,19 +22767,19 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H157" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I157" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J157" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K157" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L157" t="n">
         <v>6</v>
@@ -22848,7 +22848,7 @@
         <v>12</v>
       </c>
       <c r="AH157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI157" t="n">
         <v>17</v>
@@ -22863,7 +22863,7 @@
         <v>17</v>
       </c>
       <c r="AM157" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN157" t="n">
         <v>19</v>
@@ -23777,10 +23777,10 @@
         <v>3.5</v>
       </c>
       <c r="H164" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J164" t="n">
         <v>4</v>
@@ -23789,13 +23789,13 @@
         <v>2.05</v>
       </c>
       <c r="L164" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M164" t="n">
         <v>1.07</v>
       </c>
       <c r="N164" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
         <v>1.33</v>
@@ -23804,10 +23804,10 @@
         <v>3.25</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R164" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
@@ -23824,10 +23824,10 @@
         <v>2.63</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="Z164" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AA164" t="n">
         <v>10</v>
@@ -23848,7 +23848,7 @@
         <v>41</v>
       </c>
       <c r="AG164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH164" t="n">
         <v>6</v>
@@ -23860,16 +23860,16 @@
         <v>51</v>
       </c>
       <c r="AK164" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL164" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM164" t="n">
         <v>10</v>
       </c>
       <c r="AN164" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO164" t="n">
         <v>21</v>
@@ -24795,10 +24795,10 @@
         <v>3.75</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R171" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
@@ -24924,10 +24924,10 @@
         <v>3.25</v>
       </c>
       <c r="M172" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N172" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O172" t="n">
         <v>1.44</v>
@@ -25013,10 +25013,10 @@
         <v>41</v>
       </c>
       <c r="AR172" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="173">
@@ -25051,13 +25051,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>3.3</v>
       </c>
       <c r="I173" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J173" t="n">
         <v>2.75</v>
@@ -25075,10 +25075,10 @@
         <v>7.5</v>
       </c>
       <c r="O173" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P173" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q173" t="n">
         <v>2.1</v>
@@ -25116,7 +25116,7 @@
         <v>9.5</v>
       </c>
       <c r="AD173" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE173" t="n">
         <v>19</v>
@@ -25137,7 +25137,7 @@
         <v>51</v>
       </c>
       <c r="AK173" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL173" t="n">
         <v>9.5</v>
@@ -25149,7 +25149,7 @@
         <v>13</v>
       </c>
       <c r="AO173" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP173" t="n">
         <v>29</v>
@@ -28739,16 +28739,16 @@
         <v>3.3</v>
       </c>
       <c r="I199" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J199" t="n">
         <v>2.63</v>
       </c>
       <c r="K199" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L199" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M199" t="n">
         <v>1.07</v>
@@ -28757,16 +28757,16 @@
         <v>9</v>
       </c>
       <c r="O199" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P199" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R199" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
@@ -28783,13 +28783,13 @@
         <v>2.63</v>
       </c>
       <c r="Y199" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z199" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA199" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB199" t="n">
         <v>9</v>
@@ -28828,7 +28828,7 @@
         <v>19</v>
       </c>
       <c r="AN199" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO199" t="n">
         <v>41</v>
@@ -29164,22 +29164,22 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H202" t="n">
         <v>3.6</v>
       </c>
       <c r="I202" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J202" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K202" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L202" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M202" t="n">
         <v>1.04</v>
@@ -29194,10 +29194,10 @@
         <v>4</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R202" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
@@ -29223,13 +29223,13 @@
         <v>8.5</v>
       </c>
       <c r="AB202" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC202" t="n">
         <v>8.5</v>
       </c>
       <c r="AD202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE202" t="n">
         <v>15</v>
@@ -31437,7 +31437,7 @@
         <v>8.5</v>
       </c>
       <c r="J222" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K222" t="n">
         <v>2.6</v>
@@ -31464,10 +31464,10 @@
         <v>2.35</v>
       </c>
       <c r="S222" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T222" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U222" t="n">
         <v>2.38</v>
@@ -31603,10 +31603,10 @@
         <v>4</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R223" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="inlineStr"/>
@@ -31623,10 +31623,10 @@
         <v>3.25</v>
       </c>
       <c r="Y223" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z223" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA223" t="n">
         <v>8</v>
@@ -31714,13 +31714,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H224" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I224" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J224" t="n">
         <v>2.75</v>
@@ -31773,7 +31773,7 @@
         <v>6.5</v>
       </c>
       <c r="AB224" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC224" t="n">
         <v>9</v>
@@ -32000,16 +32000,16 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H226" t="n">
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J226" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K226" t="n">
         <v>2.38</v>
@@ -32024,28 +32024,28 @@
         <v>17</v>
       </c>
       <c r="O226" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P226" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R226" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S226" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T226" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U226" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V226" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W226" t="n">
         <v>1.3</v>
@@ -32108,7 +32108,7 @@
         <v>26</v>
       </c>
       <c r="AQ226" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR226" t="inlineStr"/>
       <c r="AS226" t="inlineStr"/>
@@ -32145,16 +32145,16 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H227" t="n">
         <v>3.8</v>
       </c>
       <c r="I227" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J227" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K227" t="n">
         <v>2.25</v>
@@ -32163,22 +32163,22 @@
         <v>5</v>
       </c>
       <c r="M227" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N227" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O227" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P227" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R227" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S227" t="n">
         <v>1.85</v>
@@ -32187,10 +32187,10 @@
         <v>2</v>
       </c>
       <c r="U227" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V227" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W227" t="n">
         <v>1.36</v>
@@ -32208,7 +32208,7 @@
         <v>7.5</v>
       </c>
       <c r="AB227" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC227" t="n">
         <v>8.5</v>
@@ -32220,7 +32220,7 @@
         <v>13</v>
       </c>
       <c r="AF227" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG227" t="n">
         <v>11</v>
@@ -32235,7 +32235,7 @@
         <v>51</v>
       </c>
       <c r="AK227" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL227" t="n">
         <v>15</v>
@@ -32244,7 +32244,7 @@
         <v>26</v>
       </c>
       <c r="AN227" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO227" t="n">
         <v>51</v>
@@ -32431,22 +32431,22 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H229" t="n">
         <v>3.6</v>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J229" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K229" t="n">
         <v>2.25</v>
       </c>
       <c r="L229" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M229" t="n">
         <v>1.04</v>
@@ -32520,7 +32520,7 @@
         <v>151</v>
       </c>
       <c r="AL229" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM229" t="n">
         <v>17</v>
@@ -32572,16 +32572,16 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H230" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I230" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J230" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K230" t="n">
         <v>2.3</v>
@@ -32622,22 +32622,22 @@
         <v>3.25</v>
       </c>
       <c r="Y230" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z230" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA230" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB230" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC230" t="n">
         <v>8.5</v>
       </c>
       <c r="AD230" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE230" t="n">
         <v>13</v>
@@ -32649,10 +32649,10 @@
         <v>13</v>
       </c>
       <c r="AH230" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI230" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ230" t="n">
         <v>51</v>
@@ -32673,7 +32673,7 @@
         <v>51</v>
       </c>
       <c r="AP230" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ230" t="n">
         <v>41</v>
@@ -32713,13 +32713,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H231" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I231" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J231" t="n">
         <v>2.25</v>
@@ -32749,10 +32749,10 @@
         <v>2.3</v>
       </c>
       <c r="S231" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T231" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U231" t="n">
         <v>2.5</v>
@@ -32773,7 +32773,7 @@
         <v>2.2</v>
       </c>
       <c r="AA231" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB231" t="n">
         <v>9.5</v>
@@ -32782,10 +32782,10 @@
         <v>8.5</v>
       </c>
       <c r="AD231" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE231" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF231" t="n">
         <v>21</v>
@@ -32797,7 +32797,7 @@
         <v>8</v>
       </c>
       <c r="AI231" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ231" t="n">
         <v>41</v>
@@ -32809,16 +32809,16 @@
         <v>15</v>
       </c>
       <c r="AM231" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN231" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO231" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP231" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ231" t="n">
         <v>34</v>
@@ -32999,22 +32999,22 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H233" t="n">
         <v>3.9</v>
       </c>
       <c r="I233" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J233" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K233" t="n">
         <v>2.25</v>
       </c>
       <c r="L233" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M233" t="n">
         <v>1.04</v>
@@ -33064,7 +33064,7 @@
         <v>8.5</v>
       </c>
       <c r="AD233" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE233" t="n">
         <v>13</v>
@@ -33140,13 +33140,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>4.75</v>
       </c>
       <c r="I234" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J234" t="n">
         <v>1.91</v>
@@ -33161,7 +33161,7 @@
         <v>1.03</v>
       </c>
       <c r="N234" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O234" t="n">
         <v>1.18</v>
@@ -33200,7 +33200,7 @@
         <v>1.95</v>
       </c>
       <c r="AA234" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB234" t="n">
         <v>7.5</v>
@@ -33209,7 +33209,7 @@
         <v>8.5</v>
       </c>
       <c r="AD234" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE234" t="n">
         <v>11</v>
@@ -33233,7 +33233,7 @@
         <v>201</v>
       </c>
       <c r="AL234" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM234" t="n">
         <v>41</v>
@@ -33245,7 +33245,7 @@
         <v>81</v>
       </c>
       <c r="AP234" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ234" t="n">
         <v>41</v>
@@ -33285,60 +33285,60 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H235" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I235" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J235" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K235" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L235" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M235" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N235" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O235" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P235" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R235" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="S235" t="inlineStr"/>
       <c r="T235" t="inlineStr"/>
       <c r="U235" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="V235" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W235" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X235" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Y235" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z235" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AA235" t="n">
         <v>9</v>
@@ -33356,28 +33356,28 @@
         <v>14</v>
       </c>
       <c r="AF235" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG235" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH235" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI235" t="n">
         <v>11</v>
       </c>
       <c r="AJ235" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK235" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL235" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AM235" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN235" t="n">
         <v>12.5</v>
@@ -33386,10 +33386,10 @@
         <v>65</v>
       </c>
       <c r="AP235" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ235" t="n">
         <v>30</v>
-      </c>
-      <c r="AQ235" t="n">
-        <v>28</v>
       </c>
       <c r="AR235" t="inlineStr"/>
       <c r="AS235" t="inlineStr"/>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="H236" t="n">
         <v>3.85</v>
@@ -33438,99 +33438,99 @@
         <v>4.65</v>
       </c>
       <c r="K236" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L236" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="M236" t="n">
         <v>1.04</v>
       </c>
       <c r="N236" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O236" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P236" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="Q236" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R236" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="V236" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W236" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X236" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Y236" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z236" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="AA236" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB236" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC236" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD236" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE236" t="n">
         <v>40</v>
       </c>
       <c r="AF236" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG236" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH236" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI236" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ236" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK236" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AL236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM236" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AM236" t="n">
-        <v>8.75</v>
       </c>
       <c r="AN236" t="n">
         <v>8</v>
       </c>
       <c r="AO236" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP236" t="n">
         <v>12</v>
       </c>
       <c r="AQ236" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR236" t="inlineStr"/>
       <c r="AS236" t="inlineStr"/>
@@ -33570,10 +33570,10 @@
         <v>2.02</v>
       </c>
       <c r="H237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I237" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3.3</v>
       </c>
       <c r="J237" t="n">
         <v>2.65</v>
@@ -33582,78 +33582,78 @@
         <v>2.12</v>
       </c>
       <c r="L237" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M237" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N237" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="O237" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P237" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R237" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="V237" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W237" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X237" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="Y237" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Z237" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AA237" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB237" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC237" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD237" t="n">
         <v>18.5</v>
       </c>
       <c r="AE237" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF237" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG237" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AH237" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI237" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ237" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK237" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL237" t="n">
         <v>10.25</v>
@@ -33668,10 +33668,10 @@
         <v>45</v>
       </c>
       <c r="AP237" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ237" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR237" t="inlineStr"/>
       <c r="AS237" t="inlineStr"/>
@@ -33849,84 +33849,84 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H239" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I239" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J239" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="K239" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L239" t="n">
         <v>3.5</v>
       </c>
       <c r="M239" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N239" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="O239" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P239" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R239" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S239" t="inlineStr"/>
       <c r="T239" t="inlineStr"/>
       <c r="U239" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="V239" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W239" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X239" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Y239" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Z239" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA239" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB239" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC239" t="n">
         <v>8.75</v>
       </c>
       <c r="AD239" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE239" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF239" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG239" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AH239" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI239" t="n">
         <v>12</v>
@@ -33935,25 +33935,25 @@
         <v>45</v>
       </c>
       <c r="AK239" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL239" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM239" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN239" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO239" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP239" t="n">
         <v>24</v>
       </c>
       <c r="AQ239" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR239" t="inlineStr"/>
       <c r="AS239" t="inlineStr"/>
@@ -33990,84 +33990,84 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I240" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J240" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K240" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L240" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="M240" t="n">
         <v>1.05</v>
       </c>
       <c r="N240" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O240" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P240" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Q240" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R240" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S240" t="inlineStr"/>
       <c r="T240" t="inlineStr"/>
       <c r="U240" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="V240" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W240" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X240" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z240" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA240" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB240" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC240" t="n">
         <v>8.25</v>
       </c>
       <c r="AD240" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE240" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF240" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG240" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AH240" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI240" t="n">
         <v>13.5</v>
@@ -34076,25 +34076,25 @@
         <v>55</v>
       </c>
       <c r="AK240" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL240" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM240" t="n">
         <v>21</v>
       </c>
       <c r="AN240" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO240" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP240" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ240" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR240" t="inlineStr"/>
       <c r="AS240" t="inlineStr"/>
@@ -34137,10 +34137,10 @@
         <v>3.3</v>
       </c>
       <c r="I241" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="J241" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K241" t="n">
         <v>2.16</v>
@@ -34173,7 +34173,7 @@
       <c r="W241" t="inlineStr"/>
       <c r="X241" t="inlineStr"/>
       <c r="Y241" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Z241" t="n">
         <v>2.1</v>
@@ -34534,22 +34534,22 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H244" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="I244" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J244" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="K244" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="L244" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
@@ -34568,73 +34568,73 @@
       <c r="S244" t="inlineStr"/>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="V244" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W244" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="X244" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Y244" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Z244" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AA244" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB244" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AC244" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD244" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE244" t="n">
         <v>15.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG244" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AH244" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI244" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ244" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO244" t="n">
         <v>90</v>
       </c>
-      <c r="AK244" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL244" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM244" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN244" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO244" t="n">
-        <v>120</v>
-      </c>
       <c r="AP244" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ244" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR244" t="inlineStr"/>
       <c r="AS244" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -4412,19 +4412,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -4472,7 +4472,7 @@
         <v>1.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB28" t="n">
         <v>10</v>
@@ -4481,16 +4481,16 @@
         <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -4505,28 +4505,28 @@
         <v>501</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>34</v>
       </c>
       <c r="AP28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="29">
@@ -4561,19 +4561,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
@@ -4585,34 +4585,34 @@
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="Y29" t="n">
         <v>2.5</v>
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>13</v>
@@ -4639,7 +4639,7 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -4666,16 +4666,16 @@
         <v>29</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="30">
@@ -4710,28 +4710,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>1.83</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4758,7 +4758,7 @@
         <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X30" t="n">
         <v>2.1</v>
@@ -4773,13 +4773,13 @@
         <v>5.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
         <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -4788,10 +4788,10 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
@@ -4803,10 +4803,10 @@
         <v>301</v>
       </c>
       <c r="AL30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
         <v>15</v>
@@ -5290,22 +5290,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5320,10 +5320,10 @@
         <v>2.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5334,10 +5334,10 @@
         <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34" t="n">
         <v>2.5</v>
@@ -5349,13 +5349,13 @@
         <v>5</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC34" t="n">
         <v>10</v>
       </c>
       <c r="AD34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
@@ -5364,7 +5364,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5379,10 +5379,10 @@
         <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN34" t="n">
         <v>17</v>
@@ -5391,7 +5391,7 @@
         <v>51</v>
       </c>
       <c r="AP34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ34" t="n">
         <v>51</v>
@@ -5431,16 +5431,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>1.73</v>
@@ -5514,7 +5514,7 @@
         <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
@@ -5602,10 +5602,10 @@
         <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5616,10 +5616,10 @@
         <v>1.07</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y36" t="n">
         <v>2.75</v>
@@ -7848,22 +7848,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7878,22 +7878,22 @@
         <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S52" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="T52" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W52" t="n">
         <v>1.4</v>
@@ -7902,13 +7902,13 @@
         <v>2.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
         <v>7.5</v>
@@ -7917,19 +7917,19 @@
         <v>8.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
         <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
@@ -7944,10 +7944,10 @@
         <v>13</v>
       </c>
       <c r="AM52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO52" t="n">
         <v>51</v>
@@ -7959,10 +7959,10 @@
         <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="53">
@@ -7997,22 +7997,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="J53" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K53" t="n">
         <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -8021,10 +8021,10 @@
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>1.7</v>
@@ -8036,7 +8036,7 @@
         <v>2.18</v>
       </c>
       <c r="T53" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U53" t="n">
         <v>2.63</v>
@@ -8045,43 +8045,43 @@
         <v>1.44</v>
       </c>
       <c r="W53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB53" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD53" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF53" t="n">
         <v>23</v>
       </c>
-      <c r="AF53" t="n">
-        <v>29</v>
-      </c>
       <c r="AG53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI53" t="n">
         <v>12</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>13</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -8090,22 +8090,22 @@
         <v>151</v>
       </c>
       <c r="AL53" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP53" t="n">
         <v>21</v>
       </c>
-      <c r="AP53" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR53" t="n">
         <v>1.33</v>
@@ -8447,7 +8447,7 @@
         <v>1.55</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I56" t="n">
         <v>6</v>
@@ -8462,34 +8462,34 @@
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S56" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V56" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W56" t="n">
         <v>1.53</v>
@@ -8498,10 +8498,10 @@
         <v>2.38</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA56" t="n">
         <v>5</v>
@@ -8510,25 +8510,25 @@
         <v>6</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
         <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH56" t="n">
         <v>8</v>
       </c>
       <c r="AI56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ56" t="n">
         <v>101</v>
@@ -8537,13 +8537,13 @@
         <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM56" t="n">
         <v>29</v>
       </c>
       <c r="AN56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO56" t="n">
         <v>67</v>
@@ -8552,7 +8552,7 @@
         <v>51</v>
       </c>
       <c r="AQ56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR56" t="n">
         <v>1.78</v>
@@ -8593,19 +8593,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
         <v>2.75</v>
@@ -8623,10 +8623,10 @@
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="n">
         <v>3.5</v>
@@ -8635,10 +8635,10 @@
         <v>1.29</v>
       </c>
       <c r="U57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -8647,10 +8647,10 @@
         <v>2.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA57" t="n">
         <v>9.5</v>
@@ -8659,7 +8659,7 @@
         <v>19</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
         <v>41</v>
@@ -8671,7 +8671,7 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH57" t="n">
         <v>6</v>
@@ -8689,7 +8689,7 @@
         <v>6.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN57" t="n">
         <v>9</v>
@@ -10442,28 +10442,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K70" t="n">
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.36</v>
@@ -10498,7 +10498,7 @@
         <v>1.83</v>
       </c>
       <c r="AA70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB70" t="n">
         <v>13</v>
@@ -10534,7 +10534,7 @@
         <v>7.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN70" t="n">
         <v>10</v>
@@ -10583,22 +10583,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K71" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -10642,7 +10642,7 @@
         <v>7.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC71" t="n">
         <v>9.5</v>
@@ -10675,7 +10675,7 @@
         <v>9.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN71" t="n">
         <v>12</v>
@@ -10684,7 +10684,7 @@
         <v>34</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ71" t="n">
         <v>41</v>
@@ -20491,22 +20491,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H141" t="n">
         <v>4.75</v>
       </c>
       <c r="I141" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J141" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K141" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L141" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M141" t="n">
         <v>1.01</v>
@@ -20539,16 +20539,16 @@
         <v>1.83</v>
       </c>
       <c r="W141" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X141" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y141" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA141" t="n">
         <v>13</v>
@@ -20560,7 +20560,7 @@
         <v>9</v>
       </c>
       <c r="AD141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE141" t="n">
         <v>11</v>
@@ -20569,7 +20569,7 @@
         <v>17</v>
       </c>
       <c r="AG141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH141" t="n">
         <v>10</v>
@@ -20581,22 +20581,22 @@
         <v>34</v>
       </c>
       <c r="AK141" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO141" t="n">
         <v>51</v>
       </c>
       <c r="AP141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ141" t="n">
         <v>29</v>
@@ -20636,22 +20636,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="I142" t="n">
+        <v>10</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L142" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L142" t="n">
-        <v>7.5</v>
       </c>
       <c r="M142" t="n">
         <v>1.03</v>
@@ -20660,52 +20660,52 @@
         <v>17</v>
       </c>
       <c r="O142" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P142" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R142" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y142" t="n">
         <v>2</v>
       </c>
-      <c r="T142" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U142" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V142" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W142" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X142" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y142" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Z142" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB142" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC142" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE142" t="n">
         <v>11</v>
@@ -20717,31 +20717,31 @@
         <v>15</v>
       </c>
       <c r="AH142" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI142" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ142" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM142" t="n">
         <v>51</v>
       </c>
-      <c r="AK142" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL142" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM142" t="n">
-        <v>41</v>
-      </c>
       <c r="AN142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO142" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AP142" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ142" t="n">
         <v>51</v>
@@ -20790,7 +20790,7 @@
         <v>4.1</v>
       </c>
       <c r="J143" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K143" t="n">
         <v>2.2</v>
@@ -20811,21 +20811,21 @@
         <v>3.75</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R143" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V143" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W143" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X143" t="n">
         <v>2.75</v>
@@ -20840,7 +20840,7 @@
         <v>7.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC143" t="n">
         <v>8.5</v>
@@ -20855,7 +20855,7 @@
         <v>26</v>
       </c>
       <c r="AG143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH143" t="n">
         <v>6.5</v>
@@ -21055,83 +21055,83 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H145" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I145" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="J145" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="K145" t="n">
         <v>2.1</v>
       </c>
       <c r="L145" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P145" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R145" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="V145" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W145" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X145" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y145" t="n">
         <v>1.75</v>
       </c>
       <c r="Z145" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB145" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AC145" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD145" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF145" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG145" t="n">
         <v>9.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI145" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ145" t="n">
         <v>70</v>
@@ -21140,22 +21140,22 @@
         <v>500</v>
       </c>
       <c r="AL145" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM145" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN145" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AO145" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AP145" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ145" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
@@ -21192,22 +21192,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I146" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="J146" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="K146" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L146" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -21234,25 +21234,25 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z146" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA146" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB146" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AC146" t="n">
         <v>8</v>
       </c>
       <c r="AD146" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE146" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF146" t="n">
         <v>24</v>
@@ -21261,34 +21261,34 @@
         <v>11.25</v>
       </c>
       <c r="AH146" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI146" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ146" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK146" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL146" t="n">
         <v>13.5</v>
       </c>
       <c r="AM146" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN146" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO146" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP146" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AQ146" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR146" t="inlineStr"/>
       <c r="AS146" t="inlineStr"/>
@@ -21325,22 +21325,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="I147" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="K147" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L147" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -21348,13 +21348,13 @@
         <v>1.21</v>
       </c>
       <c r="P147" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R147" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
@@ -21367,58 +21367,58 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AA147" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB147" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB147" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AC147" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD147" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE147" t="n">
         <v>11.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG147" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH147" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AI147" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK147" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL147" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM147" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN147" t="n">
         <v>18</v>
       </c>
       <c r="AO147" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP147" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ147" t="n">
         <v>50</v>
@@ -21458,13 +21458,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>2.63</v>
       </c>
       <c r="I148" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J148" t="n">
         <v>3.1</v>
@@ -21473,7 +21473,7 @@
         <v>1.83</v>
       </c>
       <c r="L148" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M148" t="n">
         <v>1.13</v>
@@ -21520,7 +21520,7 @@
         <v>9</v>
       </c>
       <c r="AC148" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD148" t="n">
         <v>21</v>
@@ -21538,7 +21538,7 @@
         <v>5.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ148" t="n">
         <v>81</v>
@@ -21889,13 +21889,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H151" t="n">
         <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J151" t="n">
         <v>5</v>
@@ -21904,13 +21904,13 @@
         <v>1.95</v>
       </c>
       <c r="L151" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M151" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O151" t="n">
         <v>1.44</v>
@@ -21919,24 +21919,24 @@
         <v>2.63</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R151" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V151" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W151" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X151" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y151" t="n">
         <v>2.2</v>
@@ -21948,13 +21948,13 @@
         <v>9</v>
       </c>
       <c r="AB151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC151" t="n">
         <v>15</v>
       </c>
       <c r="AD151" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE151" t="n">
         <v>41</v>
@@ -21963,7 +21963,7 @@
         <v>51</v>
       </c>
       <c r="AG151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH151" t="n">
         <v>6.5</v>
@@ -21987,7 +21987,7 @@
         <v>9.5</v>
       </c>
       <c r="AO151" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP151" t="n">
         <v>19</v>
@@ -21996,10 +21996,10 @@
         <v>41</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="152">
@@ -22332,22 +22332,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H154" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I154" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J154" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K154" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L154" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M154" t="n">
         <v>1.04</v>
@@ -22362,16 +22362,16 @@
         <v>4</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R154" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S154" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="T154" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="U154" t="n">
         <v>2.75</v>
@@ -22380,10 +22380,10 @@
         <v>1.4</v>
       </c>
       <c r="W154" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X154" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y154" t="n">
         <v>1.67</v>
@@ -22395,16 +22395,16 @@
         <v>8.5</v>
       </c>
       <c r="AB154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC154" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF154" t="n">
         <v>23</v>
@@ -22413,10 +22413,10 @@
         <v>13</v>
       </c>
       <c r="AH154" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ154" t="n">
         <v>41</v>
@@ -22425,28 +22425,28 @@
         <v>151</v>
       </c>
       <c r="AL154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM154" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO154" t="n">
         <v>41</v>
       </c>
       <c r="AP154" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR154" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS154" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="155">
@@ -31437,7 +31437,7 @@
         <v>8.5</v>
       </c>
       <c r="J222" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K222" t="n">
         <v>2.6</v>
@@ -31458,22 +31458,22 @@
         <v>5</v>
       </c>
       <c r="Q222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S222" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V222" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R222" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S222" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T222" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U222" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V222" t="n">
-        <v>1.53</v>
       </c>
       <c r="W222" t="n">
         <v>1.29</v>
@@ -31855,22 +31855,22 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I225" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J225" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K225" t="n">
         <v>2.3</v>
       </c>
       <c r="L225" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M225" t="n">
         <v>1.03</v>
@@ -31909,22 +31909,22 @@
         <v>3.25</v>
       </c>
       <c r="Y225" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z225" t="n">
         <v>2.2</v>
       </c>
       <c r="AA225" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB225" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC225" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD225" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE225" t="n">
         <v>15</v>
@@ -31933,7 +31933,7 @@
         <v>21</v>
       </c>
       <c r="AG225" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH225" t="n">
         <v>7.5</v>
@@ -31951,16 +31951,16 @@
         <v>13</v>
       </c>
       <c r="AM225" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO225" t="n">
         <v>41</v>
       </c>
       <c r="AP225" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ225" t="n">
         <v>29</v>
@@ -32003,16 +32003,16 @@
         <v>1.91</v>
       </c>
       <c r="H226" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I226" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J226" t="n">
         <v>2.5</v>
       </c>
       <c r="K226" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L226" t="n">
         <v>4</v>
@@ -32048,16 +32048,16 @@
         <v>1.53</v>
       </c>
       <c r="W226" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X226" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y226" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Z226" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AA226" t="n">
         <v>10</v>
@@ -32081,13 +32081,13 @@
         <v>17</v>
       </c>
       <c r="AH226" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI226" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ226" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK226" t="n">
         <v>126</v>
@@ -32099,7 +32099,7 @@
         <v>21</v>
       </c>
       <c r="AN226" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO226" t="n">
         <v>41</v>
@@ -32108,7 +32108,7 @@
         <v>26</v>
       </c>
       <c r="AQ226" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR226" t="inlineStr"/>
       <c r="AS226" t="inlineStr"/>
@@ -32145,40 +32145,40 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H227" t="n">
         <v>3.8</v>
       </c>
       <c r="I227" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K227" t="n">
         <v>2.3</v>
       </c>
-      <c r="K227" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L227" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M227" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O227" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P227" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R227" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S227" t="n">
         <v>1.85</v>
@@ -32187,10 +32187,10 @@
         <v>2</v>
       </c>
       <c r="U227" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V227" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W227" t="n">
         <v>1.36</v>
@@ -32199,22 +32199,22 @@
         <v>3</v>
       </c>
       <c r="Y227" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z227" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA227" t="n">
         <v>7.5</v>
       </c>
       <c r="AB227" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC227" t="n">
         <v>8.5</v>
       </c>
       <c r="AD227" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE227" t="n">
         <v>13</v>
@@ -32223,7 +32223,7 @@
         <v>23</v>
       </c>
       <c r="AG227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH227" t="n">
         <v>7</v>
@@ -32241,10 +32241,10 @@
         <v>15</v>
       </c>
       <c r="AM227" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN227" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO227" t="n">
         <v>51</v>
@@ -32314,24 +32314,24 @@
         <v>15</v>
       </c>
       <c r="O228" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P228" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R228" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S228" t="inlineStr"/>
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V228" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W228" t="n">
         <v>1.33</v>
@@ -32340,7 +32340,7 @@
         <v>3.25</v>
       </c>
       <c r="Y228" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z228" t="n">
         <v>2.2</v>
@@ -32431,22 +32431,22 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H229" t="n">
         <v>3.6</v>
       </c>
       <c r="I229" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J229" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K229" t="n">
         <v>2.25</v>
       </c>
       <c r="L229" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M229" t="n">
         <v>1.04</v>
@@ -32455,24 +32455,24 @@
         <v>13</v>
       </c>
       <c r="O229" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P229" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R229" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S229" t="inlineStr"/>
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V229" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W229" t="n">
         <v>1.33</v>
@@ -32481,22 +32481,22 @@
         <v>3.25</v>
       </c>
       <c r="Y229" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Z229" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC229" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB229" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC229" t="n">
-        <v>9</v>
-      </c>
       <c r="AD229" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE229" t="n">
         <v>17</v>
@@ -32511,31 +32511,31 @@
         <v>7</v>
       </c>
       <c r="AI229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ229" t="n">
         <v>41</v>
       </c>
       <c r="AK229" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL229" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM229" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN229" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO229" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP229" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ229" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR229" t="inlineStr"/>
       <c r="AS229" t="inlineStr"/>
@@ -32596,24 +32596,24 @@
         <v>13</v>
       </c>
       <c r="O230" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P230" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R230" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr"/>
       <c r="U230" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V230" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W230" t="n">
         <v>1.33</v>
@@ -32661,10 +32661,10 @@
         <v>201</v>
       </c>
       <c r="AL230" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM230" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN230" t="n">
         <v>15</v>
@@ -32713,22 +32713,22 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H231" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I231" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J231" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K231" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L231" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M231" t="n">
         <v>1.03</v>
@@ -32737,52 +32737,52 @@
         <v>17</v>
       </c>
       <c r="O231" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P231" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R231" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S231" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T231" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U231" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V231" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W231" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X231" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y231" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z231" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA231" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB231" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC231" t="n">
         <v>8.5</v>
       </c>
       <c r="AD231" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE231" t="n">
         <v>12</v>
@@ -32794,10 +32794,10 @@
         <v>17</v>
       </c>
       <c r="AH231" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI231" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ231" t="n">
         <v>41</v>
@@ -32806,10 +32806,10 @@
         <v>151</v>
       </c>
       <c r="AL231" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM231" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN231" t="n">
         <v>15</v>
@@ -32888,10 +32888,10 @@
         <v>3.75</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R232" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S232" t="inlineStr"/>
       <c r="T232" t="inlineStr"/>
@@ -32908,10 +32908,10 @@
         <v>3</v>
       </c>
       <c r="Y232" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z232" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA232" t="n">
         <v>7.5</v>
@@ -32932,7 +32932,7 @@
         <v>23</v>
       </c>
       <c r="AG232" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH232" t="n">
         <v>7.5</v>
@@ -32944,7 +32944,7 @@
         <v>51</v>
       </c>
       <c r="AK232" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL232" t="n">
         <v>13</v>
@@ -32953,16 +32953,16 @@
         <v>23</v>
       </c>
       <c r="AN232" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO232" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP232" t="n">
         <v>34</v>
       </c>
       <c r="AQ232" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR232" t="inlineStr"/>
       <c r="AS232" t="inlineStr"/>
@@ -33017,10 +33017,10 @@
         <v>4.75</v>
       </c>
       <c r="M233" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N233" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O233" t="n">
         <v>1.25</v>
@@ -33029,18 +33029,18 @@
         <v>3.75</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R233" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S233" t="inlineStr"/>
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V233" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W233" t="n">
         <v>1.36</v>
@@ -33140,13 +33140,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H234" t="n">
         <v>4.75</v>
       </c>
       <c r="I234" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J234" t="n">
         <v>1.91</v>
@@ -33161,7 +33161,7 @@
         <v>1.03</v>
       </c>
       <c r="N234" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O234" t="n">
         <v>1.18</v>
@@ -33200,7 +33200,7 @@
         <v>1.95</v>
       </c>
       <c r="AA234" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB234" t="n">
         <v>7.5</v>
@@ -33209,7 +33209,7 @@
         <v>8.5</v>
       </c>
       <c r="AD234" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE234" t="n">
         <v>11</v>
@@ -33233,7 +33233,7 @@
         <v>201</v>
       </c>
       <c r="AL234" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM234" t="n">
         <v>41</v>
@@ -33245,7 +33245,7 @@
         <v>81</v>
       </c>
       <c r="AP234" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ234" t="n">
         <v>41</v>
@@ -33285,22 +33285,22 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H235" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I235" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="J235" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="K235" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L235" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M235" t="n">
         <v>1.05</v>
@@ -33312,7 +33312,7 @@
         <v>1.22</v>
       </c>
       <c r="P235" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q235" t="n">
         <v>1.65</v>
@@ -33323,46 +33323,46 @@
       <c r="S235" t="inlineStr"/>
       <c r="T235" t="inlineStr"/>
       <c r="U235" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V235" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W235" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X235" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Y235" t="n">
         <v>1.53</v>
       </c>
       <c r="Z235" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AA235" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AB235" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AC235" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD235" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE235" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF235" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG235" t="n">
         <v>8</v>
       </c>
       <c r="AH235" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI235" t="n">
         <v>11</v>
@@ -33374,22 +33374,22 @@
         <v>250</v>
       </c>
       <c r="AL235" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AM235" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN235" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO235" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AP235" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AQ235" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR235" t="inlineStr"/>
       <c r="AS235" t="inlineStr"/>
@@ -33426,34 +33426,34 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.45</v>
+        <v>3.9</v>
       </c>
       <c r="H236" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I236" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="J236" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="K236" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L236" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="M236" t="n">
         <v>1.04</v>
       </c>
       <c r="N236" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O236" t="n">
         <v>1.22</v>
       </c>
       <c r="P236" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q236" t="n">
         <v>1.65</v>
@@ -33464,10 +33464,10 @@
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="V236" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W236" t="n">
         <v>1.34</v>
@@ -33476,58 +33476,58 @@
         <v>3</v>
       </c>
       <c r="Y236" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z236" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AA236" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO236" t="n">
         <v>15</v>
       </c>
-      <c r="AB236" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC236" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD236" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE236" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF236" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG236" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH236" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI236" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ236" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK236" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL236" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM236" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AN236" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO236" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AP236" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ236" t="n">
         <v>22</v>
@@ -33567,111 +33567,111 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H237" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I237" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J237" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="K237" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L237" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M237" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N237" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="O237" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P237" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R237" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V237" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W237" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X237" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Y237" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="Z237" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AA237" t="n">
         <v>7.1</v>
       </c>
       <c r="AB237" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC237" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD237" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE237" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF237" t="n">
         <v>28</v>
       </c>
       <c r="AG237" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AH237" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AI237" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ237" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK237" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL237" t="n">
         <v>10.25</v>
       </c>
       <c r="AM237" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN237" t="n">
         <v>11.5</v>
       </c>
       <c r="AO237" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP237" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ237" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR237" t="inlineStr"/>
       <c r="AS237" t="inlineStr"/>
@@ -33708,22 +33708,22 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="H238" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I238" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J238" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K238" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L238" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M238" t="n">
         <v>1.05</v>
@@ -33732,69 +33732,69 @@
         <v>7.6</v>
       </c>
       <c r="O238" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P238" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q238" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R238" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S238" t="inlineStr"/>
       <c r="T238" t="inlineStr"/>
       <c r="U238" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="V238" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W238" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X238" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Y238" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Z238" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="AA238" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AB238" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC238" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD238" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE238" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF238" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG238" t="n">
         <v>7.6</v>
       </c>
       <c r="AH238" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI238" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ238" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AK238" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL238" t="n">
         <v>11</v>
@@ -33803,16 +33803,16 @@
         <v>17.5</v>
       </c>
       <c r="AN238" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO238" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP238" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ238" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR238" t="inlineStr"/>
       <c r="AS238" t="inlineStr"/>
@@ -33849,54 +33849,54 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H239" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I239" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J239" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="K239" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L239" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="M239" t="n">
         <v>1.05</v>
       </c>
       <c r="N239" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O239" t="n">
         <v>1.24</v>
       </c>
       <c r="P239" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R239" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S239" t="inlineStr"/>
       <c r="T239" t="inlineStr"/>
       <c r="U239" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="V239" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W239" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X239" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Y239" t="n">
         <v>1.6</v>
@@ -33905,55 +33905,55 @@
         <v>2.2</v>
       </c>
       <c r="AA239" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC239" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB239" t="n">
+      <c r="AD239" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI239" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC239" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD239" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE239" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF239" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG239" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH239" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI239" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ239" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK239" t="n">
         <v>300</v>
       </c>
       <c r="AL239" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM239" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AN239" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO239" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AP239" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AQ239" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AR239" t="inlineStr"/>
       <c r="AS239" t="inlineStr"/>
@@ -33990,28 +33990,28 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H240" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I240" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J240" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K240" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L240" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M240" t="n">
         <v>1.05</v>
       </c>
       <c r="N240" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O240" t="n">
         <v>1.27</v>
@@ -34034,52 +34034,52 @@
         <v>1.36</v>
       </c>
       <c r="W240" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X240" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z240" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA240" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB240" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC240" t="n">
         <v>8.25</v>
       </c>
       <c r="AD240" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE240" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF240" t="n">
         <v>24</v>
       </c>
       <c r="AG240" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH240" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI240" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ240" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK240" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL240" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM240" t="n">
         <v>21</v>
@@ -34091,7 +34091,7 @@
         <v>55</v>
       </c>
       <c r="AP240" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ240" t="n">
         <v>37</v>
@@ -34131,103 +34131,111 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="H241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J241" t="n">
         <v>3.3</v>
       </c>
-      <c r="I241" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J241" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K241" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="L241" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
+        <v>3.1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N241" t="n">
+        <v>7.2</v>
+      </c>
       <c r="O241" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P241" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q241" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R241" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr"/>
       <c r="U241" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="V241" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
+        <v>1.32</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.67</v>
+      </c>
       <c r="Y241" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Z241" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AA241" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AB241" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC241" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD241" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE241" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF241" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO241" t="n">
         <v>26</v>
       </c>
-      <c r="AG241" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AH241" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AI241" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ241" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK241" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL241" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM241" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AN241" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO241" t="n">
-        <v>19</v>
-      </c>
       <c r="AP241" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AQ241" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR241" t="inlineStr"/>
       <c r="AS241" t="inlineStr"/>
@@ -34264,97 +34272,105 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="H242" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="I242" t="n">
-        <v>5.6</v>
+        <v>4.45</v>
       </c>
       <c r="J242" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="K242" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="L242" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N242" t="n">
+        <v>7.6</v>
+      </c>
       <c r="O242" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P242" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="R242" t="n">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="S242" t="inlineStr"/>
       <c r="T242" t="inlineStr"/>
       <c r="U242" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="V242" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W242" t="inlineStr"/>
-      <c r="X242" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.8</v>
+      </c>
       <c r="Y242" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Z242" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AA242" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AB242" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AC242" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AD242" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AE242" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AF242" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AG242" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AH242" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AI242" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AJ242" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK242" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AL242" t="n">
         <v>13</v>
       </c>
       <c r="AM242" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN242" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO242" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AP242" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-08.xlsx
@@ -4567,7 +4567,7 @@
         <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4576,7 +4576,7 @@
         <v>1.8</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
         <v>1.17</v>
@@ -4609,16 +4609,16 @@
         <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="Y29" t="n">
         <v>2.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
@@ -4728,10 +4728,10 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4758,7 +4758,7 @@
         <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
         <v>2.1</v>
@@ -4767,7 +4767,7 @@
         <v>2.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
@@ -8683,7 +8683,7 @@
         <v>51</v>
       </c>
       <c r="AK57" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
         <v>6.5</v>
@@ -20672,10 +20672,10 @@
         <v>2.35</v>
       </c>
       <c r="S142" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T142" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U142" t="n">
         <v>2.38</v>
@@ -20811,10 +20811,10 @@
         <v>3.75</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R143" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
@@ -21192,44 +21192,44 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H146" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I146" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J146" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="K146" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L146" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P146" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R146" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="V146" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
@@ -21240,7 +21240,7 @@
         <v>1.93</v>
       </c>
       <c r="AA146" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB146" t="n">
         <v>8.25</v>
@@ -21249,22 +21249,22 @@
         <v>8</v>
       </c>
       <c r="AD146" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE146" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG146" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH146" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI146" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ146" t="n">
         <v>65</v>
@@ -21273,16 +21273,16 @@
         <v>450</v>
       </c>
       <c r="AL146" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM146" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN146" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO146" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP146" t="n">
         <v>45</v>
@@ -21328,38 +21328,38 @@
         <v>1.5</v>
       </c>
       <c r="H147" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J147" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K147" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L147" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P147" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="V147" t="n">
         <v>1.42</v>
@@ -21373,16 +21373,16 @@
         <v>1.9</v>
       </c>
       <c r="AA147" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB147" t="n">
         <v>7.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD147" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE147" t="n">
         <v>11.5</v>
@@ -21391,10 +21391,10 @@
         <v>23</v>
       </c>
       <c r="AG147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH147" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI147" t="n">
         <v>15.5</v>
@@ -21406,7 +21406,7 @@
         <v>450</v>
       </c>
       <c r="AL147" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM147" t="n">
         <v>40</v>
@@ -21418,7 +21418,7 @@
         <v>120</v>
       </c>
       <c r="AP147" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ147" t="n">
         <v>50</v>
@@ -32572,28 +32572,28 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H230" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L230" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J230" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K230" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L230" t="n">
-        <v>5</v>
       </c>
       <c r="M230" t="n">
         <v>1.04</v>
       </c>
       <c r="N230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O230" t="n">
         <v>1.25</v>
@@ -32602,10 +32602,10 @@
         <v>3.75</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R230" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr"/>
@@ -32616,19 +32616,19 @@
         <v>1.36</v>
       </c>
       <c r="W230" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X230" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y230" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z230" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA230" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB230" t="n">
         <v>8.5</v>
@@ -32646,7 +32646,7 @@
         <v>23</v>
       </c>
       <c r="AG230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH230" t="n">
         <v>7.5</v>
@@ -32749,10 +32749,10 @@
         <v>2.35</v>
       </c>
       <c r="S231" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T231" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U231" t="n">
         <v>2.38</v>
@@ -32858,22 +32858,22 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H232" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I232" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K232" t="n">
         <v>2.3</v>
       </c>
-      <c r="K232" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L232" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M232" t="n">
         <v>1.04</v>
@@ -32882,30 +32882,30 @@
         <v>13</v>
       </c>
       <c r="O232" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P232" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R232" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S232" t="inlineStr"/>
       <c r="T232" t="inlineStr"/>
       <c r="U232" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V232" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W232" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X232" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y232" t="n">
         <v>1.8</v>
@@ -32917,7 +32917,7 @@
         <v>7.5</v>
       </c>
       <c r="AB232" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC232" t="n">
         <v>8.5</v>
@@ -32932,13 +32932,13 @@
         <v>23</v>
       </c>
       <c r="AG232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH232" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI232" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ232" t="n">
         <v>51</v>
@@ -32950,7 +32950,7 @@
         <v>13</v>
       </c>
       <c r="AM232" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN232" t="n">
         <v>15</v>
@@ -32959,7 +32959,7 @@
         <v>51</v>
       </c>
       <c r="AP232" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ232" t="n">
         <v>41</v>
@@ -33017,10 +33017,10 @@
         <v>4.75</v>
       </c>
       <c r="M233" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N233" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O233" t="n">
         <v>1.25</v>
@@ -33029,18 +33029,18 @@
         <v>3.75</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R233" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S233" t="inlineStr"/>
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V233" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W233" t="n">
         <v>1.36</v>
@@ -33140,52 +33140,52 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="H234" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I234" t="n">
+        <v>8</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L234" t="n">
         <v>7</v>
-      </c>
-      <c r="J234" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K234" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L234" t="n">
-        <v>6.5</v>
       </c>
       <c r="M234" t="n">
         <v>1.03</v>
       </c>
       <c r="N234" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O234" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P234" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q234" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R234" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S234" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T234" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U234" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V234" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W234" t="n">
         <v>1.29</v>
@@ -33203,13 +33203,13 @@
         <v>8.5</v>
       </c>
       <c r="AB234" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC234" t="n">
         <v>8.5</v>
       </c>
       <c r="AD234" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE234" t="n">
         <v>11</v>
@@ -33221,19 +33221,19 @@
         <v>15</v>
       </c>
       <c r="AH234" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI234" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ234" t="n">
         <v>51</v>
       </c>
       <c r="AK234" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL234" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM234" t="n">
         <v>41</v>
@@ -33245,10 +33245,10 @@
         <v>81</v>
       </c>
       <c r="AP234" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ234" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR234" t="inlineStr"/>
       <c r="AS234" t="inlineStr"/>
@@ -33990,19 +33990,19 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H240" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I240" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J240" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="K240" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L240" t="n">
         <v>4.2</v>
@@ -34034,22 +34034,22 @@
         <v>1.36</v>
       </c>
       <c r="W240" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X240" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z240" t="n">
         <v>2.02</v>
       </c>
       <c r="AA240" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB240" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC240" t="n">
         <v>8.25</v>
@@ -34058,7 +34058,7 @@
         <v>16</v>
       </c>
       <c r="AE240" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF240" t="n">
         <v>24</v>
@@ -34067,34 +34067,34 @@
         <v>7.7</v>
       </c>
       <c r="AH240" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI240" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ240" t="n">
         <v>60</v>
       </c>
       <c r="AK240" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL240" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM240" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN240" t="n">
         <v>12.5</v>
       </c>
       <c r="AO240" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP240" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ240" t="n">
         <v>35</v>
-      </c>
-      <c r="AQ240" t="n">
-        <v>37</v>
       </c>
       <c r="AR240" t="inlineStr"/>
       <c r="AS240" t="inlineStr"/>
@@ -34131,31 +34131,31 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H241" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I241" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="J241" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K241" t="n">
         <v>2.07</v>
       </c>
       <c r="L241" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M241" t="n">
         <v>1.06</v>
       </c>
       <c r="N241" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O241" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P241" t="n">
         <v>3.2</v>
@@ -34172,7 +34172,7 @@
         <v>3.15</v>
       </c>
       <c r="V241" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W241" t="n">
         <v>1.42</v>
@@ -34193,7 +34193,7 @@
         <v>14</v>
       </c>
       <c r="AC241" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD241" t="n">
         <v>32</v>
@@ -34202,10 +34202,10 @@
         <v>22</v>
       </c>
       <c r="AF241" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG241" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH241" t="n">
         <v>6.2</v>
@@ -34214,7 +34214,7 @@
         <v>13</v>
       </c>
       <c r="AJ241" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK241" t="n">
         <v>450</v>
@@ -34226,13 +34226,13 @@
         <v>12.5</v>
       </c>
       <c r="AN241" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO241" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP241" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ241" t="n">
         <v>29</v>
@@ -34272,22 +34272,22 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H242" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I242" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="J242" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="K242" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L242" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="M242" t="n">
         <v>1.05</v>
@@ -34302,42 +34302,42 @@
         <v>3.35</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R242" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S242" t="inlineStr"/>
       <c r="T242" t="inlineStr"/>
       <c r="U242" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="V242" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W242" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X242" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Y242" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z242" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AA242" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB242" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AC242" t="n">
         <v>8.25</v>
       </c>
       <c r="AD242" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE242" t="n">
         <v>13.5</v>
@@ -34349,31 +34349,31 @@
         <v>7.6</v>
       </c>
       <c r="AH242" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI242" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ242" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK242" t="n">
         <v>600</v>
       </c>
       <c r="AL242" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM242" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN242" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO242" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AP242" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ242" t="n">
         <v>45</v>
